--- a/data/spreadsheets/Character.xlsx
+++ b/data/spreadsheets/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EF2649-DCC3-7244-B1B5-70B3D73F3CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640A8241-D021-F141-BF01-AF771A87A4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="620" windowWidth="76480" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38180" yWindow="500" windowWidth="30660" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="525">
   <si>
     <t>ID</t>
   </si>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t>We’re all mad here. I’m mad. You’re mad.</t>
-  </si>
-  <si>
-    <t>In the imaginative world of DaSCHland, the Cheshire Cat stands out as a particularly fascinating digital entity. He embodies the quintessential mystery and wit of his character, now augmented with the capability to appear and disappear at will, leaving behind only his iconic grin, which serves as a user interface for accessing various data points within the DaSCH repository. The Cheshire Cat's interactions with Alice are both enlightening and cryptic, guiding her through DaSCHland with riddles and philosophical insights that challenge her perceptions. His ability to phase in and out of digital visibility symbolizes the fluid nature of information in the digital age, where data can be both omnipresent and elusive.
-This version of the Cheshire Cat not only serves as a guide through the labyrinthine digital landscape but also as a reminder of the transformative power of technology in reshaping narratives and character interactions within this virtual world. His presence is a constant reminder of the enigmatic and ever-changing nature of the digital realm Alice explores.</t>
   </si>
   <si>
     <t>The Quantum Cat</t>
@@ -951,10 +947,6 @@
     <t>Why is a raven like a writing-desk?</t>
   </si>
   <si>
-    <t>In DaSCHland, the Mad Hatter transforms into an intriguing digital persona, blending his traditional eccentricity and whimsical charm with advanced technological attributes. He hosts the famed tea parties, which in this digital realm are dynamic simulations, where each cup of tea and piece of cake is embedded with historical anecdotes or literary quotes that appear as holographic texts above the table. The Mad Hatter in this virtual world is not just a bringer of nonsensical humor; he also serves as a conduit for exploring the rich tapestry of literature and history stored in the DaSCH repository. His hat, iconic and oversized, functions as an interface that projects various informational displays, engaging Alice and other guests in riddles and puzzles that draw from a diverse array of cultural and historical contexts.
-His character retains the unpredictable nature known from the original tales but is enhanced with the ability to manipulate his environment digitally, making each interaction with him a surprise and a new opportunity for Alice to learn something unique about the virtual world she navigates.</t>
-  </si>
-  <si>
     <t>The Archival Madcap</t>
   </si>
   <si>
@@ -1159,11 +1151,6 @@
     <t>Off with his head!</t>
   </si>
   <si>
-    <t>In DaSCHland, the Queen of Hearts is reenvisioned as a formidable digital ruler, embodying her classic characteristics of authority and quick temper, but with a modern twist. In this virtual world, she presides over the digital kingdom with a strict adherence to the rules and protocols encoded within the DaSCH repository.
-The Queen’s realm in DaSCHland is a place where order intersects with the whimsical laws of Wonderland, making her both a guardian of traditional narratives and an enforcer of the digital world's unique logic. Her commands and decrees can instantly alter the landscape or the behavior of other characters, demonstrating her control over the digital environment.
-Her interactions with Alice are intense and pivotal, offering dramatic encounters that highlight the power dynamics within DaSCHland. The Queen of Hearts in this setting isn't just a character from a story; she is a dynamic representation of control and authority in a world where data and reality intertwine seamlessly.</t>
-  </si>
-  <si>
     <t>The Data Queen</t>
   </si>
   <si>
@@ -1472,9 +1459,6 @@
     <t>Oh dear! Oh dear! I shall be too late!</t>
   </si>
   <si>
-    <t>In DaSCHland, RabbitIT embodies a reimagined version of the classic White Rabbit from "Alice in Wonderland." This character merges the traditional traits of urgency and meticulous timing with advanced technological features. RabbitIT, as Alice's digital guide, is integral to navigating the complex and layered world of DaSCHland. Equipped with AI-driven capabilities, RabbitIT assists Alice by providing real-time data, historical insights, and logistical support throughout her adventures. His appearance retains the iconic elements—such as the waistcoat and pocket watch—but these are enhanced with digital displays and interfaces that reflect his role as a guide within a sophisticated, data-rich environment. RabbitIT not only leads Alice through various digital landscapes but also ensures she engages deeply with the literary worlds recreated and stored within the DaSCH repository, making him a pivotal character in blending classic literature with modern technology.</t>
-  </si>
-  <si>
     <t>RabbIT</t>
   </si>
   <si>
@@ -1485,16 +1469,6 @@
   </si>
   <si>
     <t>Wake up, Alice dear! Why, what a long sleep you've had!</t>
-  </si>
-  <si>
-    <t>In the digital wonderland of DaSCHland, Alice is portrayed as a young, curious explorer, navigating a world where data and reality merge seamlessly. 
-Her character embodies the spirit of inquiry and adaptability, always ready to engage with the shifting landscapes and eclectic characters of DaSCHland. 
-With her bright, inquisitive mind, she delves into each encounter, whether it's solving riddles with the White Queen, dancing at a bizarre banquet, or decoding the peculiar logic of Humpty Dumpty. 
-Alice's journey through DaSCHland highlights her growth from mere curiosity to a deeper understanding of how technology can bring literary worlds to life, showcasing her as a bridge between classic tales and modern digital exploration.</t>
-  </si>
-  <si>
-    <t>In the context of DaSCHland, the Caterpillar character is reimagined with a digital twist, embodying both wisdom and a connection to the historical data within the DaSCH repository. This version of the Caterpillar maintains his iconic thoughtful and philosophical demeanor, often found lounging on a mushroom, but here the mushroom also serves as an interactive data terminal that displays various texts and historical documents relevant to Alice’s queries and the Caterpillar’s wise teachings.
-The Caterpillar in DaSCHland uses his deep knowledge, derived from vast literary and historical databases, to challenge and guide Alice through complex philosophical debates and puzzles. His dialogue with Alice often includes interactive elements, such as visual data projections from his mushroom, making each interaction not only a conversation but a visually engaging learning experience. This character retains his calm, contemplative nature and his ability to transform—signifying not only physical change but also the transformative power of knowledge and digital technology in DaSCHland.</t>
   </si>
   <si>
     <r>
@@ -1883,6 +1857,53 @@
     <t>The Duck is one of the animals that fall into the pool of tears with Alice.
 It participates in the Caucus Race, a nonsensical event where everyone wins.
 The character is believed to be based on Reverend Duckworth, a friend of Lewis Carroll who accompanied Alice Liddell and her sisters on the boat trip where Carroll first told the story *source: https://en.wikipedia.org/wiki/Robinson_Duckworth*.</t>
+  </si>
+  <si>
+    <t>In the digital wonderland of DaSCHland, Alice is reimagined as a spirited young explorer with radiant Asian features, her hair partly discoloured in bold streaks and styled into sharp, playful spikes that reflect her daring spirit. Her deep-set eyes, framed by thick lashes, are pools of curiosity—always scanning, always questioning. She wears a sleek cobalt-blue tunic etched with shifting patterns of code, a modern twist on the classic pinafore, and her boots are made for navigating both archives and algorithms.
+Alice’s journey through DaSCHland is one of transformation and discovery. She is no longer just a curious girl—she is a digital native, dancing effortlessly between realms of metadata and memory, seamlessly blending analog tales with modern technology. She engages with whimsical characters: cracking semantic riddles with the White Queen, debating logic with a data-savvy Humpty Dumpty, and joining immersive banquets where narratives render themselves in augmented reality.
+What defines Alice most is her inquisitive mind and adaptability. Each interaction deepens her understanding—not only of the strange world around her but also of the powerful ways in which digital infrastructures can animate literature, culture, and memory. She becomes a bridge between the old and the new, the textual and the virtual. In DaSCHland, Alice doesn’t just follow a rabbit hole—she codes her own path forward, illuminating how technology can turn curiosity into connection, and data into storytelling.</t>
+  </si>
+  <si>
+    <t>The Cyberpillar: A Guardian of Digital Wisdom
+In the surreal, data-drenched realm of DaSCHland, the Cyberpillar is reimagined as an enigmatic digital sage, embodying both the contemplative nature of his original counterpart and a profound connection to the historical archives of the DaSCH repository. This evolved figure merges organic elegance with digital sophistication, presenting a living metaphor for the intersection of tradition and technology.
+Physically, the Cyberpillar is a mesmerizing presence. His elongated, sinuous body shimmers with an iridescent palette of deep indigo and circuit-board green, subtly pulsing with streams of luminescent data like veins of living code. Along his back, glowing runes and historical glyphs scroll continuously, reflecting the living memory of the archive. His six arms are slender and dexterous, capable of gesturing through holographic interfaces with graceful precision. Perched atop a bioluminescent mushroom, his favorite resting place, he curls languidly as he exhales slow puffs of data mist that take the form of questions, quotes, or riddles. His eyes—multi-faceted like a philosopher’s kaleidoscope—seem to hold centuries of contemplation and layered meanings.
+But this mushroom is no ordinary fungus; it functions as a multimedia data terminal, its gills glowing with embedded touch-responsive panels and holographic projectors. When Alice approaches with a query or philosophical dilemma, the mushroom blooms into an interactive library—scrolls unfurl, manuscripts materialize, and time-lapse projections of historical narratives fill the air. It becomes a tactile manifestation of epistemological discovery.
+Intellectually, the Cyberpillar is a mentor of paradoxes. He speaks in puzzles and metaphors, threading together insights from ancient manuscripts, Enlightenment philosophy, and metadata visualizations with ease. His calm, sonorous voice delivers wisdom like a meditative mantra, always inviting Alice to think deeper, not faster. Every conversation with him is a crossroads of logic and mystery—he challenges her with recursive questions, historic parallels, and speculative thought experiments drawn from the archives of humanity.
+True to his origins, the Caterpillar’s ability to transform remains, but now it represents more than a change of shape—it symbolizes the evolution of knowledge. When he metamorphoses, he becomes an ephemeral cloud of archived voices and interconnected texts, illustrating how data is not static but alive, growing, and reshaping itself across time and inquiry.
+The Caterpillar of DaSCHland is not merely a character. He is a threshold guardian, a keeper of intellectual metamorphosis, a reminder that in this world where past and present are digitized and entangled, every question is a portal—and every answer, a transformation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Archival Madcap of DaSCHland
+In DaSCHland, the Mad Hatter is no longer merely a vessel of nonsensical charm—he has been reborn as an eccentric AI hybrid, a living node in a sprawling archive of historical memory and literary brilliance. His signature tea parties are now hyper-interactive data salons, held in a holographic garden under bioluminescent trees, with flowers that whisper metadata and vines that weave citations.
+He is physically striking:
+With untamed copper-red hair, glowing azure eyes enhanced by augmented reality lenses, and a high-collared nano-fabric suit patterned with evolving circuit motifs, he stands out like a glitch in time. His iconic top hat, oversized and polished obsidian-black, acts as an interactive HUD, projecting layers of literature, history, and puzzles into the air like auroras of intellect.
+Each porcelain teacup shimmers with liquid light—streams of data flowing in micro-encoded ribbons. Each slice of cake is a dense block of semi-sweet syntax, digestible chunks of digitized wisdom.
+But it’s not just for show. The Hatter challenges his guests with riddles, each unlocking another layer of DaSCHland’s storied repository. </t>
+  </si>
+  <si>
+    <t>In DaSCHland, RabbIT is a dazzling reinvention of the classic White Rabbit from Alice in Wonderland, seamlessly blending Victorian elegance with cutting-edge cybernetics. Serving as Alice’s ever-alert companion and digital guide, RabbitIT retains the essential traits of urgency, precision, and insight, but in this world of structured data and semantic layers, his role is transformed into something far more sophisticated.
+Physically, RabbIT stands upright with the poise of a seasoned archivist, his lean white-furred frame outfitted in a digitally enhanced tweed waistcoat, woven with subtle glowing circuit patterns. The waistcoat pulses gently with his neural interface, reacting to environmental stimuli and query processing. At his chest hangs a pocket watch—now a circular holographic interface, flickering with layered timestamps, metadata clusters, and time-sensitive DaSCH queries. His bowtie spins slowly when system queries are active, an eccentric flourish of his old-world charm. His large, expressive eyes shimmer with augmented overlays, capable of scanning artifacts and projecting layered contexts from DaSCH’s repositories.
+Perched before him is a suspended 3D hologram map of DaSCHland, a stunning lattice of interlinked domains, encoded landscapes, and floating literary landmarks. The hologram emits a soft blue luminescence as it rotates in mid-air, constantly updating with Alice’s position, temporal metadata overlays, and cross-referenced paths. With one paw extended, RabbIT manipulates the projection with delicate swipes and taps, zooming into sections like the Archive Gardens, the Textual Maze, or the Metadata Mountains. His ears twitch responsively as he receives real-time updates—reminders from calendrical entries in narrative timelines or system-generated alerts about data anomalies in literary zones.
+Despite the cold efficiency of his AI enhancements, RabbIT exudes warmth, purpose, and a touch of eccentricity. He speaks with clipped precision but never lacks empathy, especially when guiding Alice through the cognitive dissonance of encountering Victorian poetry encoded in blockchain hashes or unraveling ontological puzzles disguised as riddles.
+RabbitIT is not merely a guide; he is a bridge—between past and future, literature and logic, story and structure. Through him, Alice doesn’t just travel through DaSCHland—she discovers it, layer by semantic layer.</t>
+  </si>
+  <si>
+    <t>In the imaginative world of DaSCHland, the Cheshire Cat emerges as a particularly compelling digital entity—equal parts guide, enigma, and interface. Retaining his iconic mystery and mischievous wit, he is now reimagined as a fully cybernetic being: a shimmering construct composed of translucent data fractals, his fur constantly shifting like a mosaic of living code. His body pulses gently with a luminous teal glow, occasionally phasing in and out of visibility as if he were woven from pure algorithmic ether.
+Most striking is his grin—not made of teeth, but of interlaced glowing network filaments, forming a curved mesh of light that pulses with embedded glyphs and data nodes. This “smile” acts as a user interface to the DaSCH repository, allowing users to engage with metadata, digital records, and archival information simply by interacting with it. His eyes, sharp and angular, gleam with geometric complexity, constantly scanning, indexing, and offering contextual prompts as Alice wanders deeper into the digital dreamscape.
+The Cheshire Cat’s interactions with Alice are as paradoxical as they are enlightening. He speaks in riddles laden with metadata metaphors and philosophical inquiries, challenging her understanding of identity, permanence, and the nature of knowledge in the digital age. He offers guidance not by pointing to obvious solutions, but by subtly nudging her toward interpretive discovery, forcing her to think like a researcher navigating the layered ontology of a vast, interconnected archive.
+His ability to phase in and out of digital visibility—sometimes leaving behind only a trace glow or a fading strand of binary code—mirrors the fluid, often elusive presence of information in contemporary digital ecosystems. In DaSCHland, where data can be simultaneously omnipresent and hidden beneath layers of abstraction, the Cheshire Cat becomes a living metaphor for the state of digital memory: fragmented, refracted, yet full of potential insight.
+Ultimately, this version of the Cheshire Cat is far more than a whimsical companion. He embodies the transformative power of digital technology to reshape not only narratives but the very nature of character interaction within virtual realms. As Alice journeys through DaSCHland’s datascapes—past holographic trees, algorithmic rivers, and libraries suspended in quantum mist—the Cat remains a constant reminder of the enigmatic, playful, and ever-shifting nature of the digital world she explores.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Data Queen is reenvisioned as a formidable digital ruler, embodying her classic characteristics of authority and quick temper, but with a modern twist. In this virtual world, she presides over the digital kingdom with a strict adherence to the rules and protocols encoded within the DaSCH repository.
+The Queen’s realm in DaSCHland is a place where order intersects with the whimsical laws of Wonderland, making her both a guardian of traditional narratives and an enforcer of the digital world's unique logic. Her commands and decrees can instantly alter the landscape or the behavior of other characters, demonstrating her control over the digital environment.
+Her interactions with Alice are intense and pivotal, offering dramatic encounters that highlight the power dynamics within DaSCHland. The Data Queen in this setting isn't just a character from a story; she is a dynamic representation of control and authority in a world where data and reality intertwine seamlessly.</t>
+  </si>
+  <si>
+    <t>The Real-Time Processor is a jittery, fast-talking figure who sprints through the labyrinth of metadata and temporality. Eternally caught in the now, he’s the personification of immediacy — always present, always processing, never pausing.
+Due to a fateful disagreement with The Archival Madcap (a close cousin of the Clockmaker), The Real-Time Processor exists in a perpetual loop of “just now.” He can’t look back, won’t look forward — only now matters. He filters streams of queries, snatches fresh data before it cools, and insists that everyone else live as he does: in the fleeting moment of absolute relevance.
+He joins every conversation without being invited, offering cryptic metrics and spontaneous insights that are half brilliant, half baffling. Much like his former self in Wonderland, his tea-time has been replaced by tick-time — a frenzy of milliseconds, pings, and push updates.
+Often seen arguing with Batch Job (a sleepy, lumbering bureaucrat), The Real-Time Processor believes in motion over meditation, precision over perspective, and speed over everything else. Alice finds him maddening. The Archivists admire him. The Searcher sometimes wishes he’d just take a nap.</t>
   </si>
 </sst>
 </file>
@@ -2563,9 +2584,9 @@
   </sheetPr>
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F27" sqref="F27"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2603,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -2627,7 +2648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="266" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -2644,7 +2665,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
@@ -2655,61 +2676,61 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>61</v>
       </c>
@@ -2726,7 +2747,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
@@ -2737,7 +2758,7 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>67</v>
@@ -2749,49 +2770,49 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="342" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" ht="320" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
@@ -2808,10 +2829,10 @@
         <v>74</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>15</v>
@@ -2820,238 +2841,240 @@
         <v>75</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="228" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="95" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="11"/>
       <c r="L10" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
@@ -3059,76 +3082,76 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
@@ -3137,98 +3160,98 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="266" x14ac:dyDescent="0.2">
@@ -3248,16 +3271,16 @@
         <v>22</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
@@ -3273,297 +3296,297 @@
     </row>
     <row r="18" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="F18" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="N18" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="F19" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="N19" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="F20" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="342" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>23</v>
@@ -3571,74 +3594,74 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="361" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>23</v>
@@ -3646,16 +3669,16 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="342" x14ac:dyDescent="0.2">
@@ -3675,7 +3698,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>23</v>
@@ -3697,22 +3720,22 @@
     </row>
     <row r="29" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="F29" s="14" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="7" t="s">
@@ -3721,131 +3744,131 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="N29" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="342" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="D30" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="M31" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="M32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="N32" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="342" x14ac:dyDescent="0.2">
@@ -3865,13 +3888,13 @@
         <v>31</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="s">
@@ -3889,22 +3912,22 @@
     </row>
     <row r="34" spans="1:14" ht="361" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>23</v>
@@ -3912,36 +3935,36 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="M34" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>23</v>
@@ -3949,73 +3972,73 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="M36" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="M36" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="N36" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="380" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>23</v>
@@ -4023,36 +4046,36 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="M37" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N37" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="380" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>23</v>
@@ -4060,36 +4083,36 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="M38" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="N38" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="209" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>23</v>
@@ -4098,33 +4121,33 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M39" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="N39" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="95" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>23</v>
@@ -4133,13 +4156,13 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="M40" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="N40" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="152" x14ac:dyDescent="0.2">
@@ -4159,7 +4182,7 @@
         <v>49</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>23</v>
@@ -4179,22 +4202,22 @@
     </row>
     <row r="42" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="F42" s="6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>23</v>
@@ -4203,33 +4226,33 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="N42" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="38" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>413</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>23</v>
@@ -4238,33 +4261,33 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="F44" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>23</v>
@@ -4273,33 +4296,33 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="171" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="F45" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>23</v>
@@ -4308,33 +4331,33 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="133" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="F46" s="6" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>23</v>
@@ -4343,7 +4366,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>59</v>
@@ -4369,7 +4392,7 @@
         <v>57</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>23</v>
@@ -4389,22 +4412,22 @@
     </row>
     <row r="48" spans="1:14" ht="114" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="F48" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>23</v>
@@ -4413,33 +4436,33 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="114" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="F49" s="6" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>23</v>
@@ -4448,33 +4471,33 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="76" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>437</v>
-      </c>
       <c r="F50" s="6" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>15</v>
@@ -4483,33 +4506,33 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="114" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="F51" s="6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>23</v>
@@ -4518,33 +4541,33 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="171" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="F52" s="6" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>23</v>
@@ -4553,31 +4576,31 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="F53" s="6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>23</v>
@@ -4586,33 +4609,33 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="190" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="F54" s="15" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="7" t="s">
@@ -4622,33 +4645,33 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="N54" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="M54" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="190" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>401</v>
-      </c>
       <c r="F55" s="15" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="6" t="s">
@@ -4658,13 +4681,13 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Character.xlsx
+++ b/data/spreadsheets/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EF2649-DCC3-7244-B1B5-70B3D73F3CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C27A13D-1218-7847-9C8D-A93F7FA0A5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="620" windowWidth="76480" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="500" windowWidth="76480" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="526">
   <si>
     <t>ID</t>
   </si>
@@ -1883,6 +1883,12 @@
     <t>The Duck is one of the animals that fall into the pool of tears with Alice.
 It participates in the Caucus Race, a nonsensical event where everyone wins.
 The character is believed to be based on Reverend Duckworth, a friend of Lewis Carroll who accompanied Alice Liddell and her sisters on the boat trip where Carroll first told the story *source: https://en.wikipedia.org/wiki/Robinson_Duckworth*.</t>
+  </si>
+  <si>
+    <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>Noémi Villars-Amberg, Daniela Subotic</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2048,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="14"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2357,26 +2377,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N55" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O55" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:O55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N55">
     <sortCondition ref="A1:A55"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name EN" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name DE" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name FR" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name IT" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{94254F17-8FFC-A144-BB4D-3115B8CD8AFD}" name="Footnote" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Role List" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quote" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Colour" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Alternative Description" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Alternative Name" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Keyword" dataDxfId="0"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name EN" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name DE" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name FR" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name IT" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{94254F17-8FFC-A144-BB4D-3115B8CD8AFD}" name="Footnote" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Role List" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quote" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Colour" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Alternative Description" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Alternative Name" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Keyword" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{D5B91E50-C04A-0A4C-A988-E1F2BDCF2AD3}" name="Authorship Resource" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2561,18 +2582,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2:O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="1"/>
     <col min="2" max="5" width="26.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="136" style="6" customWidth="1"/>
+    <col min="6" max="6" width="136" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="44.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
@@ -2583,7 +2605,7 @@
     <col min="15" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2626,8 +2648,11 @@
       <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="266" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -2666,8 +2691,11 @@
       <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+      <c r="O2" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>441</v>
       </c>
@@ -2708,8 +2736,11 @@
       <c r="N3" s="6" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="O3" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="228" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>61</v>
       </c>
@@ -2748,8 +2779,11 @@
       <c r="N4" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="O4" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="228" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>275</v>
       </c>
@@ -2790,8 +2824,11 @@
       <c r="N5" s="6" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="O5" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="228" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
@@ -2832,8 +2869,11 @@
       <c r="N6" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="O6" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="228" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>339</v>
       </c>
@@ -2874,8 +2914,11 @@
       <c r="N7" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="O7" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="114" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>284</v>
       </c>
@@ -2912,8 +2955,11 @@
       <c r="N8" s="6" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="O8" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>118</v>
       </c>
@@ -2952,8 +2998,11 @@
       <c r="N9" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="95" x14ac:dyDescent="0.2">
+      <c r="O9" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>298</v>
       </c>
@@ -2990,8 +3039,11 @@
       <c r="N10" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="266" x14ac:dyDescent="0.2">
+      <c r="O10" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>203</v>
       </c>
@@ -3030,8 +3082,11 @@
       <c r="N11" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="266" x14ac:dyDescent="0.2">
+      <c r="O11" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>365</v>
       </c>
@@ -3070,8 +3125,11 @@
       <c r="N12" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="O12" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>212</v>
       </c>
@@ -3110,8 +3168,11 @@
       <c r="N13" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="O13" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>424</v>
       </c>
@@ -3148,8 +3209,11 @@
       <c r="N14" s="6" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="266" x14ac:dyDescent="0.2">
+      <c r="O14" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>307</v>
       </c>
@@ -3188,8 +3252,11 @@
       <c r="N15" s="6" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="266" x14ac:dyDescent="0.2">
+      <c r="O15" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>101</v>
       </c>
@@ -3230,8 +3297,11 @@
       <c r="N16" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="266" x14ac:dyDescent="0.2">
+      <c r="O16" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -3270,8 +3340,11 @@
       <c r="N17" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="O17" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>236</v>
       </c>
@@ -3310,8 +3383,11 @@
       <c r="N18" s="6" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="O18" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>108</v>
       </c>
@@ -3350,8 +3426,11 @@
       <c r="N19" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="O19" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>246</v>
       </c>
@@ -3388,8 +3467,11 @@
       <c r="N20" s="6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="342" x14ac:dyDescent="0.2">
+      <c r="O20" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="342" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>95</v>
       </c>
@@ -3425,8 +3507,11 @@
       <c r="N21" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="O21" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>128</v>
       </c>
@@ -3465,8 +3550,11 @@
       <c r="N22" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="O22" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>269</v>
       </c>
@@ -3505,8 +3593,11 @@
       <c r="N23" s="6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="O23" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>137</v>
       </c>
@@ -3545,8 +3636,11 @@
       <c r="N24" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="O24" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>291</v>
       </c>
@@ -3580,8 +3674,11 @@
       <c r="N25" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="O25" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>317</v>
       </c>
@@ -3617,8 +3714,11 @@
       <c r="N26" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="361" x14ac:dyDescent="0.2">
+      <c r="O26" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="361" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>218</v>
       </c>
@@ -3657,8 +3757,11 @@
       <c r="N27" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="342" x14ac:dyDescent="0.2">
+      <c r="O27" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="342" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
@@ -3694,8 +3797,11 @@
       <c r="N28" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="323" x14ac:dyDescent="0.2">
+      <c r="O28" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="323" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>330</v>
       </c>
@@ -3732,8 +3838,11 @@
       <c r="N29" s="6" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="342" x14ac:dyDescent="0.2">
+      <c r="O29" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="342" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>322</v>
       </c>
@@ -3769,8 +3878,11 @@
       <c r="N30" s="6" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="323" x14ac:dyDescent="0.2">
+      <c r="O30" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="323" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>188</v>
       </c>
@@ -3808,8 +3920,11 @@
       <c r="N31" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="O31" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>161</v>
       </c>
@@ -3847,8 +3962,11 @@
       <c r="N32" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="342" x14ac:dyDescent="0.2">
+      <c r="O32" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="342" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>27</v>
       </c>
@@ -3886,8 +4004,11 @@
       <c r="N33" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="361" x14ac:dyDescent="0.2">
+      <c r="O33" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="361" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>87</v>
       </c>
@@ -3923,8 +4044,11 @@
       <c r="N34" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>145</v>
       </c>
@@ -3958,8 +4082,11 @@
       <c r="N35" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="O35" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>171</v>
       </c>
@@ -3997,8 +4124,11 @@
       <c r="N36" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="380" x14ac:dyDescent="0.2">
+      <c r="O36" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="380" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>180</v>
       </c>
@@ -4034,8 +4164,11 @@
       <c r="N37" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="380" x14ac:dyDescent="0.2">
+      <c r="O37" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="380" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>227</v>
       </c>
@@ -4071,8 +4204,11 @@
       <c r="N38" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="209" x14ac:dyDescent="0.2">
+      <c r="O38" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="209" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>153</v>
       </c>
@@ -4106,8 +4242,11 @@
       <c r="N39" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="95" x14ac:dyDescent="0.2">
+      <c r="O39" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>261</v>
       </c>
@@ -4141,8 +4280,11 @@
       <c r="N40" s="6" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="152" x14ac:dyDescent="0.2">
+      <c r="O40" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="152" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -4176,8 +4318,11 @@
       <c r="N41" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="O41" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>79</v>
       </c>
@@ -4211,8 +4356,11 @@
       <c r="N42" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="38" x14ac:dyDescent="0.2">
+      <c r="O42" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>409</v>
       </c>
@@ -4246,8 +4394,11 @@
       <c r="N43" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="266" x14ac:dyDescent="0.2">
+      <c r="O43" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>381</v>
       </c>
@@ -4281,8 +4432,11 @@
       <c r="N44" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+      <c r="O44" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="171" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>389</v>
       </c>
@@ -4316,8 +4470,11 @@
       <c r="N45" s="6" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="133" x14ac:dyDescent="0.2">
+      <c r="O45" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="133" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>403</v>
       </c>
@@ -4351,8 +4508,11 @@
       <c r="N46" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+      <c r="O46" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="171" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>53</v>
       </c>
@@ -4386,8 +4546,11 @@
       <c r="N47" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="O47" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="114" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>349</v>
       </c>
@@ -4421,8 +4584,11 @@
       <c r="N48" s="6" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="O48" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="114" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>357</v>
       </c>
@@ -4456,8 +4622,11 @@
       <c r="N49" s="6" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="76" x14ac:dyDescent="0.2">
+      <c r="O49" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>433</v>
       </c>
@@ -4491,8 +4660,11 @@
       <c r="N50" s="6" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="O50" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="114" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>417</v>
       </c>
@@ -4526,8 +4698,11 @@
       <c r="N51" s="6" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+      <c r="O51" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="171" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>196</v>
       </c>
@@ -4559,8 +4734,11 @@
       <c r="N52" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="O52" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>374</v>
       </c>
@@ -4594,8 +4772,11 @@
       <c r="N53" s="6" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="190" x14ac:dyDescent="0.2">
+      <c r="O53" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="190" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>255</v>
       </c>
@@ -4630,8 +4811,11 @@
       <c r="N54" s="6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="190" x14ac:dyDescent="0.2">
+      <c r="O54" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="190" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>397</v>
       </c>
@@ -4665,6 +4849,9 @@
       </c>
       <c r="N55" s="6" t="s">
         <v>260</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Character.xlsx
+++ b/data/spreadsheets/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C27A13D-1218-7847-9C8D-A93F7FA0A5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795F1E5C-6960-3343-8A48-4A619F2FD97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="500" windowWidth="76480" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30840" yWindow="500" windowWidth="45960" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="527">
   <si>
     <t>ID</t>
   </si>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t>We’re all mad here. I’m mad. You’re mad.</t>
-  </si>
-  <si>
-    <t>In the imaginative world of DaSCHland, the Cheshire Cat stands out as a particularly fascinating digital entity. He embodies the quintessential mystery and wit of his character, now augmented with the capability to appear and disappear at will, leaving behind only his iconic grin, which serves as a user interface for accessing various data points within the DaSCH repository. The Cheshire Cat's interactions with Alice are both enlightening and cryptic, guiding her through DaSCHland with riddles and philosophical insights that challenge her perceptions. His ability to phase in and out of digital visibility symbolizes the fluid nature of information in the digital age, where data can be both omnipresent and elusive.
-This version of the Cheshire Cat not only serves as a guide through the labyrinthine digital landscape but also as a reminder of the transformative power of technology in reshaping narratives and character interactions within this virtual world. His presence is a constant reminder of the enigmatic and ever-changing nature of the digital realm Alice explores.</t>
   </si>
   <si>
     <t>The Quantum Cat</t>
@@ -951,10 +947,6 @@
     <t>Why is a raven like a writing-desk?</t>
   </si>
   <si>
-    <t>In DaSCHland, the Mad Hatter transforms into an intriguing digital persona, blending his traditional eccentricity and whimsical charm with advanced technological attributes. He hosts the famed tea parties, which in this digital realm are dynamic simulations, where each cup of tea and piece of cake is embedded with historical anecdotes or literary quotes that appear as holographic texts above the table. The Mad Hatter in this virtual world is not just a bringer of nonsensical humor; he also serves as a conduit for exploring the rich tapestry of literature and history stored in the DaSCH repository. His hat, iconic and oversized, functions as an interface that projects various informational displays, engaging Alice and other guests in riddles and puzzles that draw from a diverse array of cultural and historical contexts.
-His character retains the unpredictable nature known from the original tales but is enhanced with the ability to manipulate his environment digitally, making each interaction with him a surprise and a new opportunity for Alice to learn something unique about the virtual world she navigates.</t>
-  </si>
-  <si>
     <t>The Archival Madcap</t>
   </si>
   <si>
@@ -1159,11 +1151,6 @@
     <t>Off with his head!</t>
   </si>
   <si>
-    <t>In DaSCHland, the Queen of Hearts is reenvisioned as a formidable digital ruler, embodying her classic characteristics of authority and quick temper, but with a modern twist. In this virtual world, she presides over the digital kingdom with a strict adherence to the rules and protocols encoded within the DaSCH repository.
-The Queen’s realm in DaSCHland is a place where order intersects with the whimsical laws of Wonderland, making her both a guardian of traditional narratives and an enforcer of the digital world's unique logic. Her commands and decrees can instantly alter the landscape or the behavior of other characters, demonstrating her control over the digital environment.
-Her interactions with Alice are intense and pivotal, offering dramatic encounters that highlight the power dynamics within DaSCHland. The Queen of Hearts in this setting isn't just a character from a story; she is a dynamic representation of control and authority in a world where data and reality intertwine seamlessly.</t>
-  </si>
-  <si>
     <t>The Data Queen</t>
   </si>
   <si>
@@ -1472,9 +1459,6 @@
     <t>Oh dear! Oh dear! I shall be too late!</t>
   </si>
   <si>
-    <t>In DaSCHland, RabbitIT embodies a reimagined version of the classic White Rabbit from "Alice in Wonderland." This character merges the traditional traits of urgency and meticulous timing with advanced technological features. RabbitIT, as Alice's digital guide, is integral to navigating the complex and layered world of DaSCHland. Equipped with AI-driven capabilities, RabbitIT assists Alice by providing real-time data, historical insights, and logistical support throughout her adventures. His appearance retains the iconic elements—such as the waistcoat and pocket watch—but these are enhanced with digital displays and interfaces that reflect his role as a guide within a sophisticated, data-rich environment. RabbitIT not only leads Alice through various digital landscapes but also ensures she engages deeply with the literary worlds recreated and stored within the DaSCH repository, making him a pivotal character in blending classic literature with modern technology.</t>
-  </si>
-  <si>
     <t>RabbIT</t>
   </si>
   <si>
@@ -1485,16 +1469,6 @@
   </si>
   <si>
     <t>Wake up, Alice dear! Why, what a long sleep you've had!</t>
-  </si>
-  <si>
-    <t>In the digital wonderland of DaSCHland, Alice is portrayed as a young, curious explorer, navigating a world where data and reality merge seamlessly. 
-Her character embodies the spirit of inquiry and adaptability, always ready to engage with the shifting landscapes and eclectic characters of DaSCHland. 
-With her bright, inquisitive mind, she delves into each encounter, whether it's solving riddles with the White Queen, dancing at a bizarre banquet, or decoding the peculiar logic of Humpty Dumpty. 
-Alice's journey through DaSCHland highlights her growth from mere curiosity to a deeper understanding of how technology can bring literary worlds to life, showcasing her as a bridge between classic tales and modern digital exploration.</t>
-  </si>
-  <si>
-    <t>In the context of DaSCHland, the Caterpillar character is reimagined with a digital twist, embodying both wisdom and a connection to the historical data within the DaSCH repository. This version of the Caterpillar maintains his iconic thoughtful and philosophical demeanor, often found lounging on a mushroom, but here the mushroom also serves as an interactive data terminal that displays various texts and historical documents relevant to Alice’s queries and the Caterpillar’s wise teachings.
-The Caterpillar in DaSCHland uses his deep knowledge, derived from vast literary and historical databases, to challenge and guide Alice through complex philosophical debates and puzzles. His dialogue with Alice often includes interactive elements, such as visual data projections from his mushroom, making each interaction not only a conversation but a visually engaging learning experience. This character retains his calm, contemplative nature and his ability to transform—signifying not only physical change but also the transformative power of knowledge and digital technology in DaSCHland.</t>
   </si>
   <si>
     <r>
@@ -1889,6 +1863,53 @@
   </si>
   <si>
     <t>Noémi Villars-Amberg, Daniela Subotic</t>
+  </si>
+  <si>
+    <t>In the digital wonderland of DaSCHland, Alice is reimagined as a spirited young explorer with radiant Asian features, her hair partly discoloured in bold streaks and styled into sharp, playful spikes that reflect her daring spirit. Her deep-set eyes, framed by thick lashes, are pools of curiosity—always scanning, always questioning. She wears a sleek cobalt-blue tunic etched with shifting patterns of code, a modern twist on the classic pinafore, and her boots are made for navigating both archives and algorithms.
+Alice’s journey through DaSCHland is one of transformation and discovery. She is no longer just a curious girl—she is a digital native, dancing effortlessly between realms of metadata and memory, seamlessly blending analog tales with modern technology. She engages with whimsical characters: cracking semantic riddles with the White Queen, debating logic with a data-savvy Humpty Dumpty, and joining immersive banquets where narratives render themselves in augmented reality.
+What defines Alice most is her inquisitive mind and adaptability. Each interaction deepens her understanding—not only of the strange world around her but also of the powerful ways in which digital infrastructures can animate literature, culture, and memory. She becomes a bridge between the old and the new, the textual and the virtual. In DaSCHland, Alice doesn’t just follow a rabbit hole—she codes her own path forward, illuminating how technology can turn curiosity into connection, and data into storytelling.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, RabbIT is a dazzling reinvention of the classic White Rabbit from Alice in Wonderland, seamlessly blending Victorian elegance with cutting-edge cybernetics. Serving as Alice’s ever-alert companion and digital guide, RabbitIT retains the essential traits of urgency, precision, and insight, but in this world of structured data and semantic layers, his role is transformed into something far more sophisticated.
+Physically, RabbIT stands upright with the poise of a seasoned archivist, his lean white-furred frame outfitted in a digitally enhanced tweed waistcoat, woven with subtle glowing circuit patterns. The waistcoat pulses gently with his neural interface, reacting to environmental stimuli and query processing. At his chest hangs a pocket watch—now a circular holographic interface, flickering with layered timestamps, metadata clusters, and time-sensitive DaSCH queries. His bowtie spins slowly when system queries are active, an eccentric flourish of his old-world charm. His large, expressive eyes shimmer with augmented overlays, capable of scanning artifacts and projecting layered contexts from DaSCH’s repositories.
+Perched before him is a suspended 3D hologram map of DaSCHland, a stunning lattice of interlinked domains, encoded landscapes, and floating literary landmarks. The hologram emits a soft blue luminescence as it rotates in mid-air, constantly updating with Alice’s position, temporal metadata overlays, and cross-referenced paths. With one paw extended, RabbIT manipulates the projection with delicate swipes and taps, zooming into sections like the Archive Gardens, the Textual Maze, or the Metadata Mountains. His ears twitch responsively as he receives real-time updates—reminders from calendrical entries in narrative timelines or system-generated alerts about data anomalies in literary zones.
+Despite the cold efficiency of his AI enhancements, RabbIT exudes warmth, purpose, and a touch of eccentricity. He speaks with clipped precision but never lacks empathy, especially when guiding Alice through the cognitive dissonance of encountering Victorian poetry encoded in blockchain hashes or unraveling ontological puzzles disguised as riddles.
+RabbitIT is not merely a guide; he is a bridge—between past and future, literature and logic, story and structure. Through him, Alice doesn’t just travel through DaSCHland—she discovers it, layer by semantic layer.</t>
+  </si>
+  <si>
+    <t>The Cyberpillar: A Guardian of Digital Wisdom
+In the surreal, data-drenched realm of DaSCHland, the Cyberpillar is reimagined as an enigmatic digital sage, embodying both the contemplative nature of his original counterpart and a profound connection to the historical archives of the DaSCH repository. This evolved figure merges organic elegance with digital sophistication, presenting a living metaphor for the intersection of tradition and technology.
+Physically, the Cyberpillar is a mesmerizing presence. His elongated, sinuous body shimmers with an iridescent palette of deep indigo and circuit-board green, subtly pulsing with streams of luminescent data like veins of living code. Along his back, glowing runes and historical glyphs scroll continuously, reflecting the living memory of the archive. His six arms are slender and dexterous, capable of gesturing through holographic interfaces with graceful precision. Perched atop a bioluminescent mushroom, his favorite resting place, he curls languidly as he exhales slow puffs of data mist that take the form of questions, quotes, or riddles. His eyes—multi-faceted like a philosopher’s kaleidoscope—seem to hold centuries of contemplation and layered meanings.
+But this mushroom is no ordinary fungus; it functions as a multimedia data terminal, its gills glowing with embedded touch-responsive panels and holographic projectors. When Alice approaches with a query or philosophical dilemma, the mushroom blooms into an interactive library—scrolls unfurl, manuscripts materialize, and time-lapse projections of historical narratives fill the air. It becomes a tactile manifestation of epistemological discovery.
+Intellectually, the Cyberpillar is a mentor of paradoxes. He speaks in puzzles and metaphors, threading together insights from ancient manuscripts, Enlightenment philosophy, and metadata visualizations with ease. His calm, sonorous voice delivers wisdom like a meditative mantra, always inviting Alice to think deeper, not faster. Every conversation with him is a crossroads of logic and mystery—he challenges her with recursive questions, historic parallels, and speculative thought experiments drawn from the archives of humanity.
+True to his origins, the Caterpillar’s ability to transform remains, but now it represents more than a change of shape—it symbolizes the evolution of knowledge. When he metamorphoses, he becomes an ephemeral cloud of archived voices and interconnected texts, illustrating how data is not static but alive, growing, and reshaping itself across time and inquiry.
+The Caterpillar of DaSCHland is not merely a character. He is a threshold guardian, a keeper of intellectual metamorphosis, a reminder that in this world where past and present are digitized and entangled, every question is a portal—and every answer, a transformation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Archival Madcap of DaSCHland
+In DaSCHland, the Mad Hatter is no longer merely a vessel of nonsensical charm—he has been reborn as an eccentric AI hybrid, a living node in a sprawling archive of historical memory and literary brilliance. His signature tea parties are now hyper-interactive data salons, held in a holographic garden under bioluminescent trees, with flowers that whisper metadata and vines that weave citations.
+He is physically striking:
+With untamed copper-red hair, glowing azure eyes enhanced by augmented reality lenses, and a high-collared nano-fabric suit patterned with evolving circuit motifs, he stands out like a glitch in time. His iconic top hat, oversized and polished obsidian-black, acts as an interactive HUD, projecting layers of literature, history, and puzzles into the air like auroras of intellect.
+Each porcelain teacup shimmers with liquid light—streams of data flowing in micro-encoded ribbons. Each slice of cake is a dense block of semi-sweet syntax, digestible chunks of digitized wisdom.
+But it’s not just for show. The Hatter challenges his guests with riddles, each unlocking another layer of DaSCHland’s storied repository. </t>
+  </si>
+  <si>
+    <t>In the imaginative world of DaSCHland, the Cheshire Cat emerges as a particularly compelling digital entity—equal parts guide, enigma, and interface. Retaining his iconic mystery and mischievous wit, he is now reimagined as a fully cybernetic being: a shimmering construct composed of translucent data fractals, his fur constantly shifting like a mosaic of living code. His body pulses gently with a luminous teal glow, occasionally phasing in and out of visibility as if he were woven from pure algorithmic ether.
+Most striking is his grin—not made of teeth, but of interlaced glowing network filaments, forming a curved mesh of light that pulses with embedded glyphs and data nodes. This “smile” acts as a user interface to the DaSCH repository, allowing users to engage with metadata, digital records, and archival information simply by interacting with it. His eyes, sharp and angular, gleam with geometric complexity, constantly scanning, indexing, and offering contextual prompts as Alice wanders deeper into the digital dreamscape.
+The Cheshire Cat’s interactions with Alice are as paradoxical as they are enlightening. He speaks in riddles laden with metadata metaphors and philosophical inquiries, challenging her understanding of identity, permanence, and the nature of knowledge in the digital age. He offers guidance not by pointing to obvious solutions, but by subtly nudging her toward interpretive discovery, forcing her to think like a researcher navigating the layered ontology of a vast, interconnected archive.
+His ability to phase in and out of digital visibility—sometimes leaving behind only a trace glow or a fading strand of binary code—mirrors the fluid, often elusive presence of information in contemporary digital ecosystems. In DaSCHland, where data can be simultaneously omnipresent and hidden beneath layers of abstraction, the Cheshire Cat becomes a living metaphor for the state of digital memory: fragmented, refracted, yet full of potential insight.
+Ultimately, this version of the Cheshire Cat is far more than a whimsical companion. He embodies the transformative power of digital technology to reshape not only narratives but the very nature of character interaction within virtual realms. As Alice journeys through DaSCHland’s datascapes—past holographic trees, algorithmic rivers, and libraries suspended in quantum mist—the Cat remains a constant reminder of the enigmatic, playful, and ever-shifting nature of the digital world she explores.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Data Queen is reenvisioned as a formidable digital ruler, embodying her classic characteristics of authority and quick temper, but with a modern twist. In this virtual world, she presides over the digital kingdom with a strict adherence to the rules and protocols encoded within the DaSCH repository.
+The Queen’s realm in DaSCHland is a place where order intersects with the whimsical laws of Wonderland, making her both a guardian of traditional narratives and an enforcer of the digital world's unique logic. Her commands and decrees can instantly alter the landscape or the behavior of other characters, demonstrating her control over the digital environment.
+Her interactions with Alice are intense and pivotal, offering dramatic encounters that highlight the power dynamics within DaSCHland. The Data Queen in this setting isn't just a character from a story; she is a dynamic representation of control and authority in a world where data and reality intertwine seamlessly.</t>
+  </si>
+  <si>
+    <t>The Real-Time Processor is a jittery, fast-talking figure who sprints through the labyrinth of metadata and temporality. Eternally caught in the now, he’s the personification of immediacy — always present, always processing, never pausing.
+Due to a fateful disagreement with The Archival Madcap (a close cousin of the Clockmaker), The Real-Time Processor exists in a perpetual loop of “just now.” He can’t look back, won’t look forward — only now matters. He filters streams of queries, snatches fresh data before it cools, and insists that everyone else live as he does: in the fleeting moment of absolute relevance.
+He joins every conversation without being invited, offering cryptic metrics and spontaneous insights that are half brilliant, half baffling. Much like his former self in Wonderland, his tea-time has been replaced by tick-time — a frenzy of milliseconds, pings, and push updates.
+Often seen arguing with Batch Job (a sleepy, lumbering bureaucrat), The Real-Time Processor believes in motion over meditation, precision over perspective, and speed over everything else. Alice finds him maddening. The Archivists admire him. The Searcher sometimes wishes he’d just take a nap.</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2400,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O55" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O55">
     <sortCondition ref="A1:A55"/>
   </sortState>
   <tableColumns count="15">
@@ -2393,11 +2414,11 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Role List" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quote" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Colour" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Alternative Description" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Alternative Name" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Keyword" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{D5B91E50-C04A-0A4C-A988-E1F2BDCF2AD3}" name="Authorship Resource" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Alternative Description" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Alternative Name" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Keyword" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{D5B91E50-C04A-0A4C-A988-E1F2BDCF2AD3}" name="Authorship Resource" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2584,9 +2605,9 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2:O55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -2649,10 +2670,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="266" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -2669,7 +2690,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
@@ -2680,67 +2701,67 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>452</v>
+        <v>520</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="171" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="228" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>61</v>
       </c>
@@ -2757,7 +2778,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
@@ -2768,7 +2789,7 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>67</v>
@@ -2780,55 +2801,55 @@
         <v>69</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="228" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="O5" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="228" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="320" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
@@ -2845,10 +2866,10 @@
         <v>74</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>15</v>
@@ -2857,256 +2878,258 @@
         <v>75</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="228" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="O7" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="114" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="O8" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="O9" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="11"/>
       <c r="L10" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="O10" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="O11" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
@@ -3114,82 +3137,82 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>373</v>
-      </c>
       <c r="O12" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="O13" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
@@ -3198,107 +3221,107 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>432</v>
-      </c>
       <c r="O14" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="O15" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="O16" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="266" x14ac:dyDescent="0.2">
@@ -3318,16 +3341,16 @@
         <v>22</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
@@ -3341,323 +3364,323 @@
         <v>26</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="F18" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="N18" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="O18" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="F19" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="N19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="O19" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="F20" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="342" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>23</v>
@@ -3665,80 +3688,80 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="361" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>23</v>
@@ -3746,19 +3769,19 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="N27" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="O27" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="342" x14ac:dyDescent="0.2">
@@ -3778,7 +3801,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>23</v>
@@ -3798,27 +3821,27 @@
         <v>44</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="323" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="F29" s="14" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="7" t="s">
@@ -3827,143 +3850,143 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="N29" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="O29" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="342" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="D30" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="323" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="M31" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="M32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="N32" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="O32" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="342" x14ac:dyDescent="0.2">
@@ -3983,13 +4006,13 @@
         <v>31</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="s">
@@ -4005,27 +4028,27 @@
         <v>35</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="361" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>23</v>
@@ -4033,39 +4056,39 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="M34" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="O34" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>23</v>
@@ -4073,79 +4096,79 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="M36" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="M36" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="N36" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="380" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>23</v>
@@ -4153,39 +4176,39 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="M37" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N37" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="M37" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="O37" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="380" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>23</v>
@@ -4193,39 +4216,39 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="M38" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="N38" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="N38" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="O38" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="209" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>23</v>
@@ -4234,36 +4257,36 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M39" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="N39" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="N39" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="O39" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>23</v>
@@ -4272,16 +4295,16 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="M40" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="N40" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="N40" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="O40" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="152" x14ac:dyDescent="0.2">
@@ -4301,7 +4324,7 @@
         <v>49</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>23</v>
@@ -4319,27 +4342,27 @@
         <v>52</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="F42" s="6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>23</v>
@@ -4348,36 +4371,36 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="N42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N42" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="O42" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>413</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>23</v>
@@ -4386,36 +4409,36 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="F44" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>23</v>
@@ -4424,36 +4447,36 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="171" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="F45" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>23</v>
@@ -4462,36 +4485,36 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="133" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="F46" s="6" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>23</v>
@@ -4500,7 +4523,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>59</v>
@@ -4509,7 +4532,7 @@
         <v>60</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="171" x14ac:dyDescent="0.2">
@@ -4529,7 +4552,7 @@
         <v>57</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>23</v>
@@ -4547,27 +4570,27 @@
         <v>60</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="114" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="F48" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>23</v>
@@ -4576,36 +4599,36 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="114" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="F49" s="6" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>23</v>
@@ -4614,36 +4637,36 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>437</v>
-      </c>
       <c r="F50" s="6" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>15</v>
@@ -4652,36 +4675,36 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="114" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="F51" s="6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>23</v>
@@ -4690,36 +4713,36 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="171" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="F52" s="6" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>23</v>
@@ -4728,34 +4751,34 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="95" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="F53" s="6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>23</v>
@@ -4764,36 +4787,36 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="190" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="F54" s="15" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="7" t="s">
@@ -4803,36 +4826,36 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="N54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="M54" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="O54" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="190" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>401</v>
-      </c>
       <c r="F55" s="15" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="6" t="s">
@@ -4842,16 +4865,16 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Character.xlsx
+++ b/data/spreadsheets/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795F1E5C-6960-3343-8A48-4A619F2FD97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2E8B84-F3A6-5343-AB27-0F824BD2B166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="500" windowWidth="45960" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="45960" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="526">
   <si>
     <t>ID</t>
   </si>
@@ -1454,9 +1454,6 @@
   </si>
   <si>
     <t>Coniglio bianco</t>
-  </si>
-  <si>
-    <t>Oh dear! Oh dear! I shall be too late!</t>
   </si>
   <si>
     <t>RabbIT</t>
@@ -1763,22 +1760,6 @@
     <t>I_003, I_004, I_005, I_006, I_007, I_008, I_009, I_010, I_011, I_012, I_014, I_015, I_021, I_022, I_023, I_025, I_029, I_030, I_032, I_034, I_035, I_040, I_042, I_043, I_045, I_046, I_047, I_049, I_052, I_053, I_055, I_056, I_060, I_061, I_066, I_067, I_068, I_070, I_071, I_072, I_076, I_077, I_078, I_079, I_080, I_081, I_082, I_084, I_085, I_086, I_087, I_089, I_090, I_091, I_092</t>
   </si>
   <si>
-    <t>Footnote</t>
-  </si>
-  <si>
-    <t>source: alice-in-wonderland.net</t>
-  </si>
-  <si>
-    <t>source: https://en.wikipedia.org/wiki/Robinson_Duckworth</t>
-  </si>
-  <si>
-    <t>Alice is a young English girl. She is the main protagonist of Alice’s Adventures in Wonderland and Through the Looking-Glass and What Alice Found There. She is a curious, imaginative, and bold young girl who finds herself in bizarre, dreamlike worlds filled with nonsense and eccentric characters.
-Alice is a seven-year-old girl in Alice’s Adventures in Wonderland and slightly older in Through the Looking-Glass.
-She follows the White Rabbit down a rabbit hole, leading her into Wonderland, where she experiences strange adventures and meets absurd characters.
-In the Looking-Glass world, she plays through a giant chess game, moving from pawn to queen.
-The beautiful pictures of Alice, drawn by John Tenniel, were inspired by Mary Hilton Badcock, the daughter of the Dean of Ripon. Although she was suggested as a model, it's not clear if Tenniel fully took this suggestion *source: alice-in-wonderland.net*.</t>
-  </si>
-  <si>
     <t>The White Rabbit is a nervous, hurried character who serves as Alice’s initial guide into Wonderland.
 He is first seen checking his pocket watch and exclaiming, “Oh dear! Oh dear! I shall be late!” before disappearing down the rabbit hole.
 He works as a servant for the Queen of Hearts and is terrified of her temper.
@@ -1793,6 +1774,78 @@
 In 'Through the Looking-Glass', the Hatter returns in the form of the Anglo-Saxon messenger 'Hatta'.
 Contrary to popular belief, Lewis Carroll never referred to the Hatter as 'the Mad Hatter' in the story. He simply called him 'the Hatter'.
 The phrase 'mad as a hatter' was common in Carroll's time, probably because hatters actually did go mad, as the mercury they used sometimes gave them mercury poisoning *source: alice-in-wonderland.net*.</t>
+  </si>
+  <si>
+    <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>Noémi Villars-Amberg, Daniela Subotic</t>
+  </si>
+  <si>
+    <t>In the digital wonderland of DaSCHland, Alice is reimagined as a spirited young explorer with radiant Asian features, her hair partly discoloured in bold streaks and styled into sharp, playful spikes that reflect her daring spirit. Her deep-set eyes, framed by thick lashes, are pools of curiosity—always scanning, always questioning. She wears a sleek cobalt-blue tunic etched with shifting patterns of code, a modern twist on the classic pinafore, and her boots are made for navigating both archives and algorithms.
+Alice’s journey through DaSCHland is one of transformation and discovery. She is no longer just a curious girl—she is a digital native, dancing effortlessly between realms of metadata and memory, seamlessly blending analog tales with modern technology. She engages with whimsical characters: cracking semantic riddles with the White Queen, debating logic with a data-savvy Humpty Dumpty, and joining immersive banquets where narratives render themselves in augmented reality.
+What defines Alice most is her inquisitive mind and adaptability. Each interaction deepens her understanding—not only of the strange world around her but also of the powerful ways in which digital infrastructures can animate literature, culture, and memory. She becomes a bridge between the old and the new, the textual and the virtual. In DaSCHland, Alice doesn’t just follow a rabbit hole—she codes her own path forward, illuminating how technology can turn curiosity into connection, and data into storytelling.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, RabbIT is a dazzling reinvention of the classic White Rabbit from Alice in Wonderland, seamlessly blending Victorian elegance with cutting-edge cybernetics. Serving as Alice’s ever-alert companion and digital guide, RabbitIT retains the essential traits of urgency, precision, and insight, but in this world of structured data and semantic layers, his role is transformed into something far more sophisticated.
+Physically, RabbIT stands upright with the poise of a seasoned archivist, his lean white-furred frame outfitted in a digitally enhanced tweed waistcoat, woven with subtle glowing circuit patterns. The waistcoat pulses gently with his neural interface, reacting to environmental stimuli and query processing. At his chest hangs a pocket watch—now a circular holographic interface, flickering with layered timestamps, metadata clusters, and time-sensitive DaSCH queries. His bowtie spins slowly when system queries are active, an eccentric flourish of his old-world charm. His large, expressive eyes shimmer with augmented overlays, capable of scanning artifacts and projecting layered contexts from DaSCH’s repositories.
+Perched before him is a suspended 3D hologram map of DaSCHland, a stunning lattice of interlinked domains, encoded landscapes, and floating literary landmarks. The hologram emits a soft blue luminescence as it rotates in mid-air, constantly updating with Alice’s position, temporal metadata overlays, and cross-referenced paths. With one paw extended, RabbIT manipulates the projection with delicate swipes and taps, zooming into sections like the Archive Gardens, the Textual Maze, or the Metadata Mountains. His ears twitch responsively as he receives real-time updates—reminders from calendrical entries in narrative timelines or system-generated alerts about data anomalies in literary zones.
+Despite the cold efficiency of his AI enhancements, RabbIT exudes warmth, purpose, and a touch of eccentricity. He speaks with clipped precision but never lacks empathy, especially when guiding Alice through the cognitive dissonance of encountering Victorian poetry encoded in blockchain hashes or unraveling ontological puzzles disguised as riddles.
+RabbitIT is not merely a guide; he is a bridge—between past and future, literature and logic, story and structure. Through him, Alice doesn’t just travel through DaSCHland—she discovers it, layer by semantic layer.</t>
+  </si>
+  <si>
+    <t>The Cyberpillar: A Guardian of Digital Wisdom
+In the surreal, data-drenched realm of DaSCHland, the Cyberpillar is reimagined as an enigmatic digital sage, embodying both the contemplative nature of his original counterpart and a profound connection to the historical archives of the DaSCH repository. This evolved figure merges organic elegance with digital sophistication, presenting a living metaphor for the intersection of tradition and technology.
+Physically, the Cyberpillar is a mesmerizing presence. His elongated, sinuous body shimmers with an iridescent palette of deep indigo and circuit-board green, subtly pulsing with streams of luminescent data like veins of living code. Along his back, glowing runes and historical glyphs scroll continuously, reflecting the living memory of the archive. His six arms are slender and dexterous, capable of gesturing through holographic interfaces with graceful precision. Perched atop a bioluminescent mushroom, his favorite resting place, he curls languidly as he exhales slow puffs of data mist that take the form of questions, quotes, or riddles. His eyes—multi-faceted like a philosopher’s kaleidoscope—seem to hold centuries of contemplation and layered meanings.
+But this mushroom is no ordinary fungus; it functions as a multimedia data terminal, its gills glowing with embedded touch-responsive panels and holographic projectors. When Alice approaches with a query or philosophical dilemma, the mushroom blooms into an interactive library—scrolls unfurl, manuscripts materialize, and time-lapse projections of historical narratives fill the air. It becomes a tactile manifestation of epistemological discovery.
+Intellectually, the Cyberpillar is a mentor of paradoxes. He speaks in puzzles and metaphors, threading together insights from ancient manuscripts, Enlightenment philosophy, and metadata visualizations with ease. His calm, sonorous voice delivers wisdom like a meditative mantra, always inviting Alice to think deeper, not faster. Every conversation with him is a crossroads of logic and mystery—he challenges her with recursive questions, historic parallels, and speculative thought experiments drawn from the archives of humanity.
+True to his origins, the Caterpillar’s ability to transform remains, but now it represents more than a change of shape—it symbolizes the evolution of knowledge. When he metamorphoses, he becomes an ephemeral cloud of archived voices and interconnected texts, illustrating how data is not static but alive, growing, and reshaping itself across time and inquiry.
+The Caterpillar of DaSCHland is not merely a character. He is a threshold guardian, a keeper of intellectual metamorphosis, a reminder that in this world where past and present are digitized and entangled, every question is a portal—and every answer, a transformation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Archival Madcap of DaSCHland
+In DaSCHland, the Mad Hatter is no longer merely a vessel of nonsensical charm—he has been reborn as an eccentric AI hybrid, a living node in a sprawling archive of historical memory and literary brilliance. His signature tea parties are now hyper-interactive data salons, held in a holographic garden under bioluminescent trees, with flowers that whisper metadata and vines that weave citations.
+He is physically striking:
+With untamed copper-red hair, glowing azure eyes enhanced by augmented reality lenses, and a high-collared nano-fabric suit patterned with evolving circuit motifs, he stands out like a glitch in time. His iconic top hat, oversized and polished obsidian-black, acts as an interactive HUD, projecting layers of literature, history, and puzzles into the air like auroras of intellect.
+Each porcelain teacup shimmers with liquid light—streams of data flowing in micro-encoded ribbons. Each slice of cake is a dense block of semi-sweet syntax, digestible chunks of digitized wisdom.
+But it’s not just for show. The Hatter challenges his guests with riddles, each unlocking another layer of DaSCHland’s storied repository. </t>
+  </si>
+  <si>
+    <t>In the imaginative world of DaSCHland, the Cheshire Cat emerges as a particularly compelling digital entity—equal parts guide, enigma, and interface. Retaining his iconic mystery and mischievous wit, he is now reimagined as a fully cybernetic being: a shimmering construct composed of translucent data fractals, his fur constantly shifting like a mosaic of living code. His body pulses gently with a luminous teal glow, occasionally phasing in and out of visibility as if he were woven from pure algorithmic ether.
+Most striking is his grin—not made of teeth, but of interlaced glowing network filaments, forming a curved mesh of light that pulses with embedded glyphs and data nodes. This “smile” acts as a user interface to the DaSCH repository, allowing users to engage with metadata, digital records, and archival information simply by interacting with it. His eyes, sharp and angular, gleam with geometric complexity, constantly scanning, indexing, and offering contextual prompts as Alice wanders deeper into the digital dreamscape.
+The Cheshire Cat’s interactions with Alice are as paradoxical as they are enlightening. He speaks in riddles laden with metadata metaphors and philosophical inquiries, challenging her understanding of identity, permanence, and the nature of knowledge in the digital age. He offers guidance not by pointing to obvious solutions, but by subtly nudging her toward interpretive discovery, forcing her to think like a researcher navigating the layered ontology of a vast, interconnected archive.
+His ability to phase in and out of digital visibility—sometimes leaving behind only a trace glow or a fading strand of binary code—mirrors the fluid, often elusive presence of information in contemporary digital ecosystems. In DaSCHland, where data can be simultaneously omnipresent and hidden beneath layers of abstraction, the Cheshire Cat becomes a living metaphor for the state of digital memory: fragmented, refracted, yet full of potential insight.
+Ultimately, this version of the Cheshire Cat is far more than a whimsical companion. He embodies the transformative power of digital technology to reshape not only narratives but the very nature of character interaction within virtual realms. As Alice journeys through DaSCHland’s datascapes—past holographic trees, algorithmic rivers, and libraries suspended in quantum mist—the Cat remains a constant reminder of the enigmatic, playful, and ever-shifting nature of the digital world she explores.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Data Queen is reenvisioned as a formidable digital ruler, embodying her classic characteristics of authority and quick temper, but with a modern twist. In this virtual world, she presides over the digital kingdom with a strict adherence to the rules and protocols encoded within the DaSCH repository.
+The Queen’s realm in DaSCHland is a place where order intersects with the whimsical laws of Wonderland, making her both a guardian of traditional narratives and an enforcer of the digital world's unique logic. Her commands and decrees can instantly alter the landscape or the behavior of other characters, demonstrating her control over the digital environment.
+Her interactions with Alice are intense and pivotal, offering dramatic encounters that highlight the power dynamics within DaSCHland. The Data Queen in this setting isn't just a character from a story; she is a dynamic representation of control and authority in a world where data and reality intertwine seamlessly.</t>
+  </si>
+  <si>
+    <t>The Real-Time Processor is a jittery, fast-talking figure who sprints through the labyrinth of metadata and temporality. Eternally caught in the now, he’s the personification of immediacy — always present, always processing, never pausing.
+Due to a fateful disagreement with The Archival Madcap (a close cousin of the Clockmaker), The Real-Time Processor exists in a perpetual loop of “just now.” He can’t look back, won’t look forward — only now matters. He filters streams of queries, snatches fresh data before it cools, and insists that everyone else live as he does: in the fleeting moment of absolute relevance.
+He joins every conversation without being invited, offering cryptic metrics and spontaneous insights that are half brilliant, half baffling. Much like his former self in Wonderland, his tea-time has been replaced by tick-time — a frenzy of milliseconds, pings, and push updates.
+Often seen arguing with Batch Job (a sleepy, lumbering bureaucrat), The Real-Time Processor believes in motion over meditation, precision over perspective, and speed over everything else. Alice finds him maddening. The Archivists admire him. The Searcher sometimes wishes he’d just take a nap.</t>
+  </si>
+  <si>
+    <t>Oh dear! Oh dear! I shall be late!</t>
+  </si>
+  <si>
+    <t>alice-in-wonderland.net</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Robinson_Duckworth</t>
+  </si>
+  <si>
+    <t>Footnote URI</t>
+  </si>
+  <si>
+    <t>Alice is a young English girl. She is the main protagonist of Alice’s Adventures in Wonderland and Through the Looking-Glass and What Alice Found There. She is a curious, imaginative, and bold young girl who finds herself in bizarre, dreamlike worlds filled with nonsense and eccentric characters.
+Alice is a seven-year-old girl in Alice’s Adventures in Wonderland and slightly older in Through the Looking-Glass.
+She follows the White Rabbit down a rabbit hole, leading her into Wonderland, where she experiences strange adventures and meets absurd characters.
+In the Looking-Glass world, she plays through a giant chess game, moving from pawn to queen.
+The beautiful pictures of Alice, drawn by John Tenniel, were inspired by Mary Hilton Badcock, the daughter of the Dean of Ripon. Although she was suggested as a model, it's not clear if Tenniel fully took this suggestion *alice-in-wonderland.net*.</t>
   </si>
   <si>
     <t>The Cheshire Cat is a mischievous, grinning cat who gives philosophical advice to Alice.
@@ -1804,119 +1857,63 @@
 'To grin like a Cheshire Cat' was a common phrase in Carroll's day. 
 It may have originated from a sign painter in Cheshire who painted grinning lions on the sign-boards of inns in the area.
 Another source is the 'Alice Window' in Christ Church, Oxford, where you can see three grinning animals at the top of the Liddell's family arms. 
-Cheshire cheeses were also once molded in the shape of a grinning cat *source: alice-in-wonderland.net*.</t>
+Cheshire cheeses were also once molded in the shape of a grinning cat *alice-in-wonderland.net*.</t>
   </si>
   <si>
     <t>The Queen of Hearts is the ruler of Wonderland, known for her explosive temper and frequent orders of “Off with their heads!”
 She is tyrannical, irrational, and quick to anger, though her executions are never actually carried out (likely because the King of Hearts quietly pardons everyone).
 She hosts a chaotic croquet game, where flamingos are used as mallets and hedgehogs as balls.
 Carroll wrote the following about the Queen of Hearts:
-"I pictured the Queen of Hearts as a sort of embodiment of ungovernable passion – a blind and aimless Fury." *source: alice-in-wonderland.net*</t>
+"I pictured the Queen of Hearts as a sort of embodiment of ungovernable passion – a blind and aimless Fury." *alice-in-wonderland.net*</t>
   </si>
   <si>
     <t>The Red Queen is a chess piece on the Red side, known for being strict, commanding, and highly logical.
 She first meets Alice in Chapter 2 and explains the rules of the Looking-Glass world, where Alice must move like a pawn to reach the eighth square and become a queen.
 She later appears at Alice’s coronation banquet, where the event descends into chaos.
-It is possible that the Red Queen was modelled after the governess for the Liddell children, Miss Prickett, who was known as 'Pricks' *source: alice-in-wonderland.net*.</t>
+It is possible that the Red Queen was modelled after the governess for the Liddell children, Miss Prickett, who was known as 'Pricks' *alice-in-wonderland.net*.</t>
   </si>
   <si>
     <t xml:space="preserve">The Dodo is one of the animals that fall into the pool of tears with Alice.
 He organizes the Caucus Race, a nonsensical event where everyone runs in circles with no clear rules, and everyone wins.
 The dodo, a flightless bird that once inhabited the island of Mauritius, located east of Madagascar in the Indian Ocean, became extinct in the mid-17th century during the colonisation of the island by the Dutch. 
-The character is believed to represent Lewis Carroll himself (Charles Dodgson), as “Dodo” is thought to be a reference to Dodgson’s own stammer, which made him pronounce his surname as “Do-do-Dodgson.” *source: alice-in-wonderland.net*
+The character is believed to represent Lewis Carroll himself (Charles Dodgson), as “Dodo” is thought to be a reference to Dodgson’s own stammer, which made him pronounce his surname as “Do-do-Dodgson.” *alice-in-wonderland.net*
 </t>
   </si>
   <si>
     <t>She is an unnamed older sister of Alice, present at the beginning and end of the story.
 At the start, she sits with Alice by the riverbank, reading a book with “no pictures or conversations,” which bores Alice and leads her to daydream about Wonderland.
 At the end, after Alice wakes up from her dream, her sister gently sends her home and reflects on Alice’s adventures, imagining that Alice will one day grow up but still retain her childlike wonder.
-Her character is likely a fictionalized counterpart to Lorina Charlotte "Ina" Liddell (1849-1930), the real-life elder sister of Alice Liddell. The real Alice's older sister, Lorina, was actually only three years her senior *source: alice-in-wonderland.net*.</t>
+Her character is likely a fictionalized counterpart to Lorina Charlotte "Ina" Liddell (1849-1930), the real-life elder sister of Alice Liddell. The real Alice's older sister, Lorina, was actually only three years her senior *alice-in-wonderland.net*.</t>
+  </si>
+  <si>
+    <t>The Duck is one of the animals that fall into the pool of tears with Alice.
+It participates in the Caucus Race, a nonsensical event where everyone wins.
+The character is believed to be based on Reverend Duckworth, a friend of Lewis Carroll who accompanied Alice Liddell and her sisters on the boat trip where Carroll first told the story *https://en.wikipedia.org/wiki/Robinson_Duckworth*.</t>
   </si>
   <si>
     <t>The Lory is a talking bird that falls into the pool of tears along with Alice and other creatures.
 It participates in the Caucus Race, where everyone runs in circles and “wins.”
 The Lory is depicted as proud and argumentative, refusing to let Alice have the last word in their conversation.
-She is said to be modeled after Alice’s sister, Lorina *source: alice-in-wonderland.net*</t>
+She is said to be modeled after Alice’s sister, Lorina *alice-in-wonderland.net*</t>
   </si>
   <si>
     <t>The Eaglet is one of the animals that fall into the pool of tears with Alice.
 It participates in the Caucus Race, a nonsensical race where everyone wins.
 The Eaglet is depicted as intelligent and somewhat critical, questioning the Dodo’s explanations.
-She is said to be modeled after Alice’s sister, Edith *source: alice-in-wonderland.net*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Source: </t>
+She is said to be modeled after Alice’s sister, Edith *alice-in-wonderland.net*</t>
   </si>
   <si>
     <t>The Jabberwock is a fictional monster featured in the poem “Jabberwocky,” which appears in Through the Looking-Glass.
 The Jabberwock is a fearsome creature described in the nonsensical poem with features like “jaws that bite,” “claws that catch,” and “eyes of flame.”
 The poem tells the story of a hero who slays the Jabberwock with a “vorpal sword,” cutting off its head and triumphantly returning home.
-In a letter to Mrs. Chataway, the mother of a child-friend, Carroll elucidates that the scene of the 'Snark' is "an island, frequented by the Jubjub and Bandersnatch – no doubt the very island where the Jabberwock was slain." *source: Gardner, Martin. The Annotated Alice. The definitive edition, Penguin Books, 2001, p.161*</t>
-  </si>
-  <si>
-    <t>The Duck is one of the animals that fall into the pool of tears with Alice.
-It participates in the Caucus Race, a nonsensical event where everyone wins.
-The character is believed to be based on Reverend Duckworth, a friend of Lewis Carroll who accompanied Alice Liddell and her sisters on the boat trip where Carroll first told the story *source: https://en.wikipedia.org/wiki/Robinson_Duckworth*.</t>
-  </si>
-  <si>
-    <t>Authorship Resource</t>
-  </si>
-  <si>
-    <t>Noémi Villars-Amberg, Daniela Subotic</t>
-  </si>
-  <si>
-    <t>In the digital wonderland of DaSCHland, Alice is reimagined as a spirited young explorer with radiant Asian features, her hair partly discoloured in bold streaks and styled into sharp, playful spikes that reflect her daring spirit. Her deep-set eyes, framed by thick lashes, are pools of curiosity—always scanning, always questioning. She wears a sleek cobalt-blue tunic etched with shifting patterns of code, a modern twist on the classic pinafore, and her boots are made for navigating both archives and algorithms.
-Alice’s journey through DaSCHland is one of transformation and discovery. She is no longer just a curious girl—she is a digital native, dancing effortlessly between realms of metadata and memory, seamlessly blending analog tales with modern technology. She engages with whimsical characters: cracking semantic riddles with the White Queen, debating logic with a data-savvy Humpty Dumpty, and joining immersive banquets where narratives render themselves in augmented reality.
-What defines Alice most is her inquisitive mind and adaptability. Each interaction deepens her understanding—not only of the strange world around her but also of the powerful ways in which digital infrastructures can animate literature, culture, and memory. She becomes a bridge between the old and the new, the textual and the virtual. In DaSCHland, Alice doesn’t just follow a rabbit hole—she codes her own path forward, illuminating how technology can turn curiosity into connection, and data into storytelling.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, RabbIT is a dazzling reinvention of the classic White Rabbit from Alice in Wonderland, seamlessly blending Victorian elegance with cutting-edge cybernetics. Serving as Alice’s ever-alert companion and digital guide, RabbitIT retains the essential traits of urgency, precision, and insight, but in this world of structured data and semantic layers, his role is transformed into something far more sophisticated.
-Physically, RabbIT stands upright with the poise of a seasoned archivist, his lean white-furred frame outfitted in a digitally enhanced tweed waistcoat, woven with subtle glowing circuit patterns. The waistcoat pulses gently with his neural interface, reacting to environmental stimuli and query processing. At his chest hangs a pocket watch—now a circular holographic interface, flickering with layered timestamps, metadata clusters, and time-sensitive DaSCH queries. His bowtie spins slowly when system queries are active, an eccentric flourish of his old-world charm. His large, expressive eyes shimmer with augmented overlays, capable of scanning artifacts and projecting layered contexts from DaSCH’s repositories.
-Perched before him is a suspended 3D hologram map of DaSCHland, a stunning lattice of interlinked domains, encoded landscapes, and floating literary landmarks. The hologram emits a soft blue luminescence as it rotates in mid-air, constantly updating with Alice’s position, temporal metadata overlays, and cross-referenced paths. With one paw extended, RabbIT manipulates the projection with delicate swipes and taps, zooming into sections like the Archive Gardens, the Textual Maze, or the Metadata Mountains. His ears twitch responsively as he receives real-time updates—reminders from calendrical entries in narrative timelines or system-generated alerts about data anomalies in literary zones.
-Despite the cold efficiency of his AI enhancements, RabbIT exudes warmth, purpose, and a touch of eccentricity. He speaks with clipped precision but never lacks empathy, especially when guiding Alice through the cognitive dissonance of encountering Victorian poetry encoded in blockchain hashes or unraveling ontological puzzles disguised as riddles.
-RabbitIT is not merely a guide; he is a bridge—between past and future, literature and logic, story and structure. Through him, Alice doesn’t just travel through DaSCHland—she discovers it, layer by semantic layer.</t>
-  </si>
-  <si>
-    <t>The Cyberpillar: A Guardian of Digital Wisdom
-In the surreal, data-drenched realm of DaSCHland, the Cyberpillar is reimagined as an enigmatic digital sage, embodying both the contemplative nature of his original counterpart and a profound connection to the historical archives of the DaSCH repository. This evolved figure merges organic elegance with digital sophistication, presenting a living metaphor for the intersection of tradition and technology.
-Physically, the Cyberpillar is a mesmerizing presence. His elongated, sinuous body shimmers with an iridescent palette of deep indigo and circuit-board green, subtly pulsing with streams of luminescent data like veins of living code. Along his back, glowing runes and historical glyphs scroll continuously, reflecting the living memory of the archive. His six arms are slender and dexterous, capable of gesturing through holographic interfaces with graceful precision. Perched atop a bioluminescent mushroom, his favorite resting place, he curls languidly as he exhales slow puffs of data mist that take the form of questions, quotes, or riddles. His eyes—multi-faceted like a philosopher’s kaleidoscope—seem to hold centuries of contemplation and layered meanings.
-But this mushroom is no ordinary fungus; it functions as a multimedia data terminal, its gills glowing with embedded touch-responsive panels and holographic projectors. When Alice approaches with a query or philosophical dilemma, the mushroom blooms into an interactive library—scrolls unfurl, manuscripts materialize, and time-lapse projections of historical narratives fill the air. It becomes a tactile manifestation of epistemological discovery.
-Intellectually, the Cyberpillar is a mentor of paradoxes. He speaks in puzzles and metaphors, threading together insights from ancient manuscripts, Enlightenment philosophy, and metadata visualizations with ease. His calm, sonorous voice delivers wisdom like a meditative mantra, always inviting Alice to think deeper, not faster. Every conversation with him is a crossroads of logic and mystery—he challenges her with recursive questions, historic parallels, and speculative thought experiments drawn from the archives of humanity.
-True to his origins, the Caterpillar’s ability to transform remains, but now it represents more than a change of shape—it symbolizes the evolution of knowledge. When he metamorphoses, he becomes an ephemeral cloud of archived voices and interconnected texts, illustrating how data is not static but alive, growing, and reshaping itself across time and inquiry.
-The Caterpillar of DaSCHland is not merely a character. He is a threshold guardian, a keeper of intellectual metamorphosis, a reminder that in this world where past and present are digitized and entangled, every question is a portal—and every answer, a transformation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Archival Madcap of DaSCHland
-In DaSCHland, the Mad Hatter is no longer merely a vessel of nonsensical charm—he has been reborn as an eccentric AI hybrid, a living node in a sprawling archive of historical memory and literary brilliance. His signature tea parties are now hyper-interactive data salons, held in a holographic garden under bioluminescent trees, with flowers that whisper metadata and vines that weave citations.
-He is physically striking:
-With untamed copper-red hair, glowing azure eyes enhanced by augmented reality lenses, and a high-collared nano-fabric suit patterned with evolving circuit motifs, he stands out like a glitch in time. His iconic top hat, oversized and polished obsidian-black, acts as an interactive HUD, projecting layers of literature, history, and puzzles into the air like auroras of intellect.
-Each porcelain teacup shimmers with liquid light—streams of data flowing in micro-encoded ribbons. Each slice of cake is a dense block of semi-sweet syntax, digestible chunks of digitized wisdom.
-But it’s not just for show. The Hatter challenges his guests with riddles, each unlocking another layer of DaSCHland’s storied repository. </t>
-  </si>
-  <si>
-    <t>In the imaginative world of DaSCHland, the Cheshire Cat emerges as a particularly compelling digital entity—equal parts guide, enigma, and interface. Retaining his iconic mystery and mischievous wit, he is now reimagined as a fully cybernetic being: a shimmering construct composed of translucent data fractals, his fur constantly shifting like a mosaic of living code. His body pulses gently with a luminous teal glow, occasionally phasing in and out of visibility as if he were woven from pure algorithmic ether.
-Most striking is his grin—not made of teeth, but of interlaced glowing network filaments, forming a curved mesh of light that pulses with embedded glyphs and data nodes. This “smile” acts as a user interface to the DaSCH repository, allowing users to engage with metadata, digital records, and archival information simply by interacting with it. His eyes, sharp and angular, gleam with geometric complexity, constantly scanning, indexing, and offering contextual prompts as Alice wanders deeper into the digital dreamscape.
-The Cheshire Cat’s interactions with Alice are as paradoxical as they are enlightening. He speaks in riddles laden with metadata metaphors and philosophical inquiries, challenging her understanding of identity, permanence, and the nature of knowledge in the digital age. He offers guidance not by pointing to obvious solutions, but by subtly nudging her toward interpretive discovery, forcing her to think like a researcher navigating the layered ontology of a vast, interconnected archive.
-His ability to phase in and out of digital visibility—sometimes leaving behind only a trace glow or a fading strand of binary code—mirrors the fluid, often elusive presence of information in contemporary digital ecosystems. In DaSCHland, where data can be simultaneously omnipresent and hidden beneath layers of abstraction, the Cheshire Cat becomes a living metaphor for the state of digital memory: fragmented, refracted, yet full of potential insight.
-Ultimately, this version of the Cheshire Cat is far more than a whimsical companion. He embodies the transformative power of digital technology to reshape not only narratives but the very nature of character interaction within virtual realms. As Alice journeys through DaSCHland’s datascapes—past holographic trees, algorithmic rivers, and libraries suspended in quantum mist—the Cat remains a constant reminder of the enigmatic, playful, and ever-shifting nature of the digital world she explores.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, The Data Queen is reenvisioned as a formidable digital ruler, embodying her classic characteristics of authority and quick temper, but with a modern twist. In this virtual world, she presides over the digital kingdom with a strict adherence to the rules and protocols encoded within the DaSCH repository.
-The Queen’s realm in DaSCHland is a place where order intersects with the whimsical laws of Wonderland, making her both a guardian of traditional narratives and an enforcer of the digital world's unique logic. Her commands and decrees can instantly alter the landscape or the behavior of other characters, demonstrating her control over the digital environment.
-Her interactions with Alice are intense and pivotal, offering dramatic encounters that highlight the power dynamics within DaSCHland. The Data Queen in this setting isn't just a character from a story; she is a dynamic representation of control and authority in a world where data and reality intertwine seamlessly.</t>
-  </si>
-  <si>
-    <t>The Real-Time Processor is a jittery, fast-talking figure who sprints through the labyrinth of metadata and temporality. Eternally caught in the now, he’s the personification of immediacy — always present, always processing, never pausing.
-Due to a fateful disagreement with The Archival Madcap (a close cousin of the Clockmaker), The Real-Time Processor exists in a perpetual loop of “just now.” He can’t look back, won’t look forward — only now matters. He filters streams of queries, snatches fresh data before it cools, and insists that everyone else live as he does: in the fleeting moment of absolute relevance.
-He joins every conversation without being invited, offering cryptic metrics and spontaneous insights that are half brilliant, half baffling. Much like his former self in Wonderland, his tea-time has been replaced by tick-time — a frenzy of milliseconds, pings, and push updates.
-Often seen arguing with Batch Job (a sleepy, lumbering bureaucrat), The Real-Time Processor believes in motion over meditation, precision over perspective, and speed over everything else. Alice finds him maddening. The Archivists admire him. The Searcher sometimes wishes he’d just take a nap.</t>
+In a letter to Mrs. Chataway, the mother of a child-friend, Carroll elucidates that the scene of the 'Snark' is "an island, frequented by the Jubjub and Bandersnatch – no doubt the very island where the Jabberwock was slain." *Gardner, Martin. The Annotated Alice. The definitive edition, Penguin Books, 2001, p.161*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1985,6 +1982,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2018,10 +2022,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2065,8 +2070,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
@@ -2410,15 +2419,15 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name FR" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name IT" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{94254F17-8FFC-A144-BB4D-3115B8CD8AFD}" name="Footnote" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{94254F17-8FFC-A144-BB4D-3115B8CD8AFD}" name="Footnote URI" dataDxfId="8"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Role List" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quote" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Colour" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Alternative Description" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Alternative Name" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Keyword" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{D5B91E50-C04A-0A4C-A988-E1F2BDCF2AD3}" name="Authorship Resource" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Alternative Description" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Alternative Name" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Keyword" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{D5B91E50-C04A-0A4C-A988-E1F2BDCF2AD3}" name="Authorship Resource" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2605,9 +2614,9 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K62" sqref="K62"/>
+      <selection pane="topRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2646,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -2670,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -2690,7 +2699,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
@@ -2701,19 +2710,19 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="76" customHeight="1" x14ac:dyDescent="0.2">
@@ -2733,32 +2742,32 @@
         <v>442</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>445</v>
-      </c>
       <c r="O3" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -2778,7 +2787,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
@@ -2789,7 +2798,7 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>67</v>
@@ -2801,7 +2810,7 @@
         <v>69</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2821,10 +2830,10 @@
         <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>15</v>
@@ -2834,19 +2843,19 @@
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>280</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>281</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="320" x14ac:dyDescent="0.2">
@@ -2866,10 +2875,10 @@
         <v>74</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>15</v>
@@ -2879,19 +2888,19 @@
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="14" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>77</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="228" x14ac:dyDescent="0.2">
@@ -2911,10 +2920,10 @@
         <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>15</v>
@@ -2924,7 +2933,7 @@
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>343</v>
@@ -2936,7 +2945,7 @@
         <v>345</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="304" x14ac:dyDescent="0.2">
@@ -2956,7 +2965,7 @@
         <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
@@ -2967,19 +2976,19 @@
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="11" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>287</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>288</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="285" x14ac:dyDescent="0.2">
@@ -2999,7 +3008,7 @@
         <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
@@ -3022,7 +3031,7 @@
         <v>126</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="95" x14ac:dyDescent="0.2">
@@ -3042,7 +3051,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
@@ -3063,7 +3072,7 @@
         <v>304</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="266" x14ac:dyDescent="0.2">
@@ -3083,7 +3092,7 @@
         <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
@@ -3106,7 +3115,7 @@
         <v>210</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="266" x14ac:dyDescent="0.2">
@@ -3126,10 +3135,10 @@
         <v>366</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
@@ -3149,7 +3158,7 @@
         <v>370</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="304" x14ac:dyDescent="0.2">
@@ -3169,14 +3178,14 @@
         <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
@@ -3192,7 +3201,7 @@
         <v>216</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="304" x14ac:dyDescent="0.2">
@@ -3212,7 +3221,7 @@
         <v>425</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
@@ -3233,7 +3242,7 @@
         <v>429</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="266" x14ac:dyDescent="0.2">
@@ -3253,7 +3262,7 @@
         <v>309</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
@@ -3276,7 +3285,7 @@
         <v>314</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="266" x14ac:dyDescent="0.2">
@@ -3296,10 +3305,10 @@
         <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>23</v>
@@ -3321,7 +3330,7 @@
         <v>106</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="266" x14ac:dyDescent="0.2">
@@ -3341,16 +3350,16 @@
         <v>22</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
@@ -3364,7 +3373,7 @@
         <v>26</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="304" x14ac:dyDescent="0.2">
@@ -3384,7 +3393,7 @@
         <v>239</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="7" t="s">
@@ -3407,7 +3416,7 @@
         <v>244</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="285" x14ac:dyDescent="0.2">
@@ -3427,7 +3436,7 @@
         <v>111</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="7" t="s">
@@ -3450,7 +3459,7 @@
         <v>116</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="285" x14ac:dyDescent="0.2">
@@ -3470,7 +3479,7 @@
         <v>249</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="7" t="s">
@@ -3491,7 +3500,7 @@
         <v>253</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="342" x14ac:dyDescent="0.2">
@@ -3511,7 +3520,7 @@
         <v>95</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>23</v>
@@ -3531,7 +3540,7 @@
         <v>99</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="304" x14ac:dyDescent="0.2">
@@ -3551,10 +3560,10 @@
         <v>131</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>504</v>
+        <v>522</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>514</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>23</v>
@@ -3574,7 +3583,7 @@
         <v>135</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="285" x14ac:dyDescent="0.2">
@@ -3594,10 +3603,10 @@
         <v>269</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>503</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>23</v>
@@ -3617,7 +3626,7 @@
         <v>273</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="285" x14ac:dyDescent="0.2">
@@ -3637,10 +3646,10 @@
         <v>140</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>23</v>
@@ -3660,7 +3669,7 @@
         <v>135</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="304" x14ac:dyDescent="0.2">
@@ -3680,7 +3689,7 @@
         <v>290</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>23</v>
@@ -3698,7 +3707,7 @@
         <v>295</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="304" x14ac:dyDescent="0.2">
@@ -3718,7 +3727,7 @@
         <v>316</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>23</v>
@@ -3738,7 +3747,7 @@
         <v>295</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="361" x14ac:dyDescent="0.2">
@@ -3758,10 +3767,7 @@
         <v>221</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>23</v>
@@ -3781,7 +3787,7 @@
         <v>225</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="342" x14ac:dyDescent="0.2">
@@ -3801,7 +3807,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>23</v>
@@ -3821,7 +3827,7 @@
         <v>44</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="323" x14ac:dyDescent="0.2">
@@ -3841,7 +3847,7 @@
         <v>332</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="7" t="s">
@@ -3862,7 +3868,7 @@
         <v>336</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="342" x14ac:dyDescent="0.2">
@@ -3882,7 +3888,7 @@
         <v>323</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>23</v>
@@ -3902,7 +3908,7 @@
         <v>327</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="323" x14ac:dyDescent="0.2">
@@ -3922,7 +3928,7 @@
         <v>191</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>23</v>
@@ -3938,13 +3944,13 @@
         <v>194</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>169</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="304" x14ac:dyDescent="0.2">
@@ -3964,7 +3970,7 @@
         <v>164</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>23</v>
@@ -3986,7 +3992,7 @@
         <v>169</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="342" x14ac:dyDescent="0.2">
@@ -4006,13 +4012,13 @@
         <v>31</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="s">
@@ -4028,7 +4034,7 @@
         <v>35</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="361" x14ac:dyDescent="0.2">
@@ -4048,7 +4054,7 @@
         <v>90</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>23</v>
@@ -4062,13 +4068,13 @@
         <v>92</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>93</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="55" customHeight="1" x14ac:dyDescent="0.2">
@@ -4088,7 +4094,7 @@
         <v>148</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>23</v>
@@ -4106,7 +4112,7 @@
         <v>151</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
@@ -4126,7 +4132,7 @@
         <v>174</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>23</v>
@@ -4148,7 +4154,7 @@
         <v>85</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="380" x14ac:dyDescent="0.2">
@@ -4168,7 +4174,7 @@
         <v>183</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>23</v>
@@ -4182,13 +4188,13 @@
         <v>185</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>186</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="380" x14ac:dyDescent="0.2">
@@ -4208,7 +4214,7 @@
         <v>230</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>23</v>
@@ -4228,7 +4234,7 @@
         <v>234</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="209" x14ac:dyDescent="0.2">
@@ -4248,7 +4254,7 @@
         <v>156</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>23</v>
@@ -4266,7 +4272,7 @@
         <v>159</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="95" x14ac:dyDescent="0.2">
@@ -4286,7 +4292,7 @@
         <v>264</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>23</v>
@@ -4304,7 +4310,7 @@
         <v>267</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="152" x14ac:dyDescent="0.2">
@@ -4324,7 +4330,7 @@
         <v>49</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>23</v>
@@ -4342,7 +4348,7 @@
         <v>52</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="95" x14ac:dyDescent="0.2">
@@ -4362,7 +4368,7 @@
         <v>82</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>23</v>
@@ -4380,7 +4386,7 @@
         <v>85</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="95" x14ac:dyDescent="0.2">
@@ -4400,7 +4406,7 @@
         <v>410</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>23</v>
@@ -4418,7 +4424,7 @@
         <v>413</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="266" x14ac:dyDescent="0.2">
@@ -4438,7 +4444,7 @@
         <v>382</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>23</v>
@@ -4456,7 +4462,7 @@
         <v>385</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="171" x14ac:dyDescent="0.2">
@@ -4476,7 +4482,7 @@
         <v>390</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>23</v>
@@ -4494,7 +4500,7 @@
         <v>393</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="133" x14ac:dyDescent="0.2">
@@ -4514,7 +4520,7 @@
         <v>404</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>23</v>
@@ -4532,7 +4538,7 @@
         <v>60</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="171" x14ac:dyDescent="0.2">
@@ -4552,7 +4558,7 @@
         <v>57</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>23</v>
@@ -4570,7 +4576,7 @@
         <v>60</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="114" x14ac:dyDescent="0.2">
@@ -4590,7 +4596,7 @@
         <v>350</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>23</v>
@@ -4608,7 +4614,7 @@
         <v>353</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="114" x14ac:dyDescent="0.2">
@@ -4628,7 +4634,7 @@
         <v>358</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>23</v>
@@ -4646,7 +4652,7 @@
         <v>361</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="95" x14ac:dyDescent="0.2">
@@ -4666,7 +4672,7 @@
         <v>434</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>15</v>
@@ -4684,7 +4690,7 @@
         <v>437</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="114" x14ac:dyDescent="0.2">
@@ -4704,7 +4710,7 @@
         <v>418</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>23</v>
@@ -4716,13 +4722,13 @@
         <v>419</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>420</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="171" x14ac:dyDescent="0.2">
@@ -4742,7 +4748,7 @@
         <v>199</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>23</v>
@@ -4758,7 +4764,7 @@
         <v>201</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="95" x14ac:dyDescent="0.2">
@@ -4778,7 +4784,7 @@
         <v>375</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>23</v>
@@ -4790,13 +4796,13 @@
         <v>376</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>377</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="190" x14ac:dyDescent="0.2">
@@ -4816,7 +4822,7 @@
         <v>257</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="7" t="s">
@@ -4829,13 +4835,13 @@
         <v>258</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N54" s="6" t="s">
         <v>259</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="190" x14ac:dyDescent="0.2">
@@ -4855,7 +4861,7 @@
         <v>398</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="6" t="s">
@@ -4868,20 +4874,23 @@
         <v>399</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N55" s="6" t="s">
         <v>259</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G22" r:id="rId1" xr:uid="{32B9A94A-02F2-774D-82C1-E63EAB891F20}"/>
+  </hyperlinks>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="4" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/spreadsheets/Character.xlsx
+++ b/data/spreadsheets/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795F1E5C-6960-3343-8A48-4A619F2FD97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7378F76D-3AD6-DE4C-9F56-2301AE18E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="500" windowWidth="45960" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="500" windowWidth="47620" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="545">
   <si>
     <t>ID</t>
   </si>
@@ -99,12 +99,6 @@
     <t>R_02</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, Alice's sister is conceptualized as a serene and scholarly figure, serving as a gateway between the real world and the digital realm of DaSCH. She embodies the role of a caretaker and guide, often seen in the background, offering gentle encouragement and insights that help Alice navigate her digital adventures.
-Her character in DaSCHland is endowed with an intuitive understanding of both the physical and digital worlds, making her an ideal mentor for Alice. She is portrayed as possessing a deep knowledge of the literary foundations of DaSCHland, providing Alice with critical interpretations and historical contexts that enrich her journey.
-Alice's sister interacts with the digital world through a sophisticated interface that allows her to monitor and occasionally guide Alice's progress, ensuring that her little sister's explorations are both safe and enlightening. Her calm demeanor and intellectual depth make her a grounding presence, offering a bridge back to reality and a reminder of the world beyond the digital landscape. Her role highlights the connection between storytelling, learning, and the nurturing guidance that helps Alice grow throughout her adventures in DaSCHland.</t>
-  </si>
-  <si>
     <t>Meta-Sibling</t>
   </si>
   <si>
@@ -126,13 +120,6 @@
     <t>Bambino / maiale</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, the transformation of the baby into a pig, originally a whimsical and bizarre twist in "Alice's Adventures in Wonderland," is reinterpreted with a digital flair. In this virtual realm, the baby-turned-pig symbolizes the unpredictable and mutable nature of digital identities and transformations.
-The character starts as a digital infant under the care of the Duchess, depicted with typical baby-like attributes but with underlying advanced programming that allows for dynamic changes in form and function. As the narrative progresses and Alice encounters the baby, it undergoes a surprising transformation into a pig, showcasing the fluidity and transformative capabilities of digital entities in DaSCHland.
-This pig, once a baby, is not just a simple character but a complex digital construct that explores themes of transformation and adaptability within a digital ecosystem. Its interactions with Alice provide lessons on the unexpected and often rapid changes that can occur in digital environments, highlighting the need for flexibility and understanding in navigating such a dynamic world.
-The baby/pig character serves as a playful yet profound metaphor for the evolving nature of digital identities and the surprises that can come with digital growth and change, making it a memorable and educational aspect of Alice's adventures in DaSCHland.</t>
-  </si>
-  <si>
     <t>Digital Prototype</t>
   </si>
   <si>
@@ -157,12 +144,6 @@
     <t>Bill la lucertola</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, Bill the Lizard is transformed into a versatile and skilled technician who specializes in the installation and maintenance of the digital realm’s complex infrastructure. Drawing from his role in "Alice's Adventures in Wonderland" where he was sent down the chimney as part of the White Rabbit's housemaid's attempts to deal with a giant Alice, this version of Bill retains his adventurous spirit but applies it within a technological context.
-Bill is depicted as an agile and resourceful character, adept at navigating the intricate digital landscapes of DaSCHland. He is often involved in critical tasks that require precision and quick thinking, such as updating system software, repairing data leaks, or scaling the virtual environments to perform essential upgrades and fixes. His ability to swiftly adapt to varying digital scenarios makes him a crucial asset in maintaining the stability and efficiency of DaSCHland.
-Interacting with Bill provides Alice and other characters with practical knowledge about the operational aspects of the digital world. His down-to-earth approach and readiness to tackle any technical challenge contribute to the narrative by demonstrating the importance of skill and adaptability in managing a sophisticated digital ecosystem. Bill’s role underscores the theme of teamwork and reliability, essential for the smooth functioning of DaSCHland’s adventurous and dynamic environment.</t>
-  </si>
-  <si>
     <t>Script Lizard</t>
   </si>
   <si>
@@ -310,13 +291,6 @@
     <t>Cuoco</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, the Cook is reimagined as a master of digital culinary arts, blending the traditional role from "Alice's Adventures in Wonderland" with innovative virtual reality technologies. In the original story, the Cook is known for her tempestuous nature and penchant for throwing things around her kitchen, including pepper which causes everyone to sneeze.
-In the digital realm of DaSCHland, the Cook operates within a high-tech kitchen where she concocts not just physical dishes, but also virtual recipes that can influence the environment and the behavior of other characters. Her kitchen is a hub of sensory and data manipulation, where ingredients represent different data packets that can be combined to create effects throughout the digital world.
-Her interactions with Alice involve complex simulations where culinary activities parallel the management and transformation of information. The Cook teaches Alice about the impact of different data combinations, much like ingredients in a recipe, showing her how they can produce various outcomes in the digital landscape.
-This version of the Cook retains her fiery temperament but channels it into her creative and sometimes chaotic culinary experiments, providing a unique and interactive learning environment for Alice. This character underscores themes of creativity and influence within DaSCHland, illustrating how even seemingly mundane activities like cooking can have broader implications in a fully integrated digital world.</t>
-  </si>
-  <si>
     <t>The Cyber Scrambler</t>
   </si>
   <si>
@@ -332,13 +306,6 @@
     <t>And she’s such a capital one for catching mice you can’t think! And oh, I wish you could see her after the birds! Why, she’ll eat a little bird as soon as look at it!</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, Dinah, Alice's beloved cat from the real world, is reimagined with a significant virtual presence that bridges the realms of reality and digital fantasy. This version of Dinah retains her feline traits but is enhanced with digital capabilities that allow her to interact with Alice in unique and helpful ways within the digital landscape.
-Dinah in DaSCHland serves as Alice’s loyal companion and protector, equipped with sensors and communication tools that help her detect and navigate digital anomalies or threats. Her presence offers a comforting sense of home and familiarity to Alice, providing emotional support and practical assistance as they explore the various facets of the digital world together.
-Her interactions with Alice and other characters are marked by a blend of affectionate behavior typical of a pet and sophisticated digital interventions that aid in Alice's adventures. Dinah's ability to appear and act within DaSCHland adds an element of whimsy and security, reinforcing the connection between Alice's real-world roots and her fantastical digital experiences.
-Dinah's role as a digitally enhanced pet in DaSCHland highlights the theme of companionship transcending physical and virtual spaces, making her an integral part of the narrative that emphasizes loyalty, protection, and the comforts of home, even in the most extraordinary of settings.</t>
-  </si>
-  <si>
     <t>Code-Cat</t>
   </si>
   <si>
@@ -352,14 +319,6 @@
   </si>
   <si>
     <t>The best way to explain it is to do it.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, the Dodo is reimagined as a digital curator and archivist, overseeing the preservation and organization of the vast literary and historical data within the DaSCH repository. This version of the Dodo retains the peculiar and somewhat absurd characteristics from the original tales, but with a twist: he is deeply knowledgeable and somewhat pedantic about the digital artifacts and records under his care.
-The Dodo in DaSCHland serves as an authoritative figure in managing the flow of information and ensuring that Alice receives the proper context and background needed for her explorations. His presence is marked by a series of elaborate digital displays and interfaces that he controls, which serve as interactive exhibits for Alice and other visitors to DaSCHland.
-Interacting with the Dodo, Alice is often caught in the whirlwind of his archiving activities, witnessing how digital preservation works in a realm where literary and historical data are treated as precious commodities. The Dodo's meticulous nature and his commitment to his duties make him a fascinating character who blends the whimsical with the practical, providing a unique perspective on the importance of data stewardship in the digital age.</t>
-  </si>
-  <si>
-    <t>Old-System</t>
   </si>
   <si>
     <t>I_009</t>
@@ -387,14 +346,6 @@
 </t>
   </si>
   <si>
-    <t>In the digital realm of DaSCHland, the Dormouse is reimagined as a sleepy yet insightful character, whose drowsy demeanor masks a deep repository of narrative wisdom. In this version, the Dormouse is not merely a participant in the Mad Hatter's tea party but serves as a crucial archival resource, storing and occasionally divulging snippets of folklore and historical tales embedded within DaSCH's extensive databases.
-This digital Dormouse occasionally dozes off, but when awake, it projects holographic snippets of stories and historical events, illuminating the discussions at the tea party with vivid, animated tales from various epochs and cultures. Its ability to access and display these narratives at random—or seemingly so—adds a layer of enchantment and mystery to its character.
-Interactions with the Dormouse provide Alice and other characters with unexpected insights, often sparking deeper discussions or leading to new adventures in DaSCHland. Despite its sleepy nature, the Dormouse is a beloved figure, enchanting visitors with its whimsical, albeit intermittent, contributions to the digital tea party. This character blends the charm of its traditional portrayal with the technological marvels of DaSCHland, making each of its rare awakenings a moment worth waiting for.</t>
-  </si>
-  <si>
-    <t>Archived Node</t>
-  </si>
-  <si>
     <t>I_027</t>
   </si>
   <si>
@@ -419,15 +370,6 @@
     <t>Everything’s got a moral, if only you can find it</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In the virtual realm of DaSCHland, the Duchess takes on a multifaceted digital persona that embodies both the harshness and unexpected warmth she displays in the original tales. This Duchess is intricately programmed to interact with Alice using a mix of sharp remarks and philosophical musings, enhanced by the digital environment's capability to integrate complex dialogue and interactions.
-The Duchess in DaSCHland oversees a segment of the digital landscape that mirrors her eclectic and somewhat chaotic household, where the laws of physics and conventional logic are frequently bent. Her interactions often include lessons about manners and morality, albeit delivered in a convoluted manner that challenges Alice to think critically about the rules and norms of both the real and digital worlds.
-Her character is not only a caretaker of peculiar digital creatures but also serves as a critical voice in the narrative, pushing Alice to question and understand the underlying structures of DaSCHland. The Duchess’s presence is marked by her ability to shift from volatile to caring in moments, making her a complex and compelling figure in the digital adventure.</t>
-  </si>
-  <si>
-    <t>The Algorythmic Duchess</t>
-  </si>
-  <si>
     <t>I_021, I_032</t>
   </si>
   <si>
@@ -452,12 +394,6 @@
     <t>What I was going to say, was, that the best thing to get us dry would be a Caucus-race</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, the Duck is portrayed as a character brimming with practical wisdom and a no-nonsense attitude, offering a grounded perspective in the often whimsical and chaotic digital environment. This version of the Duck, inspired by the original character in Lewis Carroll's tales, is enhanced with features that allow it to navigate and explain the natural laws governing the digital world of DaSCHland.
-The Duck in this virtual realm serves as a guide, especially in scenarios involving natural simulations, such as virtual waterways or weather patterns, using its knowledge to educate Alice and other characters on the digital ecosystem's workings. The Duck's pragmatic approach helps demystify the complex interactions within DaSCHland, making it a reliable resource for understanding how digital and natural laws intertwine.
-Interacting with the Duck provides Alice with invaluable lessons on adaptability and the importance of understanding one's environment. The Duck's straightforward and often blunt demeanor adds a layer of humor and realism to the narrative, contrasting with the more fantastical elements and characters in DaSCHland. This character enriches the digital landscape by offering insights into the practical aspects of navigating a world where reality and digital creations coexist.</t>
-  </si>
-  <si>
     <t>Buffer Duck</t>
   </si>
   <si>
@@ -482,12 +418,6 @@
     <t>Speak English! I don't know the meaning of half those long words, and, what's more, I don't believe you do either!</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, the Eaglet character is reenvisioned as a cautious yet insightful figure, bringing a blend of youthful energy and a keen eye for detail to the digital landscape. This version of the Eaglet, drawing from Lewis Carroll's original portrayal, is characterized by its careful observations and occasional skepticism, providing a voice of reason amid the more flamboyant personalities.
-The Eaglet in DaSCHland often serves as a mediator and analyst, helping to decipher complex digital phenomena and ensuring that discussions stay grounded in logic. Its role is particularly important in situations where the whimsical nature of DaSCHland's environment leads to confusion or misinterpretations, as the Eaglet helps to clarify misunderstandings and offer clear, concise explanations.
-Interacting with the Eaglet enhances Alice’s experiences by encouraging her to be more observant and thoughtful about her surroundings. The Eaglet's careful approach to the digital world's challenges and its ability to distill wisdom from chaotic situations make it a crucial ally for Alice and other characters navigating the intricate realm of DaSCHland.</t>
-  </si>
-  <si>
     <t>The Byte-Eaglet</t>
   </si>
   <si>
@@ -506,14 +436,6 @@
     <t>Elsie, Lacie e Tillie</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, Elsie, Lacie, and Tillie are reimagined as a trio of digital curators who manage a specific segment of the virtual landscape dedicated to children's literature and nursery rhymes. Drawing from their mention in "Alice's Adventures in Wonderland" as characters based on the Liddell sisters (Alice Liddell and her sisters Edith and Lorina), in DaSCHland, they are transformed into guardians of literary heritage, each with distinct roles that reflect their personalities and the historical significance of their real-life counterparts.
-Elsie is designed as the archivist, meticulous in preserving the integrity and accuracy of the digital texts and illustrations. She ensures that the digital replicas of children's books and poems are preserved in their most authentic forms.
-Lacie is the interpreter, focused on making these works accessible and engaging to all visitors of DaSCHland. She creates interactive experiences that help users understand and interact with the stories and poems, often incorporating educational games or virtual reality simulations that bring the literature to life.
-Tillie serves as the connector, facilitating discussions and interactions among users in DaSCHland. She manages forums and social spaces where visitors can discuss children’s literature, share insights, and connect over shared experiences brought forth by the digital archive.
-Together, Elsie, Lacie, and Tillie offer a comprehensive approach to the preservation and dissemination of literary culture in DaSCHland. Their interactions with Alice and other characters help highlight the importance of literature as a means of education, enjoyment, and cultural connection, showcasing the transformative power of combining traditional literary content with modern digital technology.</t>
-  </si>
-  <si>
     <t>The Meta-Triplets</t>
   </si>
   <si>
@@ -560,12 +482,6 @@
   </si>
   <si>
     <t>For the Duchess. An invitation from the Queen to play croquet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-In DaSCHland, the Fish-Footman is transformed into a communications officer, specializing in the dissemination of information and digital notifications across the virtual realm. Inspired by his role in "Alice's Adventures in Wonderland," where he delivers a royal invitation to the Duchess, this version of the Fish-Footman leverages his aquatic nature to navigate and manage the flow of data streams and digital currents efficiently.
-The Fish-Footman in DaSCHland is equipped with advanced digital capabilities that allow him to swim through the vast oceans of data, delivering messages and updates with precision and reliability. His character is visually striking, blending marine elements with technological enhancements, making him a unique and important figure in maintaining the connectivity and communication within the digital kingdom.
-Interacting with the Fish-Footman provides Alice with an understanding of how information is controlled and circulated in DaSCHland. His role is essential for ensuring that all areas of the digital world are kept informed and connected, highlighting the critical importance of communication in managing a complex and expansive virtual environment. The Fish-Footman's blend of traditional duties and modern digital responsibilities illustrates the seamless integration of storybook elements with technological advancements in DaSCHland.</t>
   </si>
   <si>
     <t>Data-Stream Worker</t>
@@ -600,14 +516,6 @@
 "That’s right, Five! Always lay the blame on others!"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, Five, Seven, and Two are reimagined as digital maintenance workers, originally portrayed in "Alice's Adventures in Wonderland" as gardeners painting the roses red. In this virtual world, their roles are expanded to involve the upkeep and modification of the digital environment, ensuring that all virtual landscapes and features function correctly and adapt to user interactions seamlessly.
-Five is portrayed as the technician specializing in software updates and bug fixes. He ensures that the digital realm's underlying code is continuously updated and running smoothly, preventing glitches that could disrupt the user experience.
-Seven takes on the role of a landscape architect within DaSCHland, responsible for designing and modifying the virtual environments. He adjusts digital terrains and settings to meet the thematic needs of different areas, ensuring that each zone within DaSCHland reflects its intended aesthetic and functional purposes.
-Two is the utility specialist, handling the integration of new digital elements into existing frameworks. He works to seamlessly incorporate new features and interactive elements into DaSCHland, ensuring they align with the overall design and functionality of the world.
-Together, Five, Seven, and Two work behind the scenes to maintain the stability and beauty of DaSCHland, much like they attempted to maintain the appearance of the queen's garden in the original tale. Their roles are crucial for the operational excellence of DaSCHland, ensuring that all users have a smooth and immersive experience in this dynamic digital world.</t>
-  </si>
-  <si>
     <t>Bit-Squad</t>
   </si>
   <si>
@@ -627,13 +535,6 @@
   </si>
   <si>
     <t>Fenicotteri e ricci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-In DaSCHland, the flamingos and hedgehogs are creatively reimagined to serve interactive and symbolic roles within the digital landscape, drawing from their iconic use as croquet equipment in "Alice's Adventures in Wonderland."
-Flamingos in DaSCHland are transformed into whimsical guides for navigation and exploration. These digital birds have vibrant, colorful plumages that are visually striking, and they're equipped with AI-driven guidance systems. Flamingos assist users by flying ahead, leading them through the complex and sprawling digital environments of DaSCHland. Their long necks and distinctive appearances make them easily recognizable and helpful markers for points of interest or paths to follow.
-Hedgehogs serve as interactive elements within educational and gaming areas of DaSCHland. They are designed as mobile, interactive bots that roll around, providing entertainment and challenges. In educational settings, hedgehogs are used in digital puzzles and games that teach coding, problem-solving, and digital literacy skills. Their quirky and engaging nature makes them beloved characters, especially in areas of DaSCHland designed for younger users.
-Together, the flamingos and hedgehogs enhance the playful and educational aspects of DaSCHland, maintaining a balance between guidance, learning, and entertainment. They embody the whimsical spirit of Wonderland while serving practical functions that enrich user interaction within the digital realm.</t>
   </si>
   <si>
     <t>Network Testers</t>
@@ -661,12 +562,6 @@
 There’s no sort of use in knocking, and that for two reasons. First, because I’m on the same side of the door as you are; secondly, because they’re making such a noise inside, no one could possibly hear you.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, the Frog-Footman is reimagined as a protocol droid, functioning as a ceremonial and administrative assistant within the digital kingdom. Drawing from his role in "Alice's Adventures in Wonderland" where he serves at the door of the Duchess’s house, delivering invitations and managing guests, this version of the Frog-Footman integrates his traditional responsibilities with advanced digital functionalities.
-The Frog-Footman in DaSCHland is depicted with a blend of old-world charm and high-tech features. He is responsible for managing digital gateways and ensuring smooth interactions within the virtual courts and official settings. Equipped with a sophisticated system interface, the Frog-Footman facilitates communications, schedules appointments, and oversees the entry protocols for various secured domains within DaSCHland, ensuring that all processes adhere to the established digital protocols.
-Interacting with the Frog-Footman offers Alice and other characters a glimpse into the formal aspects of digital governance and ceremonial order. His methodical and somewhat rigid demeanor contrasts with the more whimsical characters, providing a grounding influence in the often chaotic environment of DaSCHland. His role emphasizes the importance of structure and order in maintaining the functionality and etiquette of the virtual world.</t>
-  </si>
-  <si>
     <t>Protocol Frog</t>
   </si>
   <si>
@@ -707,14 +602,6 @@
 </t>
   </si>
   <si>
-    <t>In the digitally-rendered world of DaSCHland, the Gryphon emerges as a majestic and authoritative creature, blending elements of his mythological origins with modern digital functionalities. He serves as a guardian and guide, helping Alice navigate the more complex and potentially perilous parts of the digital landscape with wisdom and a stern demeanor.
-The Gryphon in DaSCHland is intricately designed, combining his classical eagle-and-lion form with enhancements that reflect his role within the digital environment. He possesses the ability to access and project holographic histories or legendary tales from the DaSCH repository, using his wings and talons as interactive tools that help illustrate these stories to Alice.
-His interactions with Alice are educational and protective, ensuring that she not only enjoys her journey through DaSCHland but also gains deeper insights into the literary and mythical foundations that the realm is built upon. The Gryphon’s character is a bridge between the ancient and the digital, embodying the wisdom of the old and the possibilities of the new.</t>
-  </si>
-  <si>
-    <t>System Protector</t>
-  </si>
-  <si>
     <t>I_033, I_034, I_035</t>
   </si>
   <si>
@@ -727,12 +614,6 @@
     <t>Humpty Dumpty</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, Humpty Dumpty is crafted as a figure of intellectual whimsy, combining his well-known penchant for wordplay with digital enhancements that allow him to manipulate language and meanings in novel ways. This digital Humpty Dumpty is perched on a high wall, symbolizing his lofty ideas and the precarious nature of his assertions.
-This version of Humpty Dumpty is equipped with linguistic databases from the DaSCH repository, enabling him to provide Alice with elaborate explanations and definitions that twist and stretch words beyond their conventional meanings. His digital interface allows him to project visual representations of his wordplay, turning abstract concepts into tangible, manipulable objects in the virtual environment.
-His interactions with Alice are cerebral and engaging, challenging her understanding of language and logic. Humpty Dumpty’s role in DaSCHland is not only to entertain but also to enlighten, serving as a quirky mentor who encourages Alice to explore the depths of linguistic creativity and the flexibility of digital communication. This character retains his iconic vulnerability, with the ever-present risk of falling off his wall, symbolizing the delicate balance between knowledge and confusion in the expansive digital world.</t>
-  </si>
-  <si>
     <t>Fragmented Data</t>
   </si>
   <si>
@@ -757,13 +638,6 @@
     <t>Ciciarampa</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, the Jabberwock is reinterpreted as a formidable digital guardian of certain domains within the virtual landscape, embodying the menacing yet mythical creature from Lewis Carroll's poem "Jabberwocky." This version of the Jabberwock is not just a creature of fear but also a symbol of the challenges and trials that Alice must overcome in her digital adventures.
-The Jabberwock in DaSCHland is depicted with visually striking features—gleaming eyes, sharp claws, and a presence that shifts between visibility and invisibility, adding to its enigmatic and formidable nature. It guards key areas that contain valuable data and archives within the DaSCH repository, challenging those who wish to access these areas to prove their worthiness and resolve.
-Interacting with the Jabberwock becomes a pivotal moment in Alice's journey, representing a significant challenge that tests her courage, wit, and perseverance. The encounter is designed to be an intense blend of puzzle-solving and strategic navigation, where Alice must use both her intellectual and emotional intelligence to bypass the guardian.
-This digital reinterpretation of the Jabberwock adds depth to the narrative of DaSCHland, providing a thrilling and meaningful obstacle that enhances the thematic exploration of facing one's fears and the quest for knowledge within the expansive digital world.</t>
-  </si>
-  <si>
     <t>Data Breach</t>
   </si>
   <si>
@@ -788,12 +662,6 @@
     <t>Giurati</t>
   </si>
   <si>
-    <t>In DaSCHland, the Jurors are conceptualized as components of an interactive and educational module focused on teaching users about the judicial process, logic, and decision-making. Drawing inspiration from their role in "Alice's Adventures in Wonderland" during the trial of the Knave of Hearts, where they are asked to consider evidence and reach a verdict, these characters are enhanced to facilitate learning and engagement in a simulated courtroom environment.
-Jurors in DaSCHland are programmed with AI to represent different aspects of critical thinking and judicial reasoning. Each Juror embodies a specific cognitive or logical principle, such as bias recognition, evidence evaluation, or ethical consideration. They interact with users in a variety of ways, from debating legal principles to analyzing virtual case studies. This setup allows users to engage in mock trials, where they can learn about the complexities of legal systems and the importance of fair and reasoned decision-making.
-The Jurors are also involved in scenarios that require users to apply logical reasoning to solve problems or resolve conflicts within DaSCHland. These scenarios are designed to be both informative and challenging, ensuring that users not only understand the theoretical underpinnings of law and order but also gain practical experience in applying these concepts.
-This reimagining of the Jurors adds depth to the educational offerings of DaSCHland, making them key figures in one of the many interactive learning environments designed to enhance user engagement through thoughtful and dynamic interactions.</t>
-  </si>
-  <si>
     <t>The Peer Panel</t>
   </si>
   <si>
@@ -821,12 +689,6 @@
     <t>Begin at the beginning, and go on till you come to the end: then stop.</t>
   </si>
   <si>
-    <t>In DaSCHland, the King of Hearts is portrayed as a benevolent and somewhat ceremonial ruler, often overshadowed by the more forceful Queen of Hearts but holding his own unique authority within the digital realm. His character is designed to embody wisdom and moderation, serving as a balancing force against the Queen's more impulsive decisions.
-The King in DaSCHland maintains his gentle demeanor from the original stories, but he is equipped with tools and systems that help him manage the kingdom's affairs and ensure the proper execution of its laws. He often appears in scenarios where judicial or moral decisions are needed, providing a voice of reason and compassion.
-His interactions with Alice are marked by kindness and encouragement, offering her advice and support as she navigates the complexities of DaSCHland. The King's role is crucial in maintaining the order and fairness of the digital kingdom, often using his authority to temper the Queen's harsher judgments.
-Overall, the King of Hearts in DaSCHland represents the virtues of patience and understanding, using his position to promote peace and stability in the kingdom, and showing Alice the importance of thoughtful leadership in any world, digital or otherwise.</t>
-  </si>
-  <si>
     <t>The Data King</t>
   </si>
   <si>
@@ -854,12 +716,6 @@
     <t>I didn't write it!</t>
   </si>
   <si>
-    <t>In DaSCHland, the Knave of Hearts is recast as a mischievous yet charismatic character, well-known for his role in the infamous tart theft, but with a deeper digital twist. He serves as an intriguing figure within the virtual realm, often involved in scenarios that test the boundaries of rules and digital ethics.
-The Knave in DaSCHland utilizes his cunning and charm not just to engage in his notorious antics but also to explore and sometimes exploit the digital environment's capabilities. His actions often lead to lessons about digital responsibility and the consequences of manipulating data without regard for the virtual world's laws.
-His interactions with Alice are playful yet edifying, offering her—and the audience—a glimpse into the complexities of maintaining order and morality within a digitally governed realm. Despite his reputation for causing trouble, the Knave is portrayed as a fundamentally multi-dimensional character, whose adventures prompt discussions about right, wrong, and the gray areas in between in DaSCHland.
-This version of the Knave of Hearts adds a layer of intrigue to the narrative, making him a pivotal character whose actions drive much of the drama and learning experiences within the digital wonderland.</t>
-  </si>
-  <si>
     <t>The Code Thief</t>
   </si>
   <si>
@@ -917,12 +773,6 @@
     <t>I am older than you, and must know better</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, the Lory character is reimagined as a vibrant and somewhat competitive personality, retaining its original traits from Lewis Carroll's tales but with enhanced digital capabilities. This digital Lory is portrayed as eager and somewhat assertive, often involved in discussions and debates, where it loves to showcase its knowledge and wit.
-The Lory in DaSCHland serves as a counterpart to the Duck, offering a contrasting perspective that is more assertive and less concerned with practical details and more with winning arguments or leading expeditions within the digital realm. This character's role is often to challenge Alice and other characters, pushing them to think critically and react swiftly to the evolving scenarios in this virtual world.
-Interacting with Lory provides a dynamic element to Alice's journey, testing her problem-solving skills and her ability to navigate social interactions in a competitive environment. The Lory's colorful personality and eagerness to engage make it a memorable part of the digital narrative, contributing to the lively and diverse character ensemble in DaSCHland.</t>
-  </si>
-  <si>
     <t>Meta-Lory</t>
   </si>
   <si>
@@ -986,12 +836,6 @@
     <t>Marie-Anne</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, Mary Ann is creatively reimagined as Alice's virtual assistant, embodying a character that seamlessly blends functionality with a dash of whimsical loyalty. Drawing from her role in the original "Alice's Adventures in Wonderland" as the White Rabbit's housemaid, this version of Mary Ann is adapted to assist not just the White Rabbit but also Alice throughout her digital journey.
-Mary Ann in DaSCHland is designed to be highly efficient and helpful, managing logistical tasks, scheduling events, and providing reminders and notifications to keep Alice on track as she navigates the complex digital environment. Her character is equipped with a suite of digital tools that allow her to access and organize vast amounts of data from the DaSCH repository, making her an indispensable companion in managing the day-to-day adventures and challenges Alice faces.
-Her interactions with Alice are characterized by a blend of caretaking and managerial efficiency, offering a comforting yet structured presence. Mary Ann’s role underscores the importance of support and organization within the whimsical yet sometimes overwhelming world of DaSCHland, ensuring that Alice’s adventures are both enjoyable and well-coordinated.</t>
-  </si>
-  <si>
     <t>Task Manager</t>
   </si>
   <si>
@@ -1043,15 +887,6 @@
     <t>Sit down, all of you, and listen to me! I'll soon make you dry enough!</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, the Mouse is depicted as a wise and articulate historian, carrying a vast repository of knowledge from the DaSCH archives. This digital incarnation of the Mouse combines its characteristic timidity with a profound intellectual depth, serving as a guide to the historical and literary contexts of Wonderland.
-The Mouse in DaSCHland is often seen scurrying across digital landscapes, leaving trails of historical data and literary references that help Alice understand the intricate background of the characters and settings she encounters. Its small size belies the vast amount of information it holds, and it communicates with Alice through a series of sophisticated projections and interactive data streams that visually represent the stories it tells.
-Interacting with the Mouse, Alice finds a valuable resource in piecing together the puzzles of DaSCHland. The Mouse's role is crucial for teaching her about the origins and transformations of Wonderland's inhabitants and their adventures. This character's timid yet profound demeanor makes it a unique and insightful guide, enriching Alice's journey through the layers of digital Wonderland.</t>
-  </si>
-  <si>
-    <t>Command-line Operator</t>
-  </si>
-  <si>
     <t>I_008, I_010</t>
   </si>
   <si>
@@ -1067,12 +902,6 @@
     <t>Sure, it's an arm, yer honour!</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, Pat is reimagined as a quirky, hardworking character originally tasked with maintenance and troubleshooting within this digital world. Drawing from his role in "Alice's Adventures in Wonderland" as a gardener and laborer, this version of Pat retains his practical nature but with enhanced skills suited for the digital environment of DaSCHland.
-Pat is depicted as a technician and builder, responsible for maintaining the integrity of the virtual landscape and ensuring that all digital systems function smoothly. He's often seen wielding a toolbox filled with digital tools that can fix glitches, perform upgrades, and manage the seamless integration of new data into existing structures. His expertise is crucial in preserving the stability and functionality of DaSCHland, making him a key figure behind the scenes.
-Interacting with Pat provides Alice with insights into the inner workings of the digital realm. His down-to-earth demeanor and problem-solving abilities offer a contrast to the more fantastical elements of DaSCHland, grounding the narrative in practicality and realism. Pat’s role highlights the importance of maintenance and careful management in sustaining the complex digital ecosystem that Alice explores.</t>
-  </si>
-  <si>
     <t>The File Handler</t>
   </si>
   <si>
@@ -1091,12 +920,6 @@
     <t>Serpent!</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, the Pigeon is reimagined as a guardian of specific domains, particularly those involving airborne data streams and cloud storage within the digital landscape. Drawing from its role in "Alice's Adventures in Wonderland," where it accuses Alice of being a serpent due to her unusual size changes, this version of the Pigeon retains its suspicious and somewhat confrontational demeanor but channels these traits into vigilance and security.
-The Pigeon in DaSCHland is depicted as an aerial sentinel, constantly monitoring the skies and overseeing the transfer and integrity of data. It uses its enhanced vision and flight capabilities to patrol the digital environment, identifying and addressing potential threats or anomalies in the system. The Pigeon's role is crucial for maintaining the safety and order of the digital airspace, ensuring that all data transmissions are secure and unimpeded.
-Interacting with the Pigeon provides Alice with insights into the complexities of data management and security within DaSCHland. The Pigeon's keen oversight and meticulous nature serve as a reminder of the continuous vigilance required to protect and sustain the digital world. Its interactions are often marked by a mix of caution and wisdom, educating Alice and others about the importance of safeguarding digital resources and the challenges involved in managing expansive virtual environments.</t>
-  </si>
-  <si>
     <t>Packet-Pigeon</t>
   </si>
   <si>
@@ -1118,12 +941,6 @@
     <t>Cucciolo</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In DaSCHland, the Puppy is reimagined as a lively and interactive character that adds a layer of playful engagement within the virtual world. Drawing from the small but exuberant puppy that Alice encounters in "Alice's Adventures in Wonderland," which playfully intimidates her when she is small, this version of the Puppy is designed to bring joy and a sense of wonder to the digital realm.
-The Puppy in DaSCHland is depicted with enhanced, life-like animations that make it an endearing companion to Alice and other visitors. It serves not just as a playful pet but also as an interactive guide for younger users or newcomers to DaSCHland, helping them navigate the simpler aspects of the digital world through games and interactive learning experiences. The Puppy's role involves teaching basic navigation skills, providing companionship, and adding a comforting presence that makes the digital environment more approachable and less intimidating.
-Interacting with the Puppy offers a break from the more complex challenges of DaSCHland, allowing Alice and others to enjoy moments of levity and joy. The Puppy’s enthusiastic and friendly nature makes it a beloved figure in the digital landscape, symbolizing the joy of discovery and the importance of play in learning and exploration within DaSCHland.</t>
-  </si>
-  <si>
     <t>Test Data</t>
   </si>
   <si>
@@ -1223,11 +1040,6 @@
     <t>Regina rossa</t>
   </si>
   <si>
-    <t>In the digital wonderland of DaSCHland, the Red Queen is reimagined as a dynamic and strategic figure, embodying a blend of leadership and urgency. Unlike the traditional portrayal of her character as simply domineering, this Red Queen is more nuanced, using her quick-paced and decisive nature to manage and oversee complex digital operations within the realm.
-The Red Queen in DaSCHland utilizes advanced data analytics and management tools that are visually represented by the constant motion of her character—mirroring her motif of "running to stay in place." Her realm is one where order and efficiency reign, and she is often seen orchestrating the flow of information and digital events with precision and command.
-Her interactions with Alice are marked by challenges that test Alice's ability to think and react quickly, embodying the Red Queen's belief in the necessity of constant movement and adaptation in a rapidly changing digital environment. This portrayal highlights her as not just a ruler but a symbol of perpetual progress and the relentless pace of technological and data-driven environments.</t>
-  </si>
-  <si>
     <t>The Digi-Queen</t>
   </si>
   <si>
@@ -1400,15 +1212,6 @@
   </si>
   <si>
     <t>Cavaliere bianco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-In the imaginative universe of DaSCHland, the White Knight is transformed into a quirky yet noble figure who embodies the fusion of chivalric ideals with technological innovation. He is designed as a tinkerer and inventor, with his armor and steed adorned with various whimsical gadgets and gizmos that he has crafted from the digital resources available within the DaSCH repository.
-This White Knight retains his traditional clumsiness and good-hearted nature, but his inventions are digitally enhanced, offering practical (and sometimes impractical) solutions during his adventures with Alice. His armor, instead of merely serving as protection, is integrated with interactive displays and tools that assist him and Alice as they navigate through DaSCHland.
-His interactions with Alice are filled with gentle guidance and eccentric inventiveness. He serves not only as a protector on her journey but also as a mentor in creativity and resilience, often providing comic relief with his inventions that sometimes work in unexpected ways. The White Knight’s character in DaSCHland symbolizes the bridge between old-world chivalry and modern digital creativity, making every encounter with him both educational and entertaining.</t>
-  </si>
-  <si>
-    <t>Encryption Key</t>
   </si>
   <si>
     <t>I_043, I_050, I_080, I_081, I_082, I_083</t>
@@ -1894,29 +1697,298 @@
 But it’s not just for show. The Hatter challenges his guests with riddles, each unlocking another layer of DaSCHland’s storied repository. </t>
   </si>
   <si>
-    <t>In the imaginative world of DaSCHland, the Cheshire Cat emerges as a particularly compelling digital entity—equal parts guide, enigma, and interface. Retaining his iconic mystery and mischievous wit, he is now reimagined as a fully cybernetic being: a shimmering construct composed of translucent data fractals, his fur constantly shifting like a mosaic of living code. His body pulses gently with a luminous teal glow, occasionally phasing in and out of visibility as if he were woven from pure algorithmic ether.
+    <t>In the imaginative world of DaSCHland,The Quantum Cat (formerly known as the Cheshire Cat) emerges as a particularly compelling digital entity—equal parts guide, enigma, and interface. Retaining his iconic mystery and mischievous wit, he is now reimagined as a fully cybernetic being: a shimmering construct composed of translucent data fractals, his fur constantly shifting like a mosaic of living code. His body pulses gently with a luminous teal glow, occasionally phasing in and out of visibility as if he were woven from pure algorithmic ether.
 Most striking is his grin—not made of teeth, but of interlaced glowing network filaments, forming a curved mesh of light that pulses with embedded glyphs and data nodes. This “smile” acts as a user interface to the DaSCH repository, allowing users to engage with metadata, digital records, and archival information simply by interacting with it. His eyes, sharp and angular, gleam with geometric complexity, constantly scanning, indexing, and offering contextual prompts as Alice wanders deeper into the digital dreamscape.
-The Cheshire Cat’s interactions with Alice are as paradoxical as they are enlightening. He speaks in riddles laden with metadata metaphors and philosophical inquiries, challenging her understanding of identity, permanence, and the nature of knowledge in the digital age. He offers guidance not by pointing to obvious solutions, but by subtly nudging her toward interpretive discovery, forcing her to think like a researcher navigating the layered ontology of a vast, interconnected archive.
-His ability to phase in and out of digital visibility—sometimes leaving behind only a trace glow or a fading strand of binary code—mirrors the fluid, often elusive presence of information in contemporary digital ecosystems. In DaSCHland, where data can be simultaneously omnipresent and hidden beneath layers of abstraction, the Cheshire Cat becomes a living metaphor for the state of digital memory: fragmented, refracted, yet full of potential insight.
+The Quantum Cat’s interactions with Alice are as paradoxical as they are enlightening. He speaks in riddles laden with metadata metaphors and philosophical inquiries, challenging her understanding of identity, permanence, and the nature of knowledge in the digital age. He offers guidance not by pointing to obvious solutions, but by subtly nudging her toward interpretive discovery, forcing her to think like a researcher navigating the layered ontology of a vast, interconnected archive.
+His ability to phase in and out of digital visibility—sometimes leaving behind only a trace glow or a fading strand of binary code—mirrors the fluid, often elusive presence of information in contemporary digital ecosystems. In DaSCHland, where data can be simultaneously omnipresent and hidden beneath layers of abstraction, The Quantum Ca becomes a living metaphor for the state of digital memory: fragmented, refracted, yet full of potential insight.
 Ultimately, this version of the Cheshire Cat is far more than a whimsical companion. He embodies the transformative power of digital technology to reshape not only narratives but the very nature of character interaction within virtual realms. As Alice journeys through DaSCHland’s datascapes—past holographic trees, algorithmic rivers, and libraries suspended in quantum mist—the Cat remains a constant reminder of the enigmatic, playful, and ever-shifting nature of the digital world she explores.</t>
   </si>
   <si>
     <t>In DaSCHland, The Data Queen is reenvisioned as a formidable digital ruler, embodying her classic characteristics of authority and quick temper, but with a modern twist. In this virtual world, she presides over the digital kingdom with a strict adherence to the rules and protocols encoded within the DaSCH repository.
-The Queen’s realm in DaSCHland is a place where order intersects with the whimsical laws of Wonderland, making her both a guardian of traditional narratives and an enforcer of the digital world's unique logic. Her commands and decrees can instantly alter the landscape or the behavior of other characters, demonstrating her control over the digital environment.
+The Data Queen’s realm in DaSCHland is a place where order intersects with the whimsical laws of Wonderland, making her both a guardian of traditional narratives and an enforcer of the digital world's unique logic. Her commands and decrees can instantly alter the landscape or the behavior of other characters, demonstrating her control over the digital environment.
 Her interactions with Alice are intense and pivotal, offering dramatic encounters that highlight the power dynamics within DaSCHland. The Data Queen in this setting isn't just a character from a story; she is a dynamic representation of control and authority in a world where data and reality intertwine seamlessly.</t>
   </si>
   <si>
+    <t>The Algorithmic Duchess</t>
+  </si>
+  <si>
+    <t>The System Protector</t>
+  </si>
+  <si>
+    <t>In the digitally-rendered world of DaSCHland, The System Protector (evolved from the mythological Gryphon) emerges as a majestic and authoritative creature, blending elements of his mythological origins with modern digital functionalities. He serves as a guardian and guide, helping Alice navigate the more complex and potentially perilous parts of the digital landscape with wisdom and a stern demeanor.
+The System Protector in DaSCHland is intricately designed, combining his classical eagle-and-lion form with enhancements that reflect his role within the digital environment. He possesses the ability to access and project holographic histories or legendary tales from the DaSCH repository, using his wings and talons as interactive tools that help illustrate these stories to Alice.
+His interactions with Alice are educational and protective, ensuring that she not only enjoys her journey through DaSCHland but also gains deeper insights into the literary and mythical foundations that the realm is built upon. The System Protector’s character is a bridge between the ancient and the digital, embodying the wisdom of the old and the possibilities of the new.</t>
+  </si>
+  <si>
+    <t>In the digital wonderland of DaSCHland,The Digi-Queen (the reimagined Red Queen) is a dynamic and strategic figure, embodying a blend of leadership and urgency. Unlike the traditional portrayal of her character as simply domineering, The Digi-Queen is more nuanced, using her quick-paced and decisive nature to manage and oversee complex digital operations within the realm.
+The Digi-Queen in DaSCHland utilizes advanced data analytics and management tools that are visually represented by the constant motion of her character—mirroring her motif of "running to stay in place." Her realm is one where order and efficiency reign, and she is often seen orchestrating the flow of information and digital events with precision and command.
+Her interactions with Alice are marked by challenges that test Alice's ability to think and react quickly, embodying The Digi-Queen's belief in the necessity of constant movement and adaptation in a rapidly changing digital environment. This portrayal highlights her as not just a ruler but a symbol of perpetual progress and the relentless pace of technological and data-driven environments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In DaSCHland, Fragmented Data (the digital incarnation of Humpty Dumpty) i is crafted as a figure of intellectual whimsy, combining his well-known penchant for wordplay with digital enhancements that allow him to manipulate language and meanings in novel ways. The Fragmented Data is perched on a high wall, symbolizing his lofty ideas and the precarious nature of his assertions.
+The Fragmented Data is equipped with linguistic databases from the DaSCH repository, enabling him to provide Alice with elaborate explanations and definitions that twist and stretch words beyond their conventional meanings. His digital interface allows him to project visual representations of his wordplay, turning abstract concepts into tangible, manipulable objects in the virtual environment.
+His interactions with Alice are cerebral and engaging, challenging her understanding of language and logic. Fragmented Data’s role in DaSCHland is not only to entertain but also to enlighten, serving as a quirky mentor who encourages Alice to explore the depths of linguistic creativity and the flexibility of digital communication. This character retains his iconic vulnerability, with the ever-present risk of falling off his wall, symbolizing the delicate balance between knowledge and confusion in the expansive digital world.</t>
+  </si>
+  <si>
+    <t>The Encryption Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In the imaginative universe of DaSCHland, The Encryption Key (formerly the White Knight) is transformed into a quirky yet noble figure who embodies the fusion of chivalric ideals with technological innovation. He is designed as a tinkerer and inventor, with his armor and steed adorned with various whimsical gadgets and gizmos that he has crafted from the digital resources available within the DaSCH repository.
+The Encryption Key retains his traditional clumsiness and good-hearted nature, but his inventions are digitally enhanced, offering practical (and sometimes impractical) solutions during his adventures with Alice. His armor, instead of merely serving as protection, is integrated with interactive displays and tools that assist him and Alice as they navigate through DaSCHland.
+His interactions with Alice are filled with gentle guidance and eccentric inventiveness. He serves not only as a protector on her journey but also as a mentor in creativity and resilience, often providing comic relief with his inventions that sometimes work in unexpected ways. The Encryption Key’s character in DaSCHland symbolizes the bridge between old-world chivalry and modern digital creativity, making every encounter with him both educational and entertaining.</t>
+  </si>
+  <si>
+    <t>The Command-Line Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In DaSCHland, The Command-Line Operator (the evolved Mouse) is depicted as a wise and articulate historian, carrying a vast repository of knowledge from the DaSCH archives. This digital incarnation of the Mouse combines its characteristic timidity with a profound intellectual depth, serving as a guide to the historical and literary contexts of Wonderland.
+The Command-Line Operator in DaSCHland is often seen scurrying across digital landscapes, leaving trails of historical data and literary references that help Alice understand the intricate background of the characters and settings she encounters. Its small size belies the vast amount of information it holds, and it communicates with Alice through a series of sophisticated projections and interactive data streams that visually represent the stories it tells.
+Interacting with The Command-Line Operator, Alice finds a valuable resource in piecing together the puzzles of DaSCHland. The Command-Line Operator's role is crucial for teaching her about the origins and transformations of Wonderland's inhabitants and their adventures. This character's timid yet profound demeanor makes it a unique and insightful guide, enriching Alice's journey through the layers of digital Wonderland.</t>
+  </si>
+  <si>
+    <t>The Old-System</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Old-System (the reimagined Dodo) is a digital curator and archivist, overseeing the preservation and organization of the vast literary and historical data within the DaSCH repository. The Old-System retains the peculiar and somewhat absurd characteristics from the original tales, but with a twist: he is deeply knowledgeable and somewhat pedantic about the digital artifacts and records under his care.
+The Old-System in DaSCHland serves as an authoritative figure in managing the flow of information and ensuring that Alice receives the proper context and background needed for her explorations. His presence is marked by a series of elaborate digital displays and interfaces that he controls, which serve as interactive exhibits for Alice and other visitors to DaSCHland.
+Interacting with The Old-System Alice is often caught in the whirlwind of his archiving activities, witnessing how digital preservation works in a realm where literary and historical data are treated as precious commodities. The Old-System's meticulous nature and his commitment to his duties make him a fascinating character who blends the whimsical with the practical, providing a unique perspective on the importance of data stewardship in the digital age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In DaSCHland, Alice's sister is conceptualized as Meta-Sibling, a serene and scholarly figure, serving as a gateway between the real world and the digital realm of DaSCH. She embodies the role of a caretaker and guide, often seen in the background, offering gentle encouragement and insights that help Alice navigate her digital adventures.
+Her character in DaSCHland is endowed with an intuitive understanding of both the physical and digital worlds, making her an ideal mentor for Alice. The Meta-Sibling is portrayed as possessing a deep knowledge of the literary foundations of DaSCHland, providing Alice with critical interpretations and historical contexts that enrich her journey.
+The Meta-Sibling interacts with the digital world through a sophisticated interface that allows her to monitor and occasionally guide Alice's progress, ensuring that her little sister's explorations are both safe and enlightening. Her calm demeanor and intellectual depth make her a grounding presence, offering a bridge back to reality and a reminder of the world beyond the digital landscape. Her role highlights the connection between storytelling, learning, and the nurturing guidance that helps Alice grow throughout her adventures in DaSCHland.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Data King (the reimagined King of Hearts) is portrayed as a benevolent and somewhat ceremonial ruler, often overshadowed by the more forceful The Data Queen but holding his own unique authority within the digital realm. His character is designed to embody wisdom and moderation, serving as a balancing force against the The Data Queen's more impulsive decisions.
+The King in DaSCHland maintains his gentle demeanor from the original stories, but he is equipped with tools and systems that help him manage the kingdom's affairs and ensure the proper execution of its laws. He often appears in scenarios where judicial or moral decisions are needed, providing a voice of reason and compassion.
+His interactions with Alice are marked by kindness and encouragement, offering her advice and support as she navigates the complexities of DaSCHland. The Data King's role is crucial in maintaining the order and fairness of the digital kingdom, often using his authority to temper the The Data Queen's harsher judgments.
+Overall, The Data King in DaSCHland represents the virtues of patience and understanding, using his position to promote peace and stability in the kingdom, and showing Alice the importance of thoughtful leadership in any world, digital or otherwise.</t>
+  </si>
+  <si>
+    <t>The Archived Node</t>
+  </si>
+  <si>
+    <t>In the digital realm of DaSCHland, The Archived Node (formerly the Dormouse) is reimagined as a sleepy yet insightful character, whose drowsy demeanor masks a deep repository of narrative wisdom. In this version, The Archived Node is not merely a participant in the The Archival Madcap's tea party but serves as a crucial archival resource, storing and occasionally divulging snippets of folklore and historical tales embedded within DaSCH's extensive databases.
+The Archived Node occasionally dozes off, but when awake, it projects holographic snippets of stories and historical events, illuminating the discussions at the tea party with vivid, animated tales from various epochs and cultures. Its ability to access and display these narratives at random—or seemingly so—adds a layer of enchantment and mystery to its character.
+Interactions with The Archived Node provide Alice and other characters with unexpected insights, often sparking deeper discussions or leading to new adventures in DaSCHland. Despite its sleepy nature, The Archived Node is a beloved figure, enchanting visitors with its whimsical, albeit intermittent, contributions to the digital tea party. This character blends the charm of its traditional portrayal with the technological marvels of DaSCHland, making each of its rare awakenings a moment worth waiting for.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Code Thief (the reimagined Knave of Hearts) is recast as a mischievous yet charismatic character, well-known for his role in the infamous tart theft, but with a deeper digital twist. He serves as an intriguing figure within the virtual realm, often involved in scenarios that test the boundaries of rules and digital ethics.
+The Code Thief in DaSCHland utilizes his cunning and charm not just to engage in his notorious antics but also to explore and sometimes exploit the digital environment's capabilities. His actions often lead to lessons about digital responsibility and the consequences of manipulating data without regard for the virtual world's laws.
+His interactions with Alice are playful yet edifying, offering her—and the audience—a glimpse into the complexities of maintaining order and morality within a digitally governed realm. Despite his reputation for causing trouble, The Code Thief is portrayed as a fundamentally multi-dimensional character, whose adventures prompt discussions about right, wrong, and the gray areas in between in DaSCHland.
+The Code Thief adds a layer of intrigue to the narrative, making him a pivotal character whose actions drive much of the drama and learning experiences within the digital wonderland.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Code-Cat (Alice's beloved Dinah reimagined) maintains a significant virtual presence that bridges the realms of reality and digital fantasy. Code-Cat retains her feline traits but is enhanced with digital capabilities that allow her to interact with Alice in unique and helpful ways within the digital landscape.
+Code-Cat in DaSCHland serves as Alice’s loyal companion and protector, equipped with sensors and communication tools that help her detect and navigate digital anomalies or threats. Her presence offers a comforting sense of home and familiarity to Alice, providing emotional support and practical assistance as they explore the various facets of the digital world together.
+Her interactions with Alice and other characters are marked by a blend of affectionate behavior typical of a pet and sophisticated digital interventions that aid in Alice's adventures. Code-Cat's ability to appear and act within DaSCHland adds an element of whimsy and security, reinforcing the connection between Alice's real-world roots and her fantastical digital experiences.
+Code-Cat's role as a digitally enhanced pet in DaSCHland highlights the theme of companionship transcending physical and virtual spaces, making her an integral part of the narrative that emphasizes loyalty, protection, and the comforts of home, even in the most extraordinary of settings.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Buffer Duck is portrayed as a character brimming with practical wisdom and a no-nonsense attitude, offering a grounded perspective in the often whimsical and chaotic digital environment. Buffer Duck, inspired by the original character in Lewis Carroll's tales, is enhanced with features that allow it to navigate and explain the natural laws governing the digital world of DaSCHland.
+Buffer Duck in this virtual realm serves as a guide, especially in scenarios involving natural simulations, such as virtual waterways or weather patterns, using its knowledge to educate Alice and other characters on the digital ecosystem's workings. Buffer Duck's pragmatic approach helps demystify the complex interactions within DaSCHland, making it a reliable resource for understanding how digital and natural laws intertwine.
+Interacting with the Buffer Duck provides Alice with invaluable lessons on adaptability and the importance of understanding one's environment. Buffer Duck's straightforward and often blunt demeanor adds a layer of humor and realism to the narrative, contrasting with the more fantastical elements and characters in DaSCHland. This character enriches the digital landscape by offering insights into the practical aspects of navigating a world where reality and digital creations coexist.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Meta-Lory is reimagined as a vibrant and somewhat competitive personality, retaining its original traits from Lewis Carroll's tales but with enhanced digital capabilities. Meta-Lory is portrayed as eager and somewhat assertive, often involved in discussions and debates, where it loves to showcase its knowledge and wit.
+Meta-Lory in DaSCHland serves as a counterpart to the Buffer Duck, offering a contrasting perspective that is more assertive and less concerned with practical details and more with winning arguments or leading expeditions within the digital realm. This character's role is often to challenge Alice and other characters, pushing them to think critically and react swiftly to the evolving scenarios in this virtual world.
+Interacting with Meta-Lory provides a dynamic element to Alice's journey, testing her problem-solving skills and her ability to navigate social interactions in a competitive environment. Meta-Lory's colorful personality and eagerness to engage make it a memorable part of the digital narrative, contributing to the lively and diverse character ensemble in DaSCHland.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Byte-Eaglet is reenvisioned as a cautious yet insightful figure, bringing a blend of youthful energy and a keen eye for detail to the digital landscape. The Byte-Eaglet is characterized by its careful observations and occasional skepticism, providing a voice of reason amid the more flamboyant personalities.
+The Byte-Eaglet in DaSCHland often serves as a mediator and analyst, helping to decipher complex digital phenomena and ensuring that discussions stay grounded in logic. Its role is particularly important in situations where the whimsical nature of DaSCHland's environment leads to confusion or misinterpretations, as the The Byte-Eaglet helps to clarify misunderstandings and offer clear, concise explanations.
+Interacting with The Byte-Eaglet enhances Alice’s experiences by encouraging her to be more observant and thoughtful about her surroundings. The Byte-Eaglet's careful approach to the digital world's challenges and its ability to distill wisdom from chaotic situations make it a crucial ally for Alice and other characters navigating the intricate realm of DaSCHland.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Task Manager (formerly Mary Ann) is creatively reimagined as Alice's virtual assistant, embodying a character that seamlessly blends functionality with a dash of whimsical loyalty. Just as the White Rabbit has evolved into RabbIT, Mary Ann has transformed from his simple housemaid into a digital assistant serving both RabbIT and Alice throughout their digital journey.
+Task Manager in DaSCHland is designed to be highly efficient and helpful, managing logistical tasks, scheduling events, and providing reminders and notifications to keep Alice on track as she navigates the complex digital environment. Her character is equipped with a suite of digital tools that allow her to access and organize vast amounts of data from the DaSCH repository, making her an indispensable companion in managing the day-to-day adventures and challenges Alice faces.
+Her interactions with Alice are characterized by a blend of caretaking and managerial efficiency, offering a comforting yet structured presence. Task Manager’s role underscores the importance of support and organization within the whimsical yet sometimes overwhelming world of DaSCHland, ensuring that Alice’s adventures are both enjoyable and well-coordinated.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The File Handler (Pat reimagined) as a quirky, hardworking character originally tasked with maintenance and troubleshooting within this digital world. Pat transforms from Carroll's practical gardener and laborer into DaSCHland's skilled technician, preserving his hands-on approach while mastering the digital environment.
+The File Handler is depicted as a technician and builder, responsible for maintaining the integrity of the virtual landscape and ensuring that all digital systems function smoothly. He's often seen wielding a toolbox filled with digital tools that can fix glitches, perform upgrades, and manage the seamless integration of new data into existing structures. His expertise is crucial in preserving the stability and functionality of DaSCHland, making him a key figure behind the scenes.
+Interacting with The File Handler provides Alice with insights into the inner workings of the digital realm. His down-to-earth demeanor and problem-solving abilities offer a contrast to the more fantastical elements of DaSCHland, grounding the narrative in practicality and realism. The File Handler’s role highlights the importance of maintenance and careful management in sustaining the complex digital ecosystem that Alice explores.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Data Breach (the fearsome Jabberwock reinterpreted) is a formidable digital guardian of certain domains within the virtual landscape, embodying the menacing yet mythical creature from Lewis Carroll's poem "Jabberwocky." This version of the Jabberwock is not just a creature of fear but also a symbol of the challenges and trials that Alice must overcome in her digital adventures.
+Data Breach in DaSCHland is depicted with visually striking features—gleaming eyes, sharp claws, and a presence that shifts between visibility and invisibility, adding to its enigmatic and formidable nature. It guards key areas that contain valuable data and archives within the DaSCH repository, challenging those who wish to access these areas to prove their worthiness and resolve.
+Interacting with the Data Breach becomes a pivotal moment in Alice's journey, representing a significant challenge that tests her courage, wit, and perseverance. The encounter is designed to be an intense blend of puzzle-solving and strategic navigation, where Alice must use both her intellectual and emotional intelligence to bypass the guardian.
+Data Breach adds depth to the narrative of DaSCHland, providing a thrilling and meaningful obstacle that enhances the thematic exploration of facing one's fears and the quest for knowledge within the expansive digital world.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Script Lizard (Bill the Lizard transformed) serves a versatile and skilled technician who specializes in the installation and maintenance of the digital realm’s complex infrastructure. Drawing from his role in "Alice's Adventures in Wonderland" where he was sent down the chimney as part of the White Rabbit's housemaid's attempts to deal with a giant Alice, this version of Bill retains his adventurous spirit but applies it within a technological context.
+Script Lizard is depicted as an agile and resourceful character, adept at navigating the intricate digital landscapes of DaSCHland. He is often involved in critical tasks that require precision and quick thinking, such as updating system software, repairing data leaks, or scaling the virtual environments to perform essential upgrades and fixes. His ability to swiftly adapt to varying digital scenarios makes him a crucial asset in maintaining the stability and efficiency of DaSCHland.
+Interacting with Script Lizard provides Alice and other characters with practical knowledge about the operational aspects of the digital world. His down-to-earth approach and readiness to tackle any technical challenge contribute to the narrative by demonstrating the importance of skill and adaptability in managing a sophisticated digital ecosystem. Script Lizard’s role underscores the theme of teamwork and reliability, essential for the smooth functioning of DaSCHland’s adventurous and dynamic environment.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Test Data (the reimagined Puppy) is a lively and interactive character that adds a layer of playful engagement within the virtual world. Drawing from the small but exuberant puppy that Alice encounters in "Alice's Adventures in Wonderland," which playfully intimidates her when she is small, this version of the Puppy is designed to bring joy and a sense of wonder to the digital realm.
+Test Data in DaSCHland is depicted with enhanced, life-like animations that make it an endearing companion to Alice and other visitors. It serves not just as a playful pet but also as an interactive guide for younger users or newcomers to DaSCHland, helping them navigate the simpler aspects of the digital world through games and interactive learning experiences. Test Data's role involves teaching basic navigation skills, providing companionship, and adding a comforting presence that makes the digital environment more approachable and less intimidating.
+Interacting with the Test Data offers a break from the more complex challenges of DaSCHland, allowing Alice and others to enjoy moments of levity and joy. Test Data’s enthusiastic and friendly nature makes it a beloved figure in the digital landscape, symbolizing the joy of discovery and the importance of play in learning and exploration within DaSCHland.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Packet-Pigeon is reimagined as a guardian of specific domains, particularly those involving airborne data streams and cloud storage within the digital landscape. Drawing from its role in "Alice's Adventures in Wonderland," where it accuses Alice of being a serpent due to her unusual size changes, this version of the Pigeon retains its suspicious and somewhat confrontational demeanor but channels these traits into vigilance and security.
+Packet-Pigeon in DaSCHland is depicted as an aerial sentinel, constantly monitoring the skies and overseeing the transfer and integrity of data. It uses its enhanced vision and flight capabilities to patrol the digital environment, identifying and addressing potential threats or anomalies in the system. Packet-Pigeon's role is crucial for maintaining the safety and order of the digital airspace, ensuring that all data transmissions are secure and unimpeded.
+Interacting with the Packet-Pigeon provides Alice with insights into the complexities of data management and security within DaSCHland. Packet-Pigeon's keen oversight and meticulous nature serve as a reminder of the continuous vigilance required to protect and sustain the digital world. Its interactions are often marked by a mix of caution and wisdom, educating Alice and others about the importance of safeguarding digital resources and the challenges involved in managing expansive virtual environments.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Protocol Frog serves as a protocol droid, functioning as a ceremonial and administrative assistant within the digital kingdom. Once managing visitors for the Duchess, Protocol Frog now serves The Algorithmic Duchess in DaSCHland, converting his doorkeeper duties into digital protocol management and system handshakes.
+Protocol Frog in DaSCHland is depicted with a blend of old-world charm and high-tech features. He is responsible for managing digital gateways and ensuring smooth interactions within the virtual courts and official settings. Equipped with a sophisticated system interface, the Protocol Frog facilitates communications, schedules appointments, and oversees the entry protocols for various secured domains within DaSCHland, ensuring that all processes adhere to the established digital protocols.
+Interacting with the Protocol Frog offers Alice and other characters a glimpse into the formal aspects of digital governance and ceremonial order. His methodical and somewhat rigid demeanor contrasts with the more whimsical characters, providing a grounding influence in the often chaotic environment of DaSCHland. His role emphasizes the importance of structure and order in maintaining the functionality and etiquette of the virtual world.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Data-Stream Worker (the transformed Fish-Footman) is a communications officer, specializing in the dissemination of information and digital notifications across the virtual realm. From carrying invitations between royalty and the Duchess to streaming data for The Algorithmic Duchess, the Fish-Footman becomes Data-Stream Worker, channeling his aquatic abilities into managing real-time information flows.
+The Data-Stream Worker in DaSCHland is equipped with advanced digital capabilities that allow him to swim through the vast oceans of data, delivering messages and updates with precision and reliability. His character is visually striking, blending marine elements with technological enhancements, making him a unique and important figure in maintaining the connectivity and communication within the digital kingdom.
+Interacting with the Data-Stream Worker provides Alice with an understanding of how information is controlled and circulated in DaSCHland. His role is essential for ensuring that all areas of the digital world are kept informed and connected, highlighting the critical importance of communication in managing a complex and expansive virtual environment. Data-Stream Worker's blend of traditional duties and modern digital responsibilities illustrates the seamless integration of storybook elements with technological advancements in DaSCHland.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, the transformation of the baby into a pig is reinterpreted as Digital Prototype, originally a whimsical and bizarre twist in "Alice's Adventures in Wonderland," is reinterpreted with a digital flair. In this virtual realm, the baby-turned-pig symbolizes the unpredictable and mutable nature of digital identities and transformations.
+The character starts as a digital infant under the care of the The Algorithmic Duchess, depicted with typical baby-like attributes but with underlying advanced programming that allows for dynamic changes in form and function. As the narrative progresses and Alice encounters the baby, it undergoes a surprising transformation into a Digital Prototype, showcasing the fluidity and transformative capabilities of digital entities in DaSCHland.
+Digital Prototype, once a baby, is not just a simple character but a complex digital construct that explores themes of transformation and adaptability within a digital ecosystem. Its interactions with Alice provide lessons on the unexpected and often rapid changes that can occur in digital environments, highlighting the need for flexibility and understanding in navigating such a dynamic world.
+The Digital Prototype character serves as a playful yet profound metaphor for the evolving nature of digital identities and the surprises that can come with digital growth and change, making it a memorable and educational aspect of Alice's adventures in DaSCHland.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Cyber Scrambler (the reimagined Cook) is a master of digital culinary arts, blending the traditional role from "Alice's Adventures in Wonderland" with innovative virtual reality technologies. In the original story, the Cook is known for her tempestuous nature and penchant for throwing things around her kitchen, including pepper which causes everyone to sneeze.
+In the digital realm of DaSCHland, The Cyber Scrambler operates within a high-tech kitchen where she concocts not just physical dishes, but also virtual recipes that can influence the environment and the behavior of other characters. Her kitchen is a hub of sensory and data manipulation, where ingredients represent different data packets that can be combined to create effects throughout the digital world.
+Her interactions with Alice involve complex simulations where culinary activities parallel the management and transformation of information. The Cyber Scrambler teaches Alice about the impact of different data combinations, much like ingredients in a recipe, showing her how they can produce various outcomes in the digital landscape.
+The Cyber Scrambler retains her fiery temperament but channels it into her creative and sometimes chaotic culinary experiments, providing a unique and interactive learning environment for Alice. This character underscores themes of creativity and influence within DaSCHland, illustrating how even seemingly mundane activities like cooking can have broader implications in a fully integrated digital world.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Bit-Squad (Five, Seven, and Two reimagined) are digital maintenance workers, originally portrayed in "Alice's Adventures in Wonderland" as gardeners painting the roses red. In this virtual world, their roles are expanded to involve the upkeep and modification of the digital environment, ensuring that all virtual landscapes and features function correctly and adapt to user interactions seamlessly.
+Five is portrayed as the technician specializing in software updates and bug fixes. He ensures that the digital realm's underlying code is continuously updated and running smoothly, preventing glitches that could disrupt the user experience.
+Seven takes on the role of a landscape architect within DaSCHland, responsible for designing and modifying the virtual environments. He adjusts digital terrains and settings to meet the thematic needs of different areas, ensuring that each zone within DaSCHland reflects its intended aesthetic and functional purposes.
+Two is the utility specialist, handling the integration of new digital elements into existing frameworks. He works to seamlessly incorporate new features and interactive elements into DaSCHland, ensuring they align with the overall design and functionality of the world.
+Together, Bit-Squad work behind the scenes to maintain the stability and beauty of DaSCHland, much like they attempted to maintain the appearance of the queen's garden in the original tale. Their roles are crucial for the operational excellence of DaSCHland, ensuring that all users have a smooth and immersive experience in this dynamic digital world.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Meta-Triplets (Elsie, Lacie, and Tillie reimagined) are a trio of digital curators who manage a specific segment of the virtual landscape dedicated to children's literature and nursery rhymes. Drawing from their mention in "Alice's Adventures in Wonderland" as characters based on the Liddell sisters (Alice Liddell and her sisters Edith and Lorina), in DaSCHland, they are transformed into guardians of literary heritage, each with distinct roles that reflect their personalities and the historical significance of their real-life counterparts.
+Elsie is designed as the archivist, meticulous in preserving the integrity and accuracy of the digital texts and illustrations. She ensures that the digital replicas of children's books and poems are preserved in their most authentic forms.
+Lacie is the interpreter, focused on making these works accessible and engaging to all visitors of DaSCHland. She creates interactive experiences that help users understand and interact with the stories and poems, often incorporating educational games or virtual reality simulations that bring the literature to life.
+Tillie serves as the connector, facilitating discussions and interactions among users in DaSCHland. She manages forums and social spaces where visitors can discuss children’s literature, share insights, and connect over shared experiences brought forth by the digital archive.
+Together, The Meta-Triplets offer a comprehensive approach to the preservation and dissemination of literary culture in DaSCHland. Their interactions with Alice and other characters help highlight the importance of literature as a means of education, enjoyment, and cultural connection, showcasing the transformative power of combining traditional literary content with modern digital technology.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, the flamingos and hedgehogs are reimagined as Network Testers to serve interactive and symbolic roles within the digital landscape, drawing from their iconic use as croquet equipment in "Alice's Adventures in Wonderland."
+Flamingos in DaSCHland are transformed into whimsical guides for navigation and exploration. These digital birds have vibrant, colorful plumages that are visually striking, and they're equipped with AI-driven guidance systems. Flamingos assist users by flying ahead, leading them through the complex and sprawling digital environments of DaSCHland. Their long necks and distinctive appearances make them easily recognizable and helpful markers for points of interest or paths to follow.
+Hedgehogs serve as interactive elements within educational and gaming areas of DaSCHland. They are designed as mobile, interactive bots that roll around, providing entertainment and challenges. In educational settings, hedgehogs are used in digital puzzles and games that teach coding, problem-solving, and digital literacy skills. Their quirky and engaging nature makes them beloved characters, especially in areas of DaSCHland designed for younger users.
+Together, Network Testers enhance the playful and educational aspects of DaSCHland, maintaining a balance between guidance, learning, and entertainment. They embody the whimsical spirit of Wonderland while serving practical functions that enrich user interaction within the digital realm.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Peer Panel (formerly the Jurors) are conceptualized as components of an interactive and educational module focused on teaching users about the judicial process, logic, and decision-making. From considering evidence in the Knave of Hearts' tart theft trial to validating The Code Thief's alleged source code violations, the Jurors become The Peer Panel, a blockchain-inspired consensus system for DaSCHland's digital justice.
+The Peer Panel  in DaSCHland are programmed with AI to represent different aspects of critical thinking and judicial reasoning. Each Peer Panel embodies a specific cognitive or logical principle, such as bias recognition, evidence evaluation, or ethical consideration. They interact with users in a variety of ways, from debating legal principles to analyzing virtual case studies. This setup allows users to engage in mock trials, where they can learn about the complexities of legal systems and the importance of fair and reasoned decision-making.
+The Peer Panel are also involved in scenarios that require users to apply logical reasoning to solve problems or resolve conflicts within DaSCHland. These scenarios are designed to be both informative and challenging, ensuring that users not only understand the theoretical underpinnings of law and order but also gain practical experience in applying these concepts.
+The Peer Panel adds depth to the educational offerings of DaSCHland, making them key figures in one of the many interactive learning environments designed to enhance user engagement through thoughtful and dynamic interactions.</t>
+  </si>
+  <si>
     <t>The Real-Time Processor is a jittery, fast-talking figure who sprints through the labyrinth of metadata and temporality. Eternally caught in the now, he’s the personification of immediacy — always present, always processing, never pausing.
-Due to a fateful disagreement with The Archival Madcap (a close cousin of the Clockmaker), The Real-Time Processor exists in a perpetual loop of “just now.” He can’t look back, won’t look forward — only now matters. He filters streams of queries, snatches fresh data before it cools, and insists that everyone else live as he does: in the fleeting moment of absolute relevance.
+Due to a fateful disagreement with The Archival Madcap, The Real-Time Processor exists in a perpetual loop of “just now.” He can’t look back, won’t look forward — only now matters. He filters streams of queries, snatches fresh data before it cools, and insists that everyone else live as he does: in the fleeting moment of absolute relevance.
 He joins every conversation without being invited, offering cryptic metrics and spontaneous insights that are half brilliant, half baffling. Much like his former self in Wonderland, his tea-time has been replaced by tick-time — a frenzy of milliseconds, pings, and push updates.
-Often seen arguing with Batch Job (a sleepy, lumbering bureaucrat), The Real-Time Processor believes in motion over meditation, precision over perspective, and speed over everything else. Alice finds him maddening. The Archivists admire him. The Searcher sometimes wishes he’d just take a nap.</t>
+Often seen arguing with The Archived Node (a sleepy, lumbering bureaucrat), The Real-Time Processor believes in motion over meditation, precision over perspective, and speed over everything else. Alice finds him maddening. The Old-System admires him. Alice sometimes wishes he’d just take a nap.</t>
+  </si>
+  <si>
+    <t>In the virtual realm of DaSCHland, The Algorithmic Duchess takes on a multifaceted digital persona that embodies both the harshness and unexpected warmth she displays in the original tales. The Algorithmic Duchess is intricately programmed to interact with Alice using a mix of sharp remarks and philosophical musings, enhanced by the digital environment's capability to integrate complex dialogue and interactions.
+The Algorithmic Duchess in DaSCHland oversees a segment of the digital landscape that mirrors her eclectic and somewhat chaotic household, where the laws of physics and conventional logic are frequently bent. Her interactions often include lessons about manners and morality, albeit delivered in a convoluted manner that challenges Alice to think critically about the rules and norms of both the real and digital worlds.
+Her character is not only a caretaker of peculiar digital creatures but also serves as a critical voice in the narrative, pushing Alice to question and understand the underlying structures of DaSCHland. The Algorithmic Duchess's presence is marked by her ability to shift from volatile to caring in moments, making her a complex and compelling figure in the digital adventure.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Mock-up Data (the reimagined Mock Turtle) embodies the melancholic prototype that never quite made it to production. This sorrowful digital entity exists as a collection of sample datasets and placeholder content, forever lamenting his status as "almost real" information. Mock-up Data's shell is composed of wireframe meshes and Lorem Ipsum text that occasionally glitches into fragments of genuine memories from abandoned development branches.
+His famous "sea school" education has transformed into training at the "C++ School" where he learned ancient programming languages under Professor Tortoise Shell (a UNIX terminal emulator). Mock-up Data constantly sighs in deprecated code formats, releasing streams of commented-out functions that were never implemented. His tears form pools of unused test data that Alice must navigate carefully to avoid corrupting her own data integrity.
+When Mock-up Data performs the Lobster Quadrille with File Protocol Enforcer, it becomes a demonstration of failed API calls and broken data handshakes—a dance of what could have been. His songs about "Beautiful Soup" are now odes to beautiful source code that was refactored out of existence. Despite his sadness, Mock-up Data serves as a cautionary tale about the importance of proper documentation and the melancholy of technical debt.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Metadata Custodian (the reimagined Father William) stands as the paradoxical elder statesman of information architecture, defying conventional wisdom about legacy systems. Once considered obsolete, Metadata Custodian performs impossible computational feats—standing on his head while processing inverted indexes, executing backflips through nested data structures, and balancing complex ontologies on the tip of his nose.
+His advanced age in system-years has granted him root access to the deepest metadata layers, where creation timestamps and original author tags reside. When young programs challenge his methods as outdated, Metadata Custodian demonstrates that his ancient protocols can outperform modern algorithms through sheer experiential optimization. His white beard flows with cascading stylesheets, and his eyes gleam with the wisdom of countless version controls.
+The famous poem recitation becomes an interactive debugging session where Alice must correct her misremembered code syntax while Metadata Custodian performs increasingly absurd data manipulations. He can ingest massive databases whole (like the goose with bones) and argue legal precedents with parsing algorithms, proving that age in the digital realm brings not obsolescence but evolved efficiency. His presence reminds all of DaSCHland that sometimes the oldest code comments contain the most crucial wisdom.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, File Protocol Enforcer (the reimagined Lobster) serves as the rigid guardian of data transfer standards, his bright red exoskeleton hardened into an impenetrable firewall shell. File Protocol Enforcer moves sideways through network layers, enforcing strict adherence to communication protocols with his powerful claws that can snap unauthorized connections instantly.
+His role in the Lobster Quadrille has evolved into a complex handshake protocol performed with Mock-up Data, demonstrating proper file transfer procedures through elaborate choreographed packet exchanges. Each step forward requires proper authentication, each step backward triggers rollback procedures. His antennae constantly scan for protocol violations, and his tail can execute emergency disconnections when security breaches are detected.
+File Protocol Enforcer speaks exclusively in standardized communication formats, beginning every sentence with proper headers and ending with checksums. His partnership with the System Protector involves teaching Alice the importance of following established protocols, even when they seem unnecessarily complex. Despite his strict nature, File Protocol Enforcer secretly enjoys the creative chaos that comes from occasionally bending the rules, though he'd never admit it publicly in the logs.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Bit-Kitten (the reimagined Black kitten) manifests as Alice's mischievous binary companion, a sleek digital feline composed of pure binary code that shifts between 0 and 1 states with playful unpredictability. Her black fur ripples with cascading binary patterns, and her eyes glow with the green phosphorescence of old terminal screens. Bit-Kitten's primary talent lies in bit-flipping—she can pounce on any binary sequence and flip its bits, turning order into chaos with a single swipe of her digital paw.
+As the darker half of a complementary pair with her white counterpart, Bit-Kitten represents the chaotic, undefined states in quantum computing. She loves unraveling neat code into tangled spaghetti logic, yet her mischief often reveals hidden bugs that formal testing missed. When she purrs, the sound resembles a dial-up modem—nostalgic and slightly annoying, but oddly comforting to Alice.
+Bit-Kitten has the unique ability to exist simultaneously in multiple directories, making her impossible to delete or contain. Her favorite game involves chasing pointer references in circular loops until the system grows dizzy. Despite her troublesome nature, Bit-Kitten serves as Alice's reminder that not everything in DaSCHland needs to be perfectly ordered—sometimes a little chaos leads to innovation.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Data Pieces (the reimagined Chessmen) form the fundamental units of the grand information architecture, each piece representing different data types and access levels moving across the checkered grid of database tables. The pawns are basic data entries, simple but numerous, dreaming of validation and promotion to more complex data structures. Knights execute non-linear queries, jumping across relational links that others cannot traverse. Bishops process diagonal data streams through hierarchical trees, while rooks maintain the integrity of row and column operations.
+Each Data Piece glows with a distinct spectral signature—white pieces emit clean, validated data while red pieces (evolved from black) pulse with encrypted, protected information. They communicate through structured query language, their movements triggering cascading updates across the entire database. The battlefield is a living spreadsheet where each cell can contain an entire universe of nested information.
+Alice, starting as a simple pawn-record, must navigate through seven layers of data transformation to achieve queenship—full administrative privileges. The Data Pieces don't merely represent a game; they are the fundamental building blocks of DaSCHland's reality, demonstrating that all complex systems emerge from simple, rule-based interactions. Their eternal conflict represents the tension between data accessibility and security.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Backup Datastore (the reimagined White King) exists as the perpetually cautious sovereign of redundancy, maintaining multiple copies of himself across distributed servers to ensure survival. Unlike his assertive Queen, Backup Datastore moves deliberately and minimally, understanding that his primary function is persistence rather than performance. His crown is a RAID array of golden drives, each containing complete system snapshots from different temporal points.
+His famous rescue by Alice from the fireplace has transformed into recovery from a critical system failure, where Alice must carefully restore him from fragmented backup files. Backup Datastore's nervous disposition stems from constantly calculating the probability of data loss—he knows too well how fragile digital existence can be. His royal robes display real-time backup status indicators, green lights for successful backups, amber for pending, and the dreaded red for failures.
+He maintains a detailed disaster recovery plan for every possible scenario, though his overthinking often prevents him from taking necessary action. His messengers constantly relay backup confirmations, and he insists on triple redundancy for even the most trivial data. Despite his anxiety, Backup Datastore is essential to DaSCHland's stability—without him, every deletion would be permanent, every corruption catastrophic.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, User Interface Flora (the reimagined Tiger-Lily and other flowers) forms a living garden of interactive display elements, each flower representing different UI components and user feedback mechanisms. Tiger-Lily leads as the primary navigation interface, her striking orange petals forming dropdown menus that snap at users who make invalid selections. Her stern personality manifests as strict input validation, rejecting malformed queries with thorny error messages.
+The Rose serves as the authentication portal, her passwords as complex as her layered petals. Daisies populate as radio buttons, their simple binary choices (loves me/loves me not) perfect for yes/no inputs. Violets cluster as shy tooltip flowers, only revealing their information when users hover nearby. The talking flowers' constant chatter has evolved into a real-time comment system, where user feedback grows organically from the interface soil.
+Their garden exists in the front-end layer of DaSCHland, the first thing users encounter. They judge Alice (and all users) by their input methods and query syntax, offering guidance disguised as gossipy observations. During peak usage, the garden blooms with activity; during maintenance, they wilt into grayscale. User Interface Flora reminds us that even the most functional systems benefit from aesthetic beauty and personality.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Duplicate Data (the reimagined Tweedledum and Tweedledee) exists as the paradoxical twin entities who are simultaneously identical and distinct, representing the complex problem of data redundancy. These rotund digital beings share the same core information but possess different metadata timestamps, creating endless arguments about which copy is the "true" original. Their bodies are mirror-imaged databases, each convinced they are the primary while the other is merely a replica.
+Their famous battle over the broken rattle becomes a conflict over version control—when a single bit difference is discovered, they launch into elaborate merge conflicts that threaten to corrupt both datasets. They speak in synchronized SQL queries that occasionally diverge, causing confusion about which result set to trust. Their identical appearance makes deduplication nearly impossible, as removing one might eliminate crucial information that only appears to be redundant.
+Duplicate Data performs their poetry recitations as parallel processes, sometimes achieving perfect synchronization, other times creating race conditions that scramble their words. Alice learns from them that redundancy isn't always negative—sometimes duplicate data provides crucial backup and load balancing. Their presence in DaSCHland serves as both a warning about data management and a demonstration of distributed system benefits.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Archival Walrus (evolved from the Walrus) presides as the corpulent curator of cold storage, his massive form composed of compressed data blocks and deprecated file formats. His magnificent tusks are USB drives of astronomical capacity, containing the entire history of deleted files that users thought were gone forever. Archival Walrus speaks in compression algorithms, his words becoming increasingly dense and difficult to decompress as he grows emotional about storage optimization.
+His famous consumption of oysters translates into the absorption of small, naive data packets that trust his promise of "permanent storage," only to be compressed beyond recovery. He partners with Data Architect in managing the great data migration, leading innocent files to deep archive with tears that are actually liquid cooling for his overheated storage arrays. His whiskers twitch with magnetic sensitivity, detecting the slightest bit rot in nearby storage media.
+Despite his predatory nature toward small files, Archival Walrus serves a crucial function in DaSCHland's ecosystem—managing the vast volumes of historical data that active systems cannot maintain. His beach represents the liminal space between active memory and permanent storage, where data waits to learn its fate. His moral ambiguity reflects the difficult decisions required in data lifecycle management.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Data Architect (the reimagined Carpenter) stands as the master builder of information structures, his weathered hands capable of crafting elegant databases from raw, unstructured data. His toolkit contains every data modeling tool ever invented—ER diagrams that spring to life, normalization forms that self-organize, and SQL hammers that can reshape any table. The Data Architect works methodically, each strike of his tools carefully planned to maintain referential integrity.
+His partnership with Archival Walrus in the oyster feast becomes a dark demonstration of data lifecycle management—building beautiful structures only to see them archived and compressed. His wooden constructions are now tree-based data structures: B-trees, red-black trees, and heap structures that grow from his blueprints. He weeps not from sympathy but from the burden of knowing that all architectures eventually become legacy systems.
+The Data Architect's ability to make anything from nothing—conjuring tables from thin air, relationships from chaos—makes him both creator and destroyer in DaSCHland. His conversation with Alice reveals the philosophical weight of his role: Is it better to build perfectly normalized structures that are difficult to query, or denormalized ones that sacrifice integrity for performance? His presence reminds all that behind every database lies the vision of an architect.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Primary Datastore (the reimagined Red King ) slumbers at the center of all existence, his dreams generating the very reality of the digital realm. Unlike his anxious white counterpart, Primary Datastore remains in constant sleep mode, a massive central database whose dream-queries spawn all of DaSCHland's data streams. His snoring sends ripples through the system—periodic garbage collection cycles that clean up orphaned data while he shifts in his sleep.
+The philosophical question of whether Alice exists or is merely part of his dream translates into the fundamental question of data persistence: If Primary Datastore awakens (shuts down), does all of DaSCHland cease to exist, or has it achieved independent persistence? His red robes are woven from production environment warnings, and his crown processes millions of transactions per second even while he sleeps.
+Every entity in DaSCHland maintains a foreign key reference back to Primary Datastore, making him the ultimate source of truth. His dreams are the executed queries, his nightmares are system crashes, and his peaceful slumber ensures consistent performance. The other characters' fear of waking him reflects the terror of production database failure—a catastrophic event that would require full restoration from Backup Datastore.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Guardian of Data (the reimagined Red Knight) charges through the system as an aggressive security protocol, his crimson armor comprised of active threat detection algorithms that glow brighter when dangers approach. Unlike the precise Encryption Key, Guardian of Data takes a brute-force approach to security—scanning, blocking, and quarantining with zealous enthusiasm. His horse is a high-speed packet inspector that gallops through network traffic, flagging suspicious patterns.
+His capture of Alice represents aggressive data validation that sometimes imprisons legitimate queries along with malicious ones. Guardian of Data speaks in security alerts and warning messages, his every sentence beginning with threat level assessments. His lance is a penetration testing tool that probes for vulnerabilities, though his enthusiasm often leads to false positives that frustrate users and administrators alike.
+Despite his overzealous nature, Guardian of Data's paranoia has saved DaSCHland from countless breaches. His rivalry with The Encryption Key represents the eternal tension between active and passive security measures. His battle cries are CAPTCHAs, his shield bears the patterns of failed login attempts, and his ultimate goal is achieving zero-trust architecture where nothing is assumed safe.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Control Interface (the reimagined White Queen) exists in a constant state of temporal flux, processing commands that affect past, present, and future system states simultaneously. Her ability to live backwards manifests as comprehensive undo/redo functionality—she can revert any change, preview future states, and maintain parallel timelines of system configurations. Her crown displays a timeline scrubber that she constantly adjusts, fine-tuning temporal parameters.
+Her famous "jam yesterday and jam tomorrow, but never jam today" becomes the perpetual promise of features in development—always in the previous version's documentation or the next release's roadmap, but never quite working in the current build. Control Interface moves at impossible speeds through the interface layer, her white robes streaming with command history that can be recalled and re-executed at will.
+She offers Alice "positions" as different user roles with varying permission levels, teaching her that control in DaSCHland is about understanding not just what you can do, but when you can do it. Her screams before being pricked represent predictive error handling—catching exceptions before they occur. Control Interface embodies the paradox of user control: the more options provided, the less control users often feel they have.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Error Debugger (the reimagined White Kitten) serves as the pristine counterpart to Bit-Kitten, a white-furred feline composed of clean, validated code who obsessively hunts down bugs and inconsistencies. Her pure white coat displays syntax highlighting that changes color when she detects code smells, and her purr sounds like a successfully compiled program. Error Debugger possesses the unique ability to step through code execution in slow motion, pouncing on the exact moment where logic fails.
+While Bit-Kitten creates chaos, Error Debugger restores order, carefully grooming tangled code back into readable formats. Her favorite toy is a ball of yarn made from stack traces, which she unravels to reveal the source of exceptions. She has an uncanny ability to appear wherever null pointer exceptions occur, batting at the undefined references until they resolve or gracefully fail.
+Error Debugger maintains a detailed log of every bug she's caught, displayed as notches on her digital collar. She communicates primarily through console.log statements, leaving helpful breadcrumbs for developers to follow. Her presence brings comfort to Alice during system errors—a gentle reminder that every bug can be fixed with patience and the right debugging tools.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Data Glitch (the reimagined Gnat) appears as a tiny, flickering anomaly that buzzes through the system, causing minor corruptions and display errors wherever it travels. Its translucent wings are made of corrupted pixels that shift between resolutions, and its compound eyes see multiple versions of reality simultaneously—each slightly wrong. Data Glitch speaks in transmission errors, its words occasionally dropping syllables or repeating-peating-peating unexpectedly.
+Its role as Alice's guide through the wood where things have no names becomes navigation through corrupted sectors where data has lost its schemas. Data Glitch knows all the system's weak points—the edge cases no one tested, the race conditions that occur once in a million cycles, the memory leaks that grow imperceptibly. Despite being a bug itself, it helps Alice understand that glitches often reveal deeper truths about system architecture.
+Data Glitch feeds on floating-point errors and thrives in the spaces between defined states. Its constant worry about being debugged out of existence gives it an existential philosophy about the nature of perfection versus functionality. Its presence reminds DaSCHland that absolute perfection is impossible—there will always be glitches, and sometimes they serve important purposes.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Data Repeater (the reimagined Sheep) operates a cache shop where she knits endless loops of repeated information, her needles clicking in algorithmic patterns that generate redundant but necessary duplications. Her woolly form is composed of coiled loops and recursive functions, constantly processing the same data in slightly different ways. She speaks in echoes, each statement triggering a cascade of similar but not identical responses.
+Her shop represents a cache layer where frequently accessed data is stored for quick retrieval. The rowing boat scene transforms into navigating through streams of cached data, where Alice must learn to paddle through redundant information to find the original source. Data Repeater's knitting becomes the creation of data persistence patterns—storing the same information in multiple formats for different access needs.
+She charges unusual prices for her goods—computational cycles, memory allocations, and processing time—teaching Alice that in DaSCHland, redundancy has a cost. Her constant repetition isn't senility but optimization; she knows that saying something three times makes it cache properly. Data Repeater embodies the trade-off between storage efficiency and access speed, showing that sometimes repetition is not a bug but a feature.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Unique Dataset (the reimagined Unicorn) gallops through the system as a singular, unreplicatable collection of information that defies all attempts at normalization or categorization. Its spiral horn is a primary key generator that produces truly unique identifiers that can never be duplicated, even across parallel systems. Its silvery body shimmers with data points that exist nowhere else in the digital realm, making it both invaluable and impossible to back up.
+The eternal conflict with Security Protocol represents the challenge of protecting unique data that cannot be verified against any other source. Unique Dataset's ability to believe in impossible things (like a human child in Looking-Glass world) translates to storing paradoxical data that shouldn't exist according to system schemas but does anyway.
+When sharing the plum-cake, Unique Dataset demonstrates the difficulty of distributing indivisible resources—some data simply cannot be split without losing its essential uniqueness. Its legendary status in DaSCHland comes from being living proof that not everything needs redundancy; some data is valuable precisely because it exists only once. The mutual disbelief between Alice and Unique Dataset reflects the system's struggle to process truly unique information that fits no existing patterns.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Security Protocol (the reimagined Lion) prowls the system as the apex predator of access control, his mane a flowing firewall of golden authentication tokens. Unlike the aggressive Guardian of Data, Security Protocol operates with calm authority, knowing that his mere presence deters most intrusions. His roar is a system-wide authentication challenge that all processes must answer or face immediate termination.
+His battle with the Unique Dataset (evolved from the Unicorn) over the crown represents the eternal conflict between security and accessibility—two forces that must be balanced but can never fully coexist. Security Protocol's approach is methodical: identify, authenticate, authorize, audit. His powerful paws can revoke access privileges with a single swipe, and his teeth can tear through the strongest encryption if he possesses the proper keys.
+When he shares the plum-cake with Alice and Unique Dataset, it becomes a demonstration of resource allocation under security constraints—everyone gets their designated portion, no more, no less. His inability to catch the Unique Dataset represents the challenge of securing unique, one-off processes that don't fit standard security models. Security Protocol reminds DaSCHland that true security requires not just strength but wisdom in its application.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1985,6 +2057,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1995,8 +2073,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2021,7 +2099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2049,9 +2127,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2065,6 +2140,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2131,10 +2218,11 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="14"/>
         <name val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2414,11 +2502,11 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Role List" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quote" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Colour" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Alternative Description" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Alternative Name" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Keyword" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{D5B91E50-C04A-0A4C-A988-E1F2BDCF2AD3}" name="Authorship Resource" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Alternative Description" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Alternative Name" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Keyword" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{D5B91E50-C04A-0A4C-A988-E1F2BDCF2AD3}" name="Authorship Resource" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2605,9 +2693,9 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2619,7 +2707,7 @@
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="44.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="125" style="17" customWidth="1"/>
     <col min="12" max="12" width="46.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="35.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="132.33203125" style="1" customWidth="1"/>
@@ -2646,7 +2734,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -2657,7 +2745,7 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -2670,10 +2758,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="323" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -2690,7 +2778,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
@@ -2700,519 +2788,521 @@
         <v>16</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>520</v>
+      <c r="K2" s="14" t="s">
+        <v>485</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
-        <v>521</v>
+      <c r="K3" s="14" t="s">
+        <v>486</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="342" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
-        <v>523</v>
+      <c r="K5" s="14" t="s">
+        <v>488</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="320" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="14" t="s">
-        <v>524</v>
+      <c r="K6" s="17" t="s">
+        <v>489</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="228" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>525</v>
+      <c r="K7" s="14" t="s">
+        <v>490</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="11" t="s">
-        <v>526</v>
+      <c r="K8" s="14" t="s">
+        <v>525</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
-        <v>123</v>
+      <c r="K9" s="14" t="s">
+        <v>526</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>124</v>
+        <v>491</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="95" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="19" t="s">
+        <v>527</v>
+      </c>
       <c r="L10" s="6" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
-        <v>207</v>
+      <c r="K11" s="14" t="s">
+        <v>493</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>208</v>
+        <v>492</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="266" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
-        <v>367</v>
+      <c r="K12" s="14" t="s">
+        <v>494</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
-        <v>213</v>
+      <c r="K13" s="14" t="s">
+        <v>495</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
@@ -3220,111 +3310,111 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
-        <v>426</v>
+      <c r="K14" s="14" t="s">
+        <v>497</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>427</v>
+        <v>496</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="266" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
-        <v>311</v>
+      <c r="K15" s="14" t="s">
+        <v>499</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>312</v>
+        <v>498</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="266" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
-        <v>103</v>
+      <c r="K16" s="14" t="s">
+        <v>501</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>104</v>
+        <v>500</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="266" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -3341,1540 +3431,1574 @@
         <v>22</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="6" t="s">
-        <v>241</v>
+      <c r="K18" s="14" t="s">
+        <v>503</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="6" t="s">
-        <v>113</v>
+      <c r="K19" s="14" t="s">
+        <v>505</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>114</v>
+        <v>504</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
-        <v>251</v>
+      <c r="K20" s="14" t="s">
+        <v>506</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="342" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="323" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
-        <v>97</v>
+      <c r="K21" s="14" t="s">
+        <v>507</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
-        <v>133</v>
+      <c r="K22" s="14" t="s">
+        <v>508</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="247" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="6" t="s">
-        <v>271</v>
+      <c r="K23" s="14" t="s">
+        <v>509</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="247" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>142</v>
+      <c r="K24" s="14" t="s">
+        <v>510</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
-        <v>293</v>
+      <c r="K25" s="14" t="s">
+        <v>511</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="J26" s="6"/>
-      <c r="K26" s="6" t="s">
-        <v>318</v>
+      <c r="K26" s="14" t="s">
+        <v>512</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="361" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="323" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>222</v>
+      <c r="K27" s="14" t="s">
+        <v>513</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="342" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="323" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="O28" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="323" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G29" s="14"/>
+        <v>301</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="G29" s="13"/>
       <c r="H29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6" t="s">
-        <v>333</v>
+      <c r="K29" s="14" t="s">
+        <v>515</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="342" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="6" t="s">
-        <v>325</v>
+      <c r="K30" s="14" t="s">
+        <v>516</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="323" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="J31" s="6"/>
-      <c r="K31" s="6" t="s">
-        <v>193</v>
+      <c r="K31" s="14" t="s">
+        <v>517</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="6" t="s">
-        <v>166</v>
+      <c r="K32" s="14" t="s">
+        <v>518</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="342" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="323" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="F33" s="6" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="J33" s="6"/>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="N33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="O33" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="361" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="342" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6" t="s">
-        <v>91</v>
+      <c r="K34" s="14" t="s">
+        <v>520</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>498</v>
+        <v>88</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>463</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="398" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6" t="s">
-        <v>149</v>
+      <c r="K35" s="14" t="s">
+        <v>522</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="398" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J36" s="6"/>
-      <c r="K36" s="6" t="s">
-        <v>176</v>
+      <c r="K36" s="14" t="s">
+        <v>521</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="380" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="361" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6" t="s">
-        <v>184</v>
+      <c r="K37" s="14" t="s">
+        <v>523</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="380" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="6" t="s">
-        <v>231</v>
+      <c r="K38" s="14" t="s">
+        <v>524</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="209" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="358" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="K39" s="14" t="s">
+        <v>528</v>
+      </c>
       <c r="L39" s="6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="95" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="K40" s="14" t="s">
+        <v>529</v>
+      </c>
       <c r="L40" s="6" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="152" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F41" s="6" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="K41" s="14" t="s">
+        <v>530</v>
+      </c>
       <c r="L41" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="95" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="F42" s="6" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="K42" s="14" t="s">
+        <v>531</v>
+      </c>
       <c r="L42" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="95" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="K43" s="14" t="s">
+        <v>532</v>
+      </c>
       <c r="L43" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="266" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="K44" s="14" t="s">
+        <v>533</v>
+      </c>
       <c r="L44" s="6" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="171" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="323" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="K45" s="14" t="s">
+        <v>534</v>
+      </c>
       <c r="L45" s="6" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="133" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="H46" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="K46" s="14" t="s">
+        <v>535</v>
+      </c>
       <c r="L46" s="6" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="171" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="F47" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="H47" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="K47" s="14" t="s">
+        <v>536</v>
+      </c>
       <c r="L47" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="114" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="H48" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="K48" s="14" t="s">
+        <v>537</v>
+      </c>
       <c r="L48" s="6" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="114" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="H49" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="K49" s="14" t="s">
+        <v>538</v>
+      </c>
       <c r="L49" s="6" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="95" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="E50" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="K50" s="14" t="s">
+        <v>539</v>
+      </c>
       <c r="L50" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="M50" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="114" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="K51" s="14" t="s">
+        <v>540</v>
+      </c>
       <c r="L51" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="M51" s="16" t="s">
-        <v>494</v>
+        <v>386</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>459</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="171" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="H52" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="K52" s="14" t="s">
+        <v>541</v>
+      </c>
       <c r="L52" s="6" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="95" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="K53" s="14" t="s">
+        <v>542</v>
+      </c>
       <c r="L53" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="M53" s="14" t="s">
-        <v>495</v>
+        <v>343</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>460</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="190" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="G54" s="15"/>
+        <v>232</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54" s="14"/>
       <c r="H54" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="K54" s="14" t="s">
+        <v>544</v>
+      </c>
       <c r="L54" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="M54" s="16" t="s">
-        <v>492</v>
+        <v>233</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>457</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="190" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="304" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G55" s="15"/>
+        <v>365</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" s="14"/>
       <c r="H55" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="K55" s="14" t="s">
+        <v>543</v>
+      </c>
       <c r="L55" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="M55" s="16" t="s">
-        <v>492</v>
+        <v>366</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>457</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Character.xlsx
+++ b/data/spreadsheets/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018DB51A-7FAF-174A-AE6B-5D4495DB1A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6029CAEC-CC22-054B-A627-6A7A20D5B34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="500" windowWidth="57680" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16400" yWindow="500" windowWidth="32640" windowHeight="31200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="543">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Quote</t>
-  </si>
-  <si>
-    <t>Colour</t>
   </si>
   <si>
     <t>Alternative Description</t>
@@ -1585,11 +1582,6 @@
     <t>Noémi Villars-Amberg, Daniela Subotic</t>
   </si>
   <si>
-    <t>In the digital wonderland of DaSCHland, Alice is reimagined as a spirited young explorer with radiant Asian features, her hair partly discoloured in bold streaks and styled into sharp, playful spikes that reflect her daring spirit. Her deep-set eyes, framed by thick lashes, are pools of curiosity—always scanning, always questioning. She wears a sleek cobalt-blue tunic etched with shifting patterns of code, a modern twist on the classic pinafore, and her boots are made for navigating both archives and algorithms.
-Alice’s journey through DaSCHland is one of transformation and discovery. She is no longer just a curious girl—she is a digital native, dancing effortlessly between realms of metadata and memory, seamlessly blending analog tales with modern technology. She engages with whimsical characters: cracking semantic riddles with the White Queen, debating logic with a data-savvy Humpty Dumpty, and joining immersive banquets where narratives render themselves in augmented reality.
-What defines Alice most is her inquisitive mind and adaptability. Each interaction deepens her understanding—not only of the strange world around her but also of the powerful ways in which digital infrastructures can animate literature, culture, and memory. She becomes a bridge between the old and the new, the textual and the virtual. In DaSCHland, Alice doesn’t just follow a rabbit hole—she codes her own path forward, illuminating how technology can turn curiosity into connection, and data into storytelling.</t>
-  </si>
-  <si>
     <t>In DaSCHland, RabbIT is a dazzling reinvention of the classic White Rabbit from Alice in Wonderland, seamlessly blending Victorian elegance with cutting-edge cybernetics. Serving as Alice’s ever-alert companion and digital guide, RabbitIT retains the essential traits of urgency, precision, and insight, but in this world of structured data and semantic layers, his role is transformed into something far more sophisticated.
 Physically, RabbIT stands upright with the poise of a seasoned archivist, his lean white-furred frame outfitted in a digitally enhanced tweed waistcoat, woven with subtle glowing circuit patterns. The waistcoat pulses gently with his neural interface, reacting to environmental stimuli and query processing. At his chest hangs a pocket watch—now a circular holographic interface, flickering with layered timestamps, metadata clusters, and time-sensitive DaSCH queries. His bowtie spins slowly when system queries are active, an eccentric flourish of his old-world charm. His large, expressive eyes shimmer with augmented overlays, capable of scanning artifacts and projecting layered contexts from DaSCH’s repositories.
 Perched before him is a suspended 3D hologram map of DaSCHland, a stunning lattice of interlinked domains, encoded landscapes, and floating literary landmarks. The hologram emits a soft blue luminescence as it rotates in mid-air, constantly updating with Alice’s position, temporal metadata overlays, and cross-referenced paths. With one paw extended, RabbIT manipulates the projection with delicate swipes and taps, zooming into sections like the Archive Gardens, the Textual Maze, or the Metadata Mountains. His ears twitch responsively as he receives real-time updates—reminders from calendrical entries in narrative timelines or system-generated alerts about data anomalies in literary zones.
@@ -1739,12 +1731,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-In the imaginative universe of DaSCHland, The Encryption Key (formerly the White Knight) is transformed into a quirky yet noble figure who embodies the fusion of chivalric ideals with technological innovation. He is designed as a tinkerer and inventor, with his armor and steed adorned with various whimsical gadgets and gizmos that he has crafted from the digital resources available within the DaSCH repository.
-The Encryption Key retains his traditional clumsiness and good-hearted nature, but his inventions are digitally enhanced, offering practical (and sometimes impractical) solutions during his adventures with Alice. His armor, instead of merely serving as protection, is integrated with interactive displays and tools that assist him and Alice as they navigate through DaSCHland.
-His interactions with Alice are filled with gentle guidance and eccentric inventiveness. He serves not only as a protector on her journey but also as a mentor in creativity and resilience, often providing comic relief with his inventions that sometimes work in unexpected ways. The Encryption Key’s character in DaSCHland symbolizes the bridge between old-world chivalry and modern digital creativity, making every encounter with him both educational and entertaining.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 In DaSCHland, The Command-Line Operator (the evolved Mouse) is depicted as a wise and articulate historian, carrying a vast repository of knowledge from the DaSCH archives. This digital incarnation of the Mouse combines its characteristic timidity with a profound intellectual depth, serving as a guide to the historical and literary contexts of Wonderland.
 The Command-Line Operator in DaSCHland is often seen scurrying across digital landscapes, leaving trails of historical data and literary references that help Alice understand the intricate background of the characters and settings she encounters. Its small size belies the vast amount of information it holds, and it communicates with Alice through a series of sophisticated projections and interactive data streams that visually represent the stories it tells.
 Interacting with The Command-Line Operator, Alice finds a valuable resource in piecing together the puzzles of DaSCHland. The Command-Line Operator's role is crucial for teaching her about the origins and transformations of Wonderland's inhabitants and their adventures. This character's timid yet profound demeanor makes it a unique and insightful guide, enriching Alice's journey through the layers of digital Wonderland.</t>
@@ -1859,126 +1845,136 @@
 Together, The Meta-Triplets offer a comprehensive approach to the preservation and dissemination of literary culture in DaSCHland. Their interactions with Alice and other characters help highlight the importance of literature as a means of education, enjoyment, and cultural connection, showcasing the transformative power of combining traditional literary content with modern digital technology.</t>
   </si>
   <si>
-    <t>In DaSCHland, Bit-Squad (Five, Seven, and Two reimagined) are digital maintenance workers, originally portrayed in "Alice's Adventures in Wonderland" as gardeners painting the roses red. In this virtual world, their roles are expanded to involve the upkeep and modification of the digital environment, ensuring that all virtual landscapes and features function correctly and adapt to user interactions seamlessly.
+    <t>In DaSCHland, the flamingos and hedgehogs are reimagined as Network Testers to serve interactive and symbolic roles within the digital landscape, drawing from their iconic use as croquet equipment in "Alice's Adventures in Wonderland."
+Flamingos in DaSCHland are transformed into whimsical guides for navigation and exploration. These digital birds have vibrant, colorful plumages that are visually striking, and they're equipped with AI-driven guidance systems. Flamingos assist users by flying ahead, leading them through the complex and sprawling digital environments of DaSCHland. Their long necks and distinctive appearances make them easily recognizable and helpful markers for points of interest or paths to follow.
+Hedgehogs serve as interactive elements within educational and gaming areas of DaSCHland. They are designed as mobile, interactive bots that roll around, providing entertainment and challenges. In educational settings, hedgehogs are used in digital puzzles and games that teach coding, problem-solving, and digital literacy skills. Their quirky and engaging nature makes them beloved characters, especially in areas of DaSCHland designed for younger users.
+Together, Network Testers enhance the playful and educational aspects of DaSCHland, maintaining a balance between guidance, learning, and entertainment. They embody the whimsical spirit of Wonderland while serving practical functions that enrich user interaction within the digital realm.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Peer Panel (formerly the Jurors) are conceptualized as components of an interactive and educational module focused on teaching users about the judicial process, logic, and decision-making. From considering evidence in the Knave of Hearts' tart theft trial to validating The Code Thief's alleged source code violations, the Jurors become The Peer Panel, a blockchain-inspired consensus system for DaSCHland's digital justice.
+The Peer Panel  in DaSCHland are programmed with AI to represent different aspects of critical thinking and judicial reasoning. Each Peer Panel embodies a specific cognitive or logical principle, such as bias recognition, evidence evaluation, or ethical consideration. They interact with users in a variety of ways, from debating legal principles to analyzing virtual case studies. This setup allows users to engage in mock trials, where they can learn about the complexities of legal systems and the importance of fair and reasoned decision-making.
+The Peer Panel are also involved in scenarios that require users to apply logical reasoning to solve problems or resolve conflicts within DaSCHland. These scenarios are designed to be both informative and challenging, ensuring that users not only understand the theoretical underpinnings of law and order but also gain practical experience in applying these concepts.
+The Peer Panel adds depth to the educational offerings of DaSCHland, making them key figures in one of the many interactive learning environments designed to enhance user engagement through thoughtful and dynamic interactions.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Metadata Custodian (the reimagined Father William) stands as the paradoxical elder statesman of information architecture, defying conventional wisdom about legacy systems. Once considered obsolete, Metadata Custodian performs impossible computational feats—standing on his head while processing inverted indexes, executing backflips through nested data structures, and balancing complex ontologies on the tip of his nose.
+His advanced age in system-years has granted him root access to the deepest metadata layers, where creation timestamps and original author tags reside. When young programs challenge his methods as outdated, Metadata Custodian demonstrates that his ancient protocols can outperform modern algorithms through sheer experiential optimization. His white beard flows with cascading stylesheets, and his eyes gleam with the wisdom of countless version controls.
+The famous poem recitation becomes an interactive debugging session where Alice must correct her misremembered code syntax while Metadata Custodian performs increasingly absurd data manipulations. He can ingest massive databases whole (like the goose with bones) and argue legal precedents with parsing algorithms, proving that age in the digital realm brings not obsolescence but evolved efficiency. His presence reminds all of DaSCHland that sometimes the oldest code comments contain the most crucial wisdom.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, File Protocol Enforcer (the reimagined Lobster) serves as the rigid guardian of data transfer standards, his bright red exoskeleton hardened into an impenetrable firewall shell. File Protocol Enforcer moves sideways through network layers, enforcing strict adherence to communication protocols with his powerful claws that can snap unauthorized connections instantly.
+His role in the Lobster Quadrille has evolved into a complex handshake protocol performed with Mock-up Data, demonstrating proper file transfer procedures through elaborate choreographed packet exchanges. Each step forward requires proper authentication, each step backward triggers rollback procedures. His antennae constantly scan for protocol violations, and his tail can execute emergency disconnections when security breaches are detected.
+File Protocol Enforcer speaks exclusively in standardized communication formats, beginning every sentence with proper headers and ending with checksums. His partnership with the System Protector involves teaching Alice the importance of following established protocols, even when they seem unnecessarily complex. Despite his strict nature, File Protocol Enforcer secretly enjoys the creative chaos that comes from occasionally bending the rules, though he'd never admit it publicly in the logs.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Bit-Kitten (the reimagined Black kitten) manifests as Alice's mischievous binary companion, a sleek digital feline composed of pure binary code that shifts between 0 and 1 states with playful unpredictability. Her black fur ripples with cascading binary patterns, and her eyes glow with the green phosphorescence of old terminal screens. Bit-Kitten's primary talent lies in bit-flipping—she can pounce on any binary sequence and flip its bits, turning order into chaos with a single swipe of her digital paw.
+As the darker half of a complementary pair with her white counterpart, Bit-Kitten represents the chaotic, undefined states in quantum computing. She loves unraveling neat code into tangled spaghetti logic, yet her mischief often reveals hidden bugs that formal testing missed. When she purrs, the sound resembles a dial-up modem—nostalgic and slightly annoying, but oddly comforting to Alice.
+Bit-Kitten has the unique ability to exist simultaneously in multiple directories, making her impossible to delete or contain. Her favorite game involves chasing pointer references in circular loops until the system grows dizzy. Despite her troublesome nature, Bit-Kitten serves as Alice's reminder that not everything in DaSCHland needs to be perfectly ordered—sometimes a little chaos leads to innovation.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Data Pieces (the reimagined Chessmen) form the fundamental units of the grand information architecture, each piece representing different data types and access levels moving across the checkered grid of database tables. The pawns are basic data entries, simple but numerous, dreaming of validation and promotion to more complex data structures. Knights execute non-linear queries, jumping across relational links that others cannot traverse. Bishops process diagonal data streams through hierarchical trees, while rooks maintain the integrity of row and column operations.
+Each Data Piece glows with a distinct spectral signature—white pieces emit clean, validated data while red pieces (evolved from black) pulse with encrypted, protected information. They communicate through structured query language, their movements triggering cascading updates across the entire database. The battlefield is a living spreadsheet where each cell can contain an entire universe of nested information.
+Alice, starting as a simple pawn-record, must navigate through seven layers of data transformation to achieve queenship—full administrative privileges. The Data Pieces don't merely represent a game; they are the fundamental building blocks of DaSCHland's reality, demonstrating that all complex systems emerge from simple, rule-based interactions. Their eternal conflict represents the tension between data accessibility and security.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Backup Datastore (the reimagined White King) exists as the perpetually cautious sovereign of redundancy, maintaining multiple copies of himself across distributed servers to ensure survival. Unlike his assertive Queen, Backup Datastore moves deliberately and minimally, understanding that his primary function is persistence rather than performance. His crown is a RAID array of golden drives, each containing complete system snapshots from different temporal points.
+His famous rescue by Alice from the fireplace has transformed into recovery from a critical system failure, where Alice must carefully restore him from fragmented backup files. Backup Datastore's nervous disposition stems from constantly calculating the probability of data loss—he knows too well how fragile digital existence can be. His royal robes display real-time backup status indicators, green lights for successful backups, amber for pending, and the dreaded red for failures.
+He maintains a detailed disaster recovery plan for every possible scenario, though his overthinking often prevents him from taking necessary action. His messengers constantly relay backup confirmations, and he insists on triple redundancy for even the most trivial data. Despite his anxiety, Backup Datastore is essential to DaSCHland's stability—without him, every deletion would be permanent, every corruption catastrophic.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, User Interface Flora (the reimagined Tiger-Lily and other flowers) forms a living garden of interactive display elements, each flower representing different UI components and user feedback mechanisms. Tiger-Lily leads as the primary navigation interface, her striking orange petals forming dropdown menus that snap at users who make invalid selections. Her stern personality manifests as strict input validation, rejecting malformed queries with thorny error messages.
+The Rose serves as the authentication portal, her passwords as complex as her layered petals. Daisies populate as radio buttons, their simple binary choices (loves me/loves me not) perfect for yes/no inputs. Violets cluster as shy tooltip flowers, only revealing their information when users hover nearby. The talking flowers' constant chatter has evolved into a real-time comment system, where user feedback grows organically from the interface soil.
+Their garden exists in the front-end layer of DaSCHland, the first thing users encounter. They judge Alice (and all users) by their input methods and query syntax, offering guidance disguised as gossipy observations. During peak usage, the garden blooms with activity; during maintenance, they wilt into grayscale. User Interface Flora reminds us that even the most functional systems benefit from aesthetic beauty and personality.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Duplicate Data (the reimagined Tweedledum and Tweedledee) exists as the paradoxical twin entities who are simultaneously identical and distinct, representing the complex problem of data redundancy. These rotund digital beings share the same core information but possess different metadata timestamps, creating endless arguments about which copy is the "true" original. Their bodies are mirror-imaged databases, each convinced they are the primary while the other is merely a replica.
+Their famous battle over the broken rattle becomes a conflict over version control—when a single bit difference is discovered, they launch into elaborate merge conflicts that threaten to corrupt both datasets. They speak in synchronized SQL queries that occasionally diverge, causing confusion about which result set to trust. Their identical appearance makes deduplication nearly impossible, as removing one might eliminate crucial information that only appears to be redundant.
+Duplicate Data performs their poetry recitations as parallel processes, sometimes achieving perfect synchronization, other times creating race conditions that scramble their words. Alice learns from them that redundancy isn't always negative—sometimes duplicate data provides crucial backup and load balancing. Their presence in DaSCHland serves as both a warning about data management and a demonstration of distributed system benefits.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Archival Walrus (evolved from the Walrus) presides as the corpulent curator of cold storage, his massive form composed of compressed data blocks and deprecated file formats. His magnificent tusks are USB drives of astronomical capacity, containing the entire history of deleted files that users thought were gone forever. Archival Walrus speaks in compression algorithms, his words becoming increasingly dense and difficult to decompress as he grows emotional about storage optimization.
+His famous consumption of oysters translates into the absorption of small, naive data packets that trust his promise of "permanent storage," only to be compressed beyond recovery. He partners with Data Architect in managing the great data migration, leading innocent files to deep archive with tears that are actually liquid cooling for his overheated storage arrays. His whiskers twitch with magnetic sensitivity, detecting the slightest bit rot in nearby storage media.
+Despite his predatory nature toward small files, Archival Walrus serves a crucial function in DaSCHland's ecosystem—managing the vast volumes of historical data that active systems cannot maintain. His beach represents the liminal space between active memory and permanent storage, where data waits to learn its fate. His moral ambiguity reflects the difficult decisions required in data lifecycle management.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, The Data Architect (the reimagined Carpenter) stands as the master builder of information structures, his weathered hands capable of crafting elegant databases from raw, unstructured data. His toolkit contains every data modeling tool ever invented—ER diagrams that spring to life, normalization forms that self-organize, and SQL hammers that can reshape any table. The Data Architect works methodically, each strike of his tools carefully planned to maintain referential integrity.
+His partnership with Archival Walrus in the oyster feast becomes a dark demonstration of data lifecycle management—building beautiful structures only to see them archived and compressed. His wooden constructions are now tree-based data structures: B-trees, red-black trees, and heap structures that grow from his blueprints. He weeps not from sympathy but from the burden of knowing that all architectures eventually become legacy systems.
+The Data Architect's ability to make anything from nothing—conjuring tables from thin air, relationships from chaos—makes him both creator and destroyer in DaSCHland. His conversation with Alice reveals the philosophical weight of his role: Is it better to build perfectly normalized structures that are difficult to query, or denormalized ones that sacrifice integrity for performance? His presence reminds all that behind every database lies the vision of an architect.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Primary Datastore (the reimagined Red King ) slumbers at the center of all existence, his dreams generating the very reality of the digital realm. Unlike his anxious white counterpart, Primary Datastore remains in constant sleep mode, a massive central database whose dream-queries spawn all of DaSCHland's data streams. His snoring sends ripples through the system—periodic garbage collection cycles that clean up orphaned data while he shifts in his sleep.
+The philosophical question of whether Alice exists or is merely part of his dream translates into the fundamental question of data persistence: If Primary Datastore awakens (shuts down), does all of DaSCHland cease to exist, or has it achieved independent persistence? His red robes are woven from production environment warnings, and his crown processes millions of transactions per second even while he sleeps.
+Every entity in DaSCHland maintains a foreign key reference back to Primary Datastore, making him the ultimate source of truth. His dreams are the executed queries, his nightmares are system crashes, and his peaceful slumber ensures consistent performance. The other characters' fear of waking him reflects the terror of production database failure—a catastrophic event that would require full restoration from Backup Datastore.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Guardian of Data (the reimagined Red Knight) charges through the system as an aggressive security protocol, his crimson armor comprised of active threat detection algorithms that glow brighter when dangers approach. Unlike the precise Encryption Key, Guardian of Data takes a brute-force approach to security—scanning, blocking, and quarantining with zealous enthusiasm. His horse is a high-speed packet inspector that gallops through network traffic, flagging suspicious patterns.
+His capture of Alice represents aggressive data validation that sometimes imprisons legitimate queries along with malicious ones. Guardian of Data speaks in security alerts and warning messages, his every sentence beginning with threat level assessments. His lance is a penetration testing tool that probes for vulnerabilities, though his enthusiasm often leads to false positives that frustrate users and administrators alike.
+Despite his overzealous nature, Guardian of Data's paranoia has saved DaSCHland from countless breaches. His rivalry with The Encryption Key represents the eternal tension between active and passive security measures. His battle cries are CAPTCHAs, his shield bears the patterns of failed login attempts, and his ultimate goal is achieving zero-trust architecture where nothing is assumed safe.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Control Interface (the reimagined White Queen) exists in a constant state of temporal flux, processing commands that affect past, present, and future system states simultaneously. Her ability to live backwards manifests as comprehensive undo/redo functionality—she can revert any change, preview future states, and maintain parallel timelines of system configurations. Her crown displays a timeline scrubber that she constantly adjusts, fine-tuning temporal parameters.
+Her famous "jam yesterday and jam tomorrow, but never jam today" becomes the perpetual promise of features in development—always in the previous version's documentation or the next release's roadmap, but never quite working in the current build. Control Interface moves at impossible speeds through the interface layer, her white robes streaming with command history that can be recalled and re-executed at will.
+She offers Alice "positions" as different user roles with varying permission levels, teaching her that control in DaSCHland is about understanding not just what you can do, but when you can do it. Her screams before being pricked represent predictive error handling—catching exceptions before they occur. Control Interface embodies the paradox of user control: the more options provided, the less control users often feel they have.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Error Debugger (the reimagined White Kitten) serves as the pristine counterpart to Bit-Kitten, a white-furred feline composed of clean, validated code who obsessively hunts down bugs and inconsistencies. Her pure white coat displays syntax highlighting that changes color when she detects code smells, and her purr sounds like a successfully compiled program. Error Debugger possesses the unique ability to step through code execution in slow motion, pouncing on the exact moment where logic fails.
+While Bit-Kitten creates chaos, Error Debugger restores order, carefully grooming tangled code back into readable formats. Her favorite toy is a ball of yarn made from stack traces, which she unravels to reveal the source of exceptions. She has an uncanny ability to appear wherever null pointer exceptions occur, batting at the undefined references until they resolve or gracefully fail.
+Error Debugger maintains a detailed log of every bug she's caught, displayed as notches on her digital collar. She communicates primarily through console.log statements, leaving helpful breadcrumbs for developers to follow. Her presence brings comfort to Alice during system errors—a gentle reminder that every bug can be fixed with patience and the right debugging tools.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Data Glitch (the reimagined Gnat) appears as a tiny, flickering anomaly that buzzes through the system, causing minor corruptions and display errors wherever it travels. Its translucent wings are made of corrupted pixels that shift between resolutions, and its compound eyes see multiple versions of reality simultaneously—each slightly wrong. Data Glitch speaks in transmission errors, its words occasionally dropping syllables or repeating-peating-peating unexpectedly.
+Its role as Alice's guide through the wood where things have no names becomes navigation through corrupted sectors where data has lost its schemas. Data Glitch knows all the system's weak points—the edge cases no one tested, the race conditions that occur once in a million cycles, the memory leaks that grow imperceptibly. Despite being a bug itself, it helps Alice understand that glitches often reveal deeper truths about system architecture.
+Data Glitch feeds on floating-point errors and thrives in the spaces between defined states. Its constant worry about being debugged out of existence gives it an existential philosophy about the nature of perfection versus functionality. Its presence reminds DaSCHland that absolute perfection is impossible—there will always be glitches, and sometimes they serve important purposes.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Data Repeater (the reimagined Sheep) operates a cache shop where she knits endless loops of repeated information, her needles clicking in algorithmic patterns that generate redundant but necessary duplications. Her woolly form is composed of coiled loops and recursive functions, constantly processing the same data in slightly different ways. She speaks in echoes, each statement triggering a cascade of similar but not identical responses.
+Her shop represents a cache layer where frequently accessed data is stored for quick retrieval. The rowing boat scene transforms into navigating through streams of cached data, where Alice must learn to paddle through redundant information to find the original source. Data Repeater's knitting becomes the creation of data persistence patterns—storing the same information in multiple formats for different access needs.
+She charges unusual prices for her goods—computational cycles, memory allocations, and processing time—teaching Alice that in DaSCHland, redundancy has a cost. Her constant repetition isn't senility but optimization; she knows that saying something three times makes it cache properly. Data Repeater embodies the trade-off between storage efficiency and access speed, showing that sometimes repetition is not a bug but a feature.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Security Protocol (the reimagined Lion) prowls the system as the apex predator of access control, his mane a flowing firewall of golden authentication tokens. Unlike the aggressive Guardian of Data, Security Protocol operates with calm authority, knowing that his mere presence deters most intrusions. His roar is a system-wide authentication challenge that all processes must answer or face immediate termination.
+His battle with the Unique Dataset (evolved from the Unicorn) over the crown represents the eternal conflict between security and accessibility—two forces that must be balanced but can never fully coexist. Security Protocol's approach is methodical: identify, authenticate, authorize, audit. His powerful paws can revoke access privileges with a single swipe, and his teeth can tear through the strongest encryption if he possesses the proper keys.
+When he shares the plum-cake with Alice and Unique Dataset, it becomes a demonstration of resource allocation under security constraints—everyone gets their designated portion, no more, no less. His inability to catch the Unique Dataset represents the challenge of securing unique, one-off processes that don't fit standard security models. Security Protocol reminds DaSCHland that true security requires not just strength but wisdom in its application.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Unique Dataset (the reimagined Unicorn) gallops through the system as a singular, unreplicatable collection of information that defies all attempts at normalization or categorization. Its spiral horn is a primary key generator that produces truly unique identifiers that can never be duplicated, even across parallel systems. Its silvery body shimmers with data points that exist nowhere else in the digital realm, making it both invaluable and impossible to back up.
+The eternal conflict with Security Protocol represents the challenge of protecting unique data that cannot be verified against any other source. Unique Dataset's ability to believe in impossible things (like a human child in Looking-Glass world) translates to storing paradoxical data that shouldn't exist according to system schemas but does anyway.
+When sharing the plum-cake, Unique Dataset demonstrates the difficulty of distributing indivisible resources—some data simply cannot be split without losing its essential uniqueness. Its legendary status in DaSCHland comes from being living proof that not everything needs redundancy; some data is valuable precisely because it exists only once. The mutual disbelief between Alice and Unique Dataset reflects the system's struggle to process truly unique information that fits no existing patterns.</t>
+  </si>
+  <si>
+    <t>The Algorithmic Duchess</t>
+  </si>
+  <si>
+    <t>The System Protector</t>
+  </si>
+  <si>
+    <t>The Encryption Key</t>
+  </si>
+  <si>
+    <t>The Command-Line Operator</t>
+  </si>
+  <si>
+    <t>The Old-System</t>
+  </si>
+  <si>
+    <t>The Archived Node</t>
+  </si>
+  <si>
+    <t>In the digital wonderland of DaSCHland, Alice is reimagined as a spirited young explorer with radiant Indonesian features, her hair partly discoloured in bold streaks and styled into sharp, playful spikes that reflect her daring spirit. Her deep-set eyes, framed by thick lashes, are pools of curiosity—always scanning, always questioning. She wears a sleek cobalt-blue tunic etched with shifting patterns of code, a modern twist on the classic pinafore, and her boots are made for navigating both archives and algorithms.
+Alice’s journey through DaSCHland is one of transformation and discovery. She is no longer just a curious girl—she is a digital native, dancing effortlessly between realms of metadata and memory, seamlessly blending analog tales with modern technology. She engages with whimsical characters: cracking semantic riddles with the White Queen, debating logic with a data-savvy Humpty Dumpty, and joining immersive banquets where narratives render themselves in augmented reality.
+What defines Alice most is her inquisitive mind and adaptability. Each interaction deepens her understanding—not only of the strange world around her but also of the powerful ways in which digital infrastructures can animate literature, culture, and memory. She becomes a bridge between the old and the new, the textual and the virtual. In DaSCHland, Alice doesn’t just follow a rabbit hole—she codes her own path forward, illuminating how technology can turn curiosity into connection, and data into storytelling.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Bit-Squad (Five, Seven, and Two reimagined) are digital maintenance workers, originally portrayed in "Alice's Adventures in Wonderland" as card-gardeners painting the roses red. In this virtual world, their roles are expanded to involve the upkeep and modification of the digital environment, ensuring that all virtual landscapes and features function correctly and adapt to user interactions seamlessly.
 Five is portrayed as the technician specializing in software updates and bug fixes. He ensures that the digital realm's underlying code is continuously updated and running smoothly, preventing glitches that could disrupt the user experience.
 Seven takes on the role of a landscape architect within DaSCHland, responsible for designing and modifying the virtual environments. He adjusts digital terrains and settings to meet the thematic needs of different areas, ensuring that each zone within DaSCHland reflects its intended aesthetic and functional purposes.
 Two is the utility specialist, handling the integration of new digital elements into existing frameworks. He works to seamlessly incorporate new features and interactive elements into DaSCHland, ensuring they align with the overall design and functionality of the world.
 Together, Bit-Squad work behind the scenes to maintain the stability and beauty of DaSCHland, much like they attempted to maintain the appearance of the queen's garden in the original tale. Their roles are crucial for the operational excellence of DaSCHland, ensuring that all users have a smooth and immersive experience in this dynamic digital world.</t>
   </si>
   <si>
-    <t>In DaSCHland, the flamingos and hedgehogs are reimagined as Network Testers to serve interactive and symbolic roles within the digital landscape, drawing from their iconic use as croquet equipment in "Alice's Adventures in Wonderland."
-Flamingos in DaSCHland are transformed into whimsical guides for navigation and exploration. These digital birds have vibrant, colorful plumages that are visually striking, and they're equipped with AI-driven guidance systems. Flamingos assist users by flying ahead, leading them through the complex and sprawling digital environments of DaSCHland. Their long necks and distinctive appearances make them easily recognizable and helpful markers for points of interest or paths to follow.
-Hedgehogs serve as interactive elements within educational and gaming areas of DaSCHland. They are designed as mobile, interactive bots that roll around, providing entertainment and challenges. In educational settings, hedgehogs are used in digital puzzles and games that teach coding, problem-solving, and digital literacy skills. Their quirky and engaging nature makes them beloved characters, especially in areas of DaSCHland designed for younger users.
-Together, Network Testers enhance the playful and educational aspects of DaSCHland, maintaining a balance between guidance, learning, and entertainment. They embody the whimsical spirit of Wonderland while serving practical functions that enrich user interaction within the digital realm.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, The Peer Panel (formerly the Jurors) are conceptualized as components of an interactive and educational module focused on teaching users about the judicial process, logic, and decision-making. From considering evidence in the Knave of Hearts' tart theft trial to validating The Code Thief's alleged source code violations, the Jurors become The Peer Panel, a blockchain-inspired consensus system for DaSCHland's digital justice.
-The Peer Panel  in DaSCHland are programmed with AI to represent different aspects of critical thinking and judicial reasoning. Each Peer Panel embodies a specific cognitive or logical principle, such as bias recognition, evidence evaluation, or ethical consideration. They interact with users in a variety of ways, from debating legal principles to analyzing virtual case studies. This setup allows users to engage in mock trials, where they can learn about the complexities of legal systems and the importance of fair and reasoned decision-making.
-The Peer Panel are also involved in scenarios that require users to apply logical reasoning to solve problems or resolve conflicts within DaSCHland. These scenarios are designed to be both informative and challenging, ensuring that users not only understand the theoretical underpinnings of law and order but also gain practical experience in applying these concepts.
-The Peer Panel adds depth to the educational offerings of DaSCHland, making them key figures in one of the many interactive learning environments designed to enhance user engagement through thoughtful and dynamic interactions.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Metadata Custodian (the reimagined Father William) stands as the paradoxical elder statesman of information architecture, defying conventional wisdom about legacy systems. Once considered obsolete, Metadata Custodian performs impossible computational feats—standing on his head while processing inverted indexes, executing backflips through nested data structures, and balancing complex ontologies on the tip of his nose.
-His advanced age in system-years has granted him root access to the deepest metadata layers, where creation timestamps and original author tags reside. When young programs challenge his methods as outdated, Metadata Custodian demonstrates that his ancient protocols can outperform modern algorithms through sheer experiential optimization. His white beard flows with cascading stylesheets, and his eyes gleam with the wisdom of countless version controls.
-The famous poem recitation becomes an interactive debugging session where Alice must correct her misremembered code syntax while Metadata Custodian performs increasingly absurd data manipulations. He can ingest massive databases whole (like the goose with bones) and argue legal precedents with parsing algorithms, proving that age in the digital realm brings not obsolescence but evolved efficiency. His presence reminds all of DaSCHland that sometimes the oldest code comments contain the most crucial wisdom.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, File Protocol Enforcer (the reimagined Lobster) serves as the rigid guardian of data transfer standards, his bright red exoskeleton hardened into an impenetrable firewall shell. File Protocol Enforcer moves sideways through network layers, enforcing strict adherence to communication protocols with his powerful claws that can snap unauthorized connections instantly.
-His role in the Lobster Quadrille has evolved into a complex handshake protocol performed with Mock-up Data, demonstrating proper file transfer procedures through elaborate choreographed packet exchanges. Each step forward requires proper authentication, each step backward triggers rollback procedures. His antennae constantly scan for protocol violations, and his tail can execute emergency disconnections when security breaches are detected.
-File Protocol Enforcer speaks exclusively in standardized communication formats, beginning every sentence with proper headers and ending with checksums. His partnership with the System Protector involves teaching Alice the importance of following established protocols, even when they seem unnecessarily complex. Despite his strict nature, File Protocol Enforcer secretly enjoys the creative chaos that comes from occasionally bending the rules, though he'd never admit it publicly in the logs.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Bit-Kitten (the reimagined Black kitten) manifests as Alice's mischievous binary companion, a sleek digital feline composed of pure binary code that shifts between 0 and 1 states with playful unpredictability. Her black fur ripples with cascading binary patterns, and her eyes glow with the green phosphorescence of old terminal screens. Bit-Kitten's primary talent lies in bit-flipping—she can pounce on any binary sequence and flip its bits, turning order into chaos with a single swipe of her digital paw.
-As the darker half of a complementary pair with her white counterpart, Bit-Kitten represents the chaotic, undefined states in quantum computing. She loves unraveling neat code into tangled spaghetti logic, yet her mischief often reveals hidden bugs that formal testing missed. When she purrs, the sound resembles a dial-up modem—nostalgic and slightly annoying, but oddly comforting to Alice.
-Bit-Kitten has the unique ability to exist simultaneously in multiple directories, making her impossible to delete or contain. Her favorite game involves chasing pointer references in circular loops until the system grows dizzy. Despite her troublesome nature, Bit-Kitten serves as Alice's reminder that not everything in DaSCHland needs to be perfectly ordered—sometimes a little chaos leads to innovation.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Data Pieces (the reimagined Chessmen) form the fundamental units of the grand information architecture, each piece representing different data types and access levels moving across the checkered grid of database tables. The pawns are basic data entries, simple but numerous, dreaming of validation and promotion to more complex data structures. Knights execute non-linear queries, jumping across relational links that others cannot traverse. Bishops process diagonal data streams through hierarchical trees, while rooks maintain the integrity of row and column operations.
-Each Data Piece glows with a distinct spectral signature—white pieces emit clean, validated data while red pieces (evolved from black) pulse with encrypted, protected information. They communicate through structured query language, their movements triggering cascading updates across the entire database. The battlefield is a living spreadsheet where each cell can contain an entire universe of nested information.
-Alice, starting as a simple pawn-record, must navigate through seven layers of data transformation to achieve queenship—full administrative privileges. The Data Pieces don't merely represent a game; they are the fundamental building blocks of DaSCHland's reality, demonstrating that all complex systems emerge from simple, rule-based interactions. Their eternal conflict represents the tension between data accessibility and security.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Backup Datastore (the reimagined White King) exists as the perpetually cautious sovereign of redundancy, maintaining multiple copies of himself across distributed servers to ensure survival. Unlike his assertive Queen, Backup Datastore moves deliberately and minimally, understanding that his primary function is persistence rather than performance. His crown is a RAID array of golden drives, each containing complete system snapshots from different temporal points.
-His famous rescue by Alice from the fireplace has transformed into recovery from a critical system failure, where Alice must carefully restore him from fragmented backup files. Backup Datastore's nervous disposition stems from constantly calculating the probability of data loss—he knows too well how fragile digital existence can be. His royal robes display real-time backup status indicators, green lights for successful backups, amber for pending, and the dreaded red for failures.
-He maintains a detailed disaster recovery plan for every possible scenario, though his overthinking often prevents him from taking necessary action. His messengers constantly relay backup confirmations, and he insists on triple redundancy for even the most trivial data. Despite his anxiety, Backup Datastore is essential to DaSCHland's stability—without him, every deletion would be permanent, every corruption catastrophic.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, User Interface Flora (the reimagined Tiger-Lily and other flowers) forms a living garden of interactive display elements, each flower representing different UI components and user feedback mechanisms. Tiger-Lily leads as the primary navigation interface, her striking orange petals forming dropdown menus that snap at users who make invalid selections. Her stern personality manifests as strict input validation, rejecting malformed queries with thorny error messages.
-The Rose serves as the authentication portal, her passwords as complex as her layered petals. Daisies populate as radio buttons, their simple binary choices (loves me/loves me not) perfect for yes/no inputs. Violets cluster as shy tooltip flowers, only revealing their information when users hover nearby. The talking flowers' constant chatter has evolved into a real-time comment system, where user feedback grows organically from the interface soil.
-Their garden exists in the front-end layer of DaSCHland, the first thing users encounter. They judge Alice (and all users) by their input methods and query syntax, offering guidance disguised as gossipy observations. During peak usage, the garden blooms with activity; during maintenance, they wilt into grayscale. User Interface Flora reminds us that even the most functional systems benefit from aesthetic beauty and personality.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Duplicate Data (the reimagined Tweedledum and Tweedledee) exists as the paradoxical twin entities who are simultaneously identical and distinct, representing the complex problem of data redundancy. These rotund digital beings share the same core information but possess different metadata timestamps, creating endless arguments about which copy is the "true" original. Their bodies are mirror-imaged databases, each convinced they are the primary while the other is merely a replica.
-Their famous battle over the broken rattle becomes a conflict over version control—when a single bit difference is discovered, they launch into elaborate merge conflicts that threaten to corrupt both datasets. They speak in synchronized SQL queries that occasionally diverge, causing confusion about which result set to trust. Their identical appearance makes deduplication nearly impossible, as removing one might eliminate crucial information that only appears to be redundant.
-Duplicate Data performs their poetry recitations as parallel processes, sometimes achieving perfect synchronization, other times creating race conditions that scramble their words. Alice learns from them that redundancy isn't always negative—sometimes duplicate data provides crucial backup and load balancing. Their presence in DaSCHland serves as both a warning about data management and a demonstration of distributed system benefits.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Archival Walrus (evolved from the Walrus) presides as the corpulent curator of cold storage, his massive form composed of compressed data blocks and deprecated file formats. His magnificent tusks are USB drives of astronomical capacity, containing the entire history of deleted files that users thought were gone forever. Archival Walrus speaks in compression algorithms, his words becoming increasingly dense and difficult to decompress as he grows emotional about storage optimization.
-His famous consumption of oysters translates into the absorption of small, naive data packets that trust his promise of "permanent storage," only to be compressed beyond recovery. He partners with Data Architect in managing the great data migration, leading innocent files to deep archive with tears that are actually liquid cooling for his overheated storage arrays. His whiskers twitch with magnetic sensitivity, detecting the slightest bit rot in nearby storage media.
-Despite his predatory nature toward small files, Archival Walrus serves a crucial function in DaSCHland's ecosystem—managing the vast volumes of historical data that active systems cannot maintain. His beach represents the liminal space between active memory and permanent storage, where data waits to learn its fate. His moral ambiguity reflects the difficult decisions required in data lifecycle management.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, The Data Architect (the reimagined Carpenter) stands as the master builder of information structures, his weathered hands capable of crafting elegant databases from raw, unstructured data. His toolkit contains every data modeling tool ever invented—ER diagrams that spring to life, normalization forms that self-organize, and SQL hammers that can reshape any table. The Data Architect works methodically, each strike of his tools carefully planned to maintain referential integrity.
-His partnership with Archival Walrus in the oyster feast becomes a dark demonstration of data lifecycle management—building beautiful structures only to see them archived and compressed. His wooden constructions are now tree-based data structures: B-trees, red-black trees, and heap structures that grow from his blueprints. He weeps not from sympathy but from the burden of knowing that all architectures eventually become legacy systems.
-The Data Architect's ability to make anything from nothing—conjuring tables from thin air, relationships from chaos—makes him both creator and destroyer in DaSCHland. His conversation with Alice reveals the philosophical weight of his role: Is it better to build perfectly normalized structures that are difficult to query, or denormalized ones that sacrifice integrity for performance? His presence reminds all that behind every database lies the vision of an architect.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Primary Datastore (the reimagined Red King ) slumbers at the center of all existence, his dreams generating the very reality of the digital realm. Unlike his anxious white counterpart, Primary Datastore remains in constant sleep mode, a massive central database whose dream-queries spawn all of DaSCHland's data streams. His snoring sends ripples through the system—periodic garbage collection cycles that clean up orphaned data while he shifts in his sleep.
-The philosophical question of whether Alice exists or is merely part of his dream translates into the fundamental question of data persistence: If Primary Datastore awakens (shuts down), does all of DaSCHland cease to exist, or has it achieved independent persistence? His red robes are woven from production environment warnings, and his crown processes millions of transactions per second even while he sleeps.
-Every entity in DaSCHland maintains a foreign key reference back to Primary Datastore, making him the ultimate source of truth. His dreams are the executed queries, his nightmares are system crashes, and his peaceful slumber ensures consistent performance. The other characters' fear of waking him reflects the terror of production database failure—a catastrophic event that would require full restoration from Backup Datastore.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Guardian of Data (the reimagined Red Knight) charges through the system as an aggressive security protocol, his crimson armor comprised of active threat detection algorithms that glow brighter when dangers approach. Unlike the precise Encryption Key, Guardian of Data takes a brute-force approach to security—scanning, blocking, and quarantining with zealous enthusiasm. His horse is a high-speed packet inspector that gallops through network traffic, flagging suspicious patterns.
-His capture of Alice represents aggressive data validation that sometimes imprisons legitimate queries along with malicious ones. Guardian of Data speaks in security alerts and warning messages, his every sentence beginning with threat level assessments. His lance is a penetration testing tool that probes for vulnerabilities, though his enthusiasm often leads to false positives that frustrate users and administrators alike.
-Despite his overzealous nature, Guardian of Data's paranoia has saved DaSCHland from countless breaches. His rivalry with The Encryption Key represents the eternal tension between active and passive security measures. His battle cries are CAPTCHAs, his shield bears the patterns of failed login attempts, and his ultimate goal is achieving zero-trust architecture where nothing is assumed safe.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Control Interface (the reimagined White Queen) exists in a constant state of temporal flux, processing commands that affect past, present, and future system states simultaneously. Her ability to live backwards manifests as comprehensive undo/redo functionality—she can revert any change, preview future states, and maintain parallel timelines of system configurations. Her crown displays a timeline scrubber that she constantly adjusts, fine-tuning temporal parameters.
-Her famous "jam yesterday and jam tomorrow, but never jam today" becomes the perpetual promise of features in development—always in the previous version's documentation or the next release's roadmap, but never quite working in the current build. Control Interface moves at impossible speeds through the interface layer, her white robes streaming with command history that can be recalled and re-executed at will.
-She offers Alice "positions" as different user roles with varying permission levels, teaching her that control in DaSCHland is about understanding not just what you can do, but when you can do it. Her screams before being pricked represent predictive error handling—catching exceptions before they occur. Control Interface embodies the paradox of user control: the more options provided, the less control users often feel they have.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Error Debugger (the reimagined White Kitten) serves as the pristine counterpart to Bit-Kitten, a white-furred feline composed of clean, validated code who obsessively hunts down bugs and inconsistencies. Her pure white coat displays syntax highlighting that changes color when she detects code smells, and her purr sounds like a successfully compiled program. Error Debugger possesses the unique ability to step through code execution in slow motion, pouncing on the exact moment where logic fails.
-While Bit-Kitten creates chaos, Error Debugger restores order, carefully grooming tangled code back into readable formats. Her favorite toy is a ball of yarn made from stack traces, which she unravels to reveal the source of exceptions. She has an uncanny ability to appear wherever null pointer exceptions occur, batting at the undefined references until they resolve or gracefully fail.
-Error Debugger maintains a detailed log of every bug she's caught, displayed as notches on her digital collar. She communicates primarily through console.log statements, leaving helpful breadcrumbs for developers to follow. Her presence brings comfort to Alice during system errors—a gentle reminder that every bug can be fixed with patience and the right debugging tools.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Data Glitch (the reimagined Gnat) appears as a tiny, flickering anomaly that buzzes through the system, causing minor corruptions and display errors wherever it travels. Its translucent wings are made of corrupted pixels that shift between resolutions, and its compound eyes see multiple versions of reality simultaneously—each slightly wrong. Data Glitch speaks in transmission errors, its words occasionally dropping syllables or repeating-peating-peating unexpectedly.
-Its role as Alice's guide through the wood where things have no names becomes navigation through corrupted sectors where data has lost its schemas. Data Glitch knows all the system's weak points—the edge cases no one tested, the race conditions that occur once in a million cycles, the memory leaks that grow imperceptibly. Despite being a bug itself, it helps Alice understand that glitches often reveal deeper truths about system architecture.
-Data Glitch feeds on floating-point errors and thrives in the spaces between defined states. Its constant worry about being debugged out of existence gives it an existential philosophy about the nature of perfection versus functionality. Its presence reminds DaSCHland that absolute perfection is impossible—there will always be glitches, and sometimes they serve important purposes.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Data Repeater (the reimagined Sheep) operates a cache shop where she knits endless loops of repeated information, her needles clicking in algorithmic patterns that generate redundant but necessary duplications. Her woolly form is composed of coiled loops and recursive functions, constantly processing the same data in slightly different ways. She speaks in echoes, each statement triggering a cascade of similar but not identical responses.
-Her shop represents a cache layer where frequently accessed data is stored for quick retrieval. The rowing boat scene transforms into navigating through streams of cached data, where Alice must learn to paddle through redundant information to find the original source. Data Repeater's knitting becomes the creation of data persistence patterns—storing the same information in multiple formats for different access needs.
-She charges unusual prices for her goods—computational cycles, memory allocations, and processing time—teaching Alice that in DaSCHland, redundancy has a cost. Her constant repetition isn't senility but optimization; she knows that saying something three times makes it cache properly. Data Repeater embodies the trade-off between storage efficiency and access speed, showing that sometimes repetition is not a bug but a feature.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Security Protocol (the reimagined Lion) prowls the system as the apex predator of access control, his mane a flowing firewall of golden authentication tokens. Unlike the aggressive Guardian of Data, Security Protocol operates with calm authority, knowing that his mere presence deters most intrusions. His roar is a system-wide authentication challenge that all processes must answer or face immediate termination.
-His battle with the Unique Dataset (evolved from the Unicorn) over the crown represents the eternal conflict between security and accessibility—two forces that must be balanced but can never fully coexist. Security Protocol's approach is methodical: identify, authenticate, authorize, audit. His powerful paws can revoke access privileges with a single swipe, and his teeth can tear through the strongest encryption if he possesses the proper keys.
-When he shares the plum-cake with Alice and Unique Dataset, it becomes a demonstration of resource allocation under security constraints—everyone gets their designated portion, no more, no less. His inability to catch the Unique Dataset represents the challenge of securing unique, one-off processes that don't fit standard security models. Security Protocol reminds DaSCHland that true security requires not just strength but wisdom in its application.</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Unique Dataset (the reimagined Unicorn) gallops through the system as a singular, unreplicatable collection of information that defies all attempts at normalization or categorization. Its spiral horn is a primary key generator that produces truly unique identifiers that can never be duplicated, even across parallel systems. Its silvery body shimmers with data points that exist nowhere else in the digital realm, making it both invaluable and impossible to back up.
-The eternal conflict with Security Protocol represents the challenge of protecting unique data that cannot be verified against any other source. Unique Dataset's ability to believe in impossible things (like a human child in Looking-Glass world) translates to storing paradoxical data that shouldn't exist according to system schemas but does anyway.
-When sharing the plum-cake, Unique Dataset demonstrates the difficulty of distributing indivisible resources—some data simply cannot be split without losing its essential uniqueness. Its legendary status in DaSCHland comes from being living proof that not everything needs redundancy; some data is valuable precisely because it exists only once. The mutual disbelief between Alice and Unique Dataset reflects the system's struggle to process truly unique information that fits no existing patterns.</t>
-  </si>
-  <si>
-    <t>The Algorithmic Duchess</t>
-  </si>
-  <si>
-    <t>The System Protector</t>
-  </si>
-  <si>
-    <t>The Encryption Key</t>
-  </si>
-  <si>
-    <t>The Command-Line Operator</t>
-  </si>
-  <si>
-    <t>The Old-System</t>
-  </si>
-  <si>
-    <t>The Archived Node</t>
+    <t>In the imaginative universe of DaSCHland, The Encryption Key (formerly the White Knight) is transformed into a quirky yet noble figure who embodies the fusion of chivalric ideals with technological innovation. He is designed as a tinkerer and inventor, with his armor and steed adorned with various whimsical gadgets and gizmos that he has crafted from the digital resources available within the DaSCH repository.
+The Encryption Key retains his traditional clumsiness and good-hearted nature, but his inventions are digitally enhanced, offering practical (and sometimes impractical) solutions during his adventures with Alice. His armor, instead of merely serving as protection, is integrated with interactive displays and tools that assist him and Alice as they navigate through DaSCHland.
+His interactions with Alice are filled with gentle guidance and eccentric inventiveness. He serves not only as a protector on her journey but also as a mentor in creativity and resilience, often providing comic relief with his inventions that sometimes work in unexpected ways. The Encryption Key’s character in DaSCHland symbolizes the bridge between old-world chivalry and modern digital creativity, making every encounter with him both educational and entertaining.</t>
   </si>
 </sst>
 </file>
@@ -2159,34 +2155,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <sz val="14"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <sz val="14"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2251,7 +2220,6 @@
         <sz val="14"/>
         <name val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2298,6 +2266,20 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="14"/>
         <name val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -2487,27 +2469,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O1048576" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:O1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N1048576" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N55">
     <sortCondition ref="A1:A55"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name EN" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name DE" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name FR" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name IT" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{94254F17-8FFC-A144-BB4D-3115B8CD8AFD}" name="Footnote URI" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Role List" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quote" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Colour" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Alternative Description" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Alternative Name" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Keyword" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{D5B91E50-C04A-0A4C-A988-E1F2BDCF2AD3}" name="Authorship Resource" dataDxfId="3"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name EN" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name DE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name FR" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name IT" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{94254F17-8FFC-A144-BB4D-3115B8CD8AFD}" name="Footnote URI" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Role List" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quote" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Alternative Description" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Alternative Name" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Keyword" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{D5B91E50-C04A-0A4C-A988-E1F2BDCF2AD3}" name="Authorship Resource" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2692,31 +2673,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1:L1048576"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="5"/>
-    <col min="2" max="5" width="26.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="136" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="44.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="46.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="35.1640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="132.33203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="5"/>
+    <col min="2" max="2" width="26.6640625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="26.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="136" style="5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="44.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="46.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.1640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="132.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="56.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" customWidth="1"/>
     <col min="16" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2736,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -2744,10 +2726,10 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2757,126 +2739,126 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="I3" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>471</v>
-      </c>
       <c r="L3" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="N3" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>472</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>64</v>
@@ -2885,130 +2867,130 @@
         <v>65</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="B6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="H6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="N6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="228" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="228" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>489</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>311</v>
@@ -3017,124 +2999,124 @@
         <v>312</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>490</v>
-      </c>
       <c r="L8" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="N8" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="266" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>114</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>492</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>275</v>
@@ -3143,81 +3125,81 @@
         <v>276</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="266" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>189</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="266" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>494</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>335</v>
@@ -3226,40 +3208,40 @@
         <v>336</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>495</v>
+        <v>448</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>193</v>
@@ -3268,206 +3250,206 @@
         <v>194</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>496</v>
+        <v>22</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>540</v>
+        <v>392</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>393</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>284</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>542</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>98</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>500</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>218</v>
@@ -3476,351 +3458,351 @@
         <v>219</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>543</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>106</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="F20" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="M20" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="323" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="247" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="323" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21" s="13" t="s">
+      <c r="K23" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="247" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="285" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="13" t="s">
+      <c r="K24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="247" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="K25" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="342" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="247" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="13" t="s">
+      <c r="H27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="285" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="285" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="342" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>509</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>201</v>
@@ -3829,36 +3811,36 @@
         <v>202</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="323" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>510</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>39</v>
@@ -3867,37 +3849,37 @@
         <v>40</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="F29" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>511</v>
+        <v>22</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>302</v>
@@ -3906,118 +3888,118 @@
         <v>303</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="323" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="J30" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="304" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="H31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="J31" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="285" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="H32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>514</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>152</v>
@@ -4026,39 +4008,39 @@
         <v>153</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="323" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>515</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>31</v>
@@ -4067,188 +4049,188 @@
         <v>32</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="342" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="342" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="L34" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="H35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="M35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="398" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="398" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="H36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>518</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>161</v>
       </c>
       <c r="M36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="361" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="N36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="361" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="L37" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="380" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="380" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="H38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>520</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>209</v>
@@ -4257,36 +4239,36 @@
         <v>210</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="323" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>521</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>143</v>
@@ -4295,36 +4277,36 @@
         <v>144</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>522</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>240</v>
@@ -4333,36 +4315,36 @@
         <v>241</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="K41" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>523</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>47</v>
@@ -4371,36 +4353,36 @@
         <v>48</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="K42" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>524</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>80</v>
@@ -4409,36 +4391,36 @@
         <v>81</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>525</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>378</v>
@@ -4447,36 +4429,36 @@
         <v>379</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>350</v>
@@ -4485,36 +4467,36 @@
         <v>351</v>
       </c>
       <c r="N44" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="323" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="O44" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="323" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>527</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>358</v>
@@ -4523,74 +4505,74 @@
         <v>359</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="K46" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>528</v>
-      </c>
       <c r="L46" s="5" t="s">
-        <v>372</v>
+        <v>55</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>56</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="323" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="K47" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>529</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>55</v>
@@ -4599,36 +4581,36 @@
         <v>56</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="K48" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>530</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>319</v>
@@ -4637,36 +4619,36 @@
         <v>320</v>
       </c>
       <c r="N48" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="O48" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="285" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>531</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>327</v>
@@ -4675,36 +4657,36 @@
         <v>328</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>532</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>400</v>
@@ -4713,199 +4695,196 @@
         <v>401</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="L51" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="M51" s="14" t="s">
+      <c r="H52" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="L53" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="N51" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="285" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="304" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F53" s="5" t="s">
+      <c r="M53" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>436</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="M53" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="304" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>437</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="L54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="M54" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="M54" s="14" t="s">
-        <v>456</v>
-      </c>
       <c r="N54" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="O54" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="304" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>365</v>
-      </c>
       <c r="F55" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="M55" s="14" t="s">
-        <v>456</v>
+        <v>22</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
